--- a/database/industries/felezat/kimia/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/kimia/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897DC15-2461-4CCC-B0E3-6A5964E68E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -294,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -481,7 +482,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -493,7 +494,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -540,6 +541,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -575,6 +593,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -726,17 +761,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -791,7 +826,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -848,7 +883,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -905,7 +940,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -960,7 +995,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1017,7 +1052,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1074,7 +1109,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1129,7 +1164,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1341,7 +1376,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1398,7 +1433,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1557,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1716,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1875,7 +1910,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2034,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>63</v>
       </c>
@@ -2350,7 +2385,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>64</v>
       </c>
@@ -2407,7 +2442,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
@@ -2566,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>60</v>
       </c>
@@ -2725,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2882,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
         <v>66</v>
       </c>
@@ -2939,7 +2974,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
         <v>67</v>
       </c>
@@ -3098,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>68</v>
       </c>
@@ -3255,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
@@ -3412,7 +3447,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3467,7 +3502,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3522,7 +3557,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3577,7 +3612,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>70</v>
       </c>
@@ -3734,7 +3769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3789,7 +3824,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -3846,7 +3881,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -4005,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4164,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4323,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
@@ -4482,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>62</v>
       </c>
@@ -4641,7 +4676,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
@@ -4798,7 +4833,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>73</v>
       </c>
@@ -4855,7 +4890,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>56</v>
       </c>
@@ -5014,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -5173,7 +5208,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="16" t="s">
         <v>74</v>
       </c>
@@ -5330,7 +5365,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>66</v>
       </c>
@@ -5387,7 +5422,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
@@ -5546,7 +5581,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>68</v>
       </c>
@@ -5703,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
@@ -5760,7 +5795,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>62</v>
       </c>
@@ -5919,7 +5954,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>76</v>
       </c>
@@ -6076,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>69</v>
       </c>
@@ -6233,7 +6268,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6288,7 +6323,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6343,7 +6378,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6398,7 +6433,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>77</v>
       </c>
@@ -6555,7 +6590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6610,7 +6645,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>78</v>
       </c>
@@ -6667,7 +6702,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>56</v>
       </c>
@@ -6826,7 +6861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>59</v>
       </c>
@@ -6985,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>60</v>
       </c>
@@ -7144,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>61</v>
       </c>
@@ -7303,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>62</v>
       </c>
@@ -7462,7 +7497,7 @@
         <v>106213</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>72</v>
       </c>
@@ -7619,7 +7654,7 @@
         <v>106213</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>80</v>
       </c>
@@ -7676,7 +7711,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -7835,7 +7870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>60</v>
       </c>
@@ -7994,7 +8029,7 @@
         <v>214500</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="16" t="s">
         <v>74</v>
       </c>
@@ -8151,7 +8186,7 @@
         <v>214500</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>81</v>
       </c>
@@ -8208,7 +8243,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>67</v>
       </c>
@@ -8367,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>68</v>
       </c>
@@ -8526,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>82</v>
       </c>
@@ -8583,7 +8618,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>62</v>
       </c>
@@ -8742,7 +8777,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="14" t="s">
         <v>76</v>
       </c>
@@ -8901,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>83</v>
       </c>
@@ -8958,7 +8993,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>84</v>
       </c>
@@ -9117,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>69</v>
       </c>
@@ -9274,7 +9309,7 @@
         <v>320713</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9329,7 +9364,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9384,7 +9419,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9439,7 +9474,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>85</v>
       </c>
@@ -9596,7 +9631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -9651,7 +9686,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>86</v>
       </c>
@@ -9708,7 +9743,7 @@
       <c r="BA78" s="9"/>
       <c r="BB78" s="9"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>56</v>
       </c>
@@ -9867,7 +9902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>59</v>
       </c>
@@ -10026,7 +10061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>60</v>
       </c>
@@ -10185,7 +10220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>61</v>
       </c>
@@ -10344,7 +10379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>62</v>
       </c>
@@ -10503,7 +10538,7 @@
         <v>64922372</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>88</v>
       </c>
@@ -10560,7 +10595,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
@@ -10719,7 +10754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>60</v>
       </c>
@@ -10878,7 +10913,7 @@
         <v>165000000</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
@@ -10935,7 +10970,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>67</v>
       </c>

--- a/database/industries/felezat/kimia/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/kimia/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C897DC15-2461-4CCC-B0E3-6A5964E68E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0CEBE3-54C6-4B05-8D2B-57EDD4BF9052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کیمیا-معدنی کیمیای زنجان گستران</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1501,8 +1501,8 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>0</v>
       </c>
       <c r="Z11" s="11">
         <v>0</v>
@@ -1534,35 +1534,35 @@
       <c r="AI11" s="11">
         <v>0</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>0</v>
+      <c r="AJ11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL11" s="11" t="s">
-        <v>58</v>
+      <c r="AL11" s="11">
+        <v>210</v>
       </c>
       <c r="AM11" s="11">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="AN11" s="11">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="AO11" s="11">
-        <v>122</v>
+        <v>538</v>
       </c>
       <c r="AP11" s="11">
-        <v>538</v>
+        <v>689</v>
       </c>
       <c r="AQ11" s="11">
-        <v>689</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="11">
-        <v>0</v>
+        <v>-111</v>
       </c>
       <c r="AS11" s="11">
-        <v>-111</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="11">
         <v>0</v>
@@ -1660,41 +1660,41 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>0</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA12" s="13">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="AB12" s="13">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AC12" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="13">
         <v>0</v>
       </c>
       <c r="AE12" s="13">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AF12" s="13">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="AH12" s="13">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="AI12" s="13">
-        <v>107</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK12" s="13" t="s">
         <v>58</v>
@@ -1702,20 +1702,20 @@
       <c r="AL12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM12" s="13" t="s">
-        <v>58</v>
+      <c r="AM12" s="13">
+        <v>224</v>
       </c>
       <c r="AN12" s="13">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AO12" s="13">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="AP12" s="13">
         <v>22</v>
       </c>
       <c r="AQ12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="13">
         <v>0</v>
@@ -1727,28 +1727,28 @@
         <v>0</v>
       </c>
       <c r="AU12" s="13">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AV12" s="13">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AW12" s="13">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="13">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AY12" s="13">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BA12" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1819,41 +1819,41 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>0</v>
       </c>
       <c r="Z13" s="11">
         <v>0</v>
       </c>
       <c r="AA13" s="11">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="AB13" s="11">
-        <v>626</v>
+        <v>2091</v>
       </c>
       <c r="AC13" s="11">
         <v>2091</v>
       </c>
       <c r="AD13" s="11">
-        <v>2091</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <v>0</v>
+        <v>1858</v>
       </c>
       <c r="AF13" s="11">
-        <v>1858</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="11">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="AH13" s="11">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="AI13" s="11">
-        <v>558</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK13" s="11" t="s">
         <v>58</v>
@@ -1861,53 +1861,53 @@
       <c r="AL13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM13" s="11" t="s">
-        <v>58</v>
+      <c r="AM13" s="11">
+        <v>940</v>
       </c>
       <c r="AN13" s="11">
-        <v>940</v>
+        <v>580</v>
       </c>
       <c r="AO13" s="11">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="AP13" s="11">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AQ13" s="11">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="AR13" s="11">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="AS13" s="11">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AT13" s="11">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="AU13" s="11">
-        <v>213</v>
+        <v>1121</v>
       </c>
       <c r="AV13" s="11">
-        <v>1121</v>
+        <v>446</v>
       </c>
       <c r="AW13" s="11">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="AX13" s="11">
-        <v>271</v>
+        <v>1229</v>
       </c>
       <c r="AY13" s="11">
-        <v>1229</v>
+        <v>1288</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1288</v>
+        <v>873</v>
       </c>
       <c r="BA13" s="11">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="BB13" s="11">
-        <v>866</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1978,95 +1978,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>85</v>
       </c>
       <c r="Z14" s="13">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="AA14" s="13">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="13">
         <v>0</v>
       </c>
       <c r="AC14" s="13">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="AD14" s="13">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AE14" s="13">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="AF14" s="13">
+        <v>460</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>218</v>
+      </c>
+      <c r="AH14" s="13">
         <v>14</v>
       </c>
-      <c r="AG14" s="13">
-        <v>460</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>218</v>
-      </c>
       <c r="AI14" s="13">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AJ14" s="13">
+        <v>155</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>187</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>174</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>276</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>145</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>470</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>366</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>108</v>
+      </c>
+      <c r="AU14" s="13">
         <v>109</v>
       </c>
-      <c r="AK14" s="13">
-        <v>155</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>187</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>174</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>276</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>145</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>470</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>366</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>108</v>
-      </c>
       <c r="AV14" s="13">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="AW14" s="13">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="AX14" s="13">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="AY14" s="13">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="AZ14" s="13">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="BA14" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="13">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2137,95 +2137,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>3654</v>
       </c>
       <c r="Z15" s="11">
-        <v>3654</v>
+        <v>1150</v>
       </c>
       <c r="AA15" s="11">
-        <v>1150</v>
+        <v>571</v>
       </c>
       <c r="AB15" s="11">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="11">
-        <v>0</v>
+        <v>3382</v>
       </c>
       <c r="AD15" s="11">
-        <v>3382</v>
+        <v>2732</v>
       </c>
       <c r="AE15" s="11">
-        <v>2732</v>
+        <v>5532</v>
       </c>
       <c r="AF15" s="11">
-        <v>5532</v>
+        <v>9254</v>
       </c>
       <c r="AG15" s="11">
-        <v>9254</v>
+        <v>9021</v>
       </c>
       <c r="AH15" s="11">
-        <v>9021</v>
+        <v>3122</v>
       </c>
       <c r="AI15" s="11">
-        <v>3122</v>
+        <v>3127</v>
       </c>
       <c r="AJ15" s="11">
-        <v>3127</v>
+        <v>3596</v>
       </c>
       <c r="AK15" s="11">
-        <v>3596</v>
+        <v>4363</v>
       </c>
       <c r="AL15" s="11">
-        <v>4363</v>
+        <v>4027</v>
       </c>
       <c r="AM15" s="11">
-        <v>4027</v>
+        <v>9373</v>
       </c>
       <c r="AN15" s="11">
-        <v>9373</v>
+        <v>3271</v>
       </c>
       <c r="AO15" s="11">
-        <v>3271</v>
+        <v>646</v>
       </c>
       <c r="AP15" s="11">
-        <v>646</v>
+        <v>758</v>
       </c>
       <c r="AQ15" s="11">
-        <v>758</v>
+        <v>1866</v>
       </c>
       <c r="AR15" s="11">
-        <v>1866</v>
+        <v>6463</v>
       </c>
       <c r="AS15" s="11">
-        <v>6463</v>
+        <v>4602</v>
       </c>
       <c r="AT15" s="11">
-        <v>4602</v>
+        <v>3982</v>
       </c>
       <c r="AU15" s="11">
-        <v>3982</v>
+        <v>2418</v>
       </c>
       <c r="AV15" s="11">
-        <v>2418</v>
+        <v>3872</v>
       </c>
       <c r="AW15" s="11">
-        <v>3872</v>
+        <v>1784</v>
       </c>
       <c r="AX15" s="11">
-        <v>1784</v>
+        <v>1147</v>
       </c>
       <c r="AY15" s="11">
-        <v>1147</v>
+        <v>7063</v>
       </c>
       <c r="AZ15" s="11">
-        <v>7063</v>
+        <v>954</v>
       </c>
       <c r="BA15" s="11">
-        <v>954</v>
+        <v>1676</v>
       </c>
       <c r="BB15" s="11">
-        <v>1676</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2295,94 +2295,94 @@
         <v>0</v>
       </c>
       <c r="Y16" s="15">
-        <v>0</v>
+        <v>3739</v>
       </c>
       <c r="Z16" s="15">
-        <v>3739</v>
+        <v>1402</v>
       </c>
       <c r="AA16" s="15">
-        <v>1402</v>
+        <v>1203</v>
       </c>
       <c r="AB16" s="15">
-        <v>1203</v>
+        <v>2108</v>
       </c>
       <c r="AC16" s="15">
-        <v>2108</v>
+        <v>5697</v>
       </c>
       <c r="AD16" s="15">
-        <v>5697</v>
+        <v>2924</v>
       </c>
       <c r="AE16" s="15">
-        <v>2924</v>
+        <v>7473</v>
       </c>
       <c r="AF16" s="15">
-        <v>7473</v>
+        <v>9714</v>
       </c>
       <c r="AG16" s="15">
-        <v>9714</v>
+        <v>9913</v>
       </c>
       <c r="AH16" s="15">
-        <v>9913</v>
+        <v>3801</v>
       </c>
       <c r="AI16" s="15">
-        <v>3801</v>
+        <v>3236</v>
       </c>
       <c r="AJ16" s="15">
-        <v>3236</v>
+        <v>3751</v>
       </c>
       <c r="AK16" s="15">
-        <v>3751</v>
+        <v>4550</v>
       </c>
       <c r="AL16" s="15">
-        <v>4550</v>
+        <v>4411</v>
       </c>
       <c r="AM16" s="15">
-        <v>4411</v>
+        <v>11081</v>
       </c>
       <c r="AN16" s="15">
-        <v>11081</v>
+        <v>4051</v>
       </c>
       <c r="AO16" s="15">
-        <v>4051</v>
+        <v>1309</v>
       </c>
       <c r="AP16" s="15">
-        <v>1309</v>
+        <v>1689</v>
       </c>
       <c r="AQ16" s="15">
-        <v>1689</v>
+        <v>2700</v>
       </c>
       <c r="AR16" s="15">
-        <v>2700</v>
+        <v>6802</v>
       </c>
       <c r="AS16" s="15">
-        <v>6802</v>
+        <v>4702</v>
       </c>
       <c r="AT16" s="15">
-        <v>4702</v>
+        <v>4303</v>
       </c>
       <c r="AU16" s="15">
-        <v>4303</v>
+        <v>3767</v>
       </c>
       <c r="AV16" s="15">
-        <v>3767</v>
+        <v>4727</v>
       </c>
       <c r="AW16" s="15">
-        <v>4727</v>
+        <v>2244</v>
       </c>
       <c r="AX16" s="15">
-        <v>2244</v>
+        <v>2578</v>
       </c>
       <c r="AY16" s="15">
-        <v>2578</v>
+        <v>8453</v>
       </c>
       <c r="AZ16" s="15">
-        <v>8453</v>
+        <v>1975</v>
       </c>
       <c r="BA16" s="15">
-        <v>1975</v>
+        <v>2542</v>
       </c>
       <c r="BB16" s="15">
-        <v>2542</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2537,35 +2537,35 @@
       <c r="AG18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI18" s="11">
-        <v>0</v>
+      <c r="AH18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="11" t="s">
-        <v>58</v>
+      <c r="AK18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ18" s="11">
+        <v>0</v>
       </c>
       <c r="AR18" s="11">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="AU18" s="11">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AV18" s="11">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="11">
         <v>0</v>
@@ -2589,16 +2589,16 @@
         <v>0</v>
       </c>
       <c r="AY18" s="11">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AZ18" s="11">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="11">
         <v>0</v>
       </c>
       <c r="BB18" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2693,38 +2693,38 @@
       <c r="AF19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG19" s="13" t="s">
-        <v>58</v>
+      <c r="AG19" s="13">
+        <v>0</v>
       </c>
       <c r="AH19" s="13">
         <v>0</v>
       </c>
-      <c r="AI19" s="13">
-        <v>0</v>
+      <c r="AI19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="13" t="s">
-        <v>58</v>
+      <c r="AK19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ19" s="13">
+        <v>0</v>
       </c>
       <c r="AR19" s="13">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="AU20" s="17">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AV20" s="17">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="17">
         <v>0</v>
@@ -2905,16 +2905,16 @@
         <v>0</v>
       </c>
       <c r="AY20" s="17">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AZ20" s="17">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="17">
         <v>0</v>
       </c>
       <c r="BB20" s="17">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3042,20 +3042,20 @@
       <c r="X22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="11" t="s">
-        <v>58</v>
+      <c r="Y22" s="11">
+        <v>0</v>
       </c>
       <c r="Z22" s="11">
         <v>0</v>
       </c>
       <c r="AA22" s="11">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="AB22" s="11">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="AC22" s="11">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="11">
         <v>0</v>
@@ -3064,73 +3064,73 @@
         <v>0</v>
       </c>
       <c r="AF22" s="11">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AG22" s="11">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AH22" s="11">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="11">
         <v>10368</v>
       </c>
-      <c r="AK22" s="11" t="s">
-        <v>58</v>
+      <c r="AJ22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK22" s="11">
+        <v>0</v>
       </c>
       <c r="AL22" s="11">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AM22" s="11">
-        <v>24260</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="11">
-        <v>0</v>
+        <v>12495</v>
       </c>
       <c r="AO22" s="11">
-        <v>12495</v>
-      </c>
-      <c r="AP22" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="11" t="s">
-        <v>58</v>
+      <c r="AR22" s="11">
+        <v>0</v>
       </c>
       <c r="AS22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="11">
         <v>13055</v>
       </c>
+      <c r="AT22" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW22" s="11">
+      <c r="AV22" s="11">
         <v>20026</v>
       </c>
-      <c r="AX22" s="11" t="s">
-        <v>58</v>
+      <c r="AW22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX22" s="11">
+        <v>5008</v>
       </c>
       <c r="AY22" s="11">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AZ22" s="11">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="11">
         <v>0</v>
       </c>
       <c r="BB22" s="11">
-        <v>0</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3199,8 +3199,8 @@
       <c r="X23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="15" t="s">
-        <v>58</v>
+      <c r="Y23" s="15">
+        <v>0</v>
       </c>
       <c r="Z23" s="15">
         <v>0</v>
@@ -3357,94 +3357,94 @@
         <v>0</v>
       </c>
       <c r="Y24" s="17">
-        <v>0</v>
+        <v>3739</v>
       </c>
       <c r="Z24" s="17">
-        <v>3739</v>
+        <v>1402</v>
       </c>
       <c r="AA24" s="17">
-        <v>1402</v>
+        <v>35836</v>
       </c>
       <c r="AB24" s="17">
-        <v>35836</v>
+        <v>14296</v>
       </c>
       <c r="AC24" s="17">
-        <v>14296</v>
+        <v>5697</v>
       </c>
       <c r="AD24" s="17">
-        <v>5697</v>
+        <v>2924</v>
       </c>
       <c r="AE24" s="17">
-        <v>2924</v>
+        <v>7473</v>
       </c>
       <c r="AF24" s="17">
-        <v>7473</v>
+        <v>10203</v>
       </c>
       <c r="AG24" s="17">
-        <v>10203</v>
+        <v>10196</v>
       </c>
       <c r="AH24" s="17">
-        <v>10196</v>
+        <v>3801</v>
       </c>
       <c r="AI24" s="17">
-        <v>3801</v>
+        <v>13604</v>
       </c>
       <c r="AJ24" s="17">
-        <v>13604</v>
+        <v>3751</v>
       </c>
       <c r="AK24" s="17">
-        <v>3751</v>
+        <v>4550</v>
       </c>
       <c r="AL24" s="17">
-        <v>4550</v>
+        <v>28671</v>
       </c>
       <c r="AM24" s="17">
-        <v>28671</v>
+        <v>11081</v>
       </c>
       <c r="AN24" s="17">
-        <v>11081</v>
+        <v>16546</v>
       </c>
       <c r="AO24" s="17">
-        <v>16546</v>
+        <v>1309</v>
       </c>
       <c r="AP24" s="17">
-        <v>1309</v>
+        <v>1689</v>
       </c>
       <c r="AQ24" s="17">
-        <v>1689</v>
+        <v>2700</v>
       </c>
       <c r="AR24" s="17">
-        <v>2700</v>
+        <v>6802</v>
       </c>
       <c r="AS24" s="17">
-        <v>6802</v>
+        <v>17757</v>
       </c>
       <c r="AT24" s="17">
-        <v>17757</v>
+        <v>4303</v>
       </c>
       <c r="AU24" s="17">
-        <v>4303</v>
+        <v>3879</v>
       </c>
       <c r="AV24" s="17">
-        <v>3879</v>
+        <v>24753</v>
       </c>
       <c r="AW24" s="17">
-        <v>24753</v>
+        <v>2244</v>
       </c>
       <c r="AX24" s="17">
-        <v>2244</v>
+        <v>7586</v>
       </c>
       <c r="AY24" s="17">
-        <v>7586</v>
+        <v>15223</v>
       </c>
       <c r="AZ24" s="17">
-        <v>15223</v>
+        <v>1975</v>
       </c>
       <c r="BA24" s="17">
-        <v>1975</v>
+        <v>2542</v>
       </c>
       <c r="BB24" s="17">
-        <v>2542</v>
+        <v>7253</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3949,17 +3949,17 @@
       <c r="X31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>58</v>
+      <c r="Y31" s="11">
+        <v>0</v>
       </c>
       <c r="Z31" s="11">
         <v>0</v>
       </c>
       <c r="AA31" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB31" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC31" s="11">
         <v>0</v>
@@ -3982,35 +3982,35 @@
       <c r="AI31" s="11">
         <v>0</v>
       </c>
-      <c r="AJ31" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="11" t="s">
-        <v>58</v>
+      <c r="AJ31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK31" s="11">
+        <v>0</v>
       </c>
       <c r="AL31" s="11">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AM31" s="11">
-        <v>49</v>
+        <v>429</v>
       </c>
       <c r="AN31" s="11">
-        <v>429</v>
+        <v>122</v>
       </c>
       <c r="AO31" s="11">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="AP31" s="11">
-        <v>15</v>
-      </c>
-      <c r="AQ31" s="11">
         <v>271</v>
       </c>
-      <c r="AR31" s="11" t="s">
-        <v>58</v>
+      <c r="AQ31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR31" s="11">
+        <v>100</v>
       </c>
       <c r="AS31" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="11">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="BB31" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4108,14 +4108,14 @@
       <c r="X32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y32" s="13" t="s">
-        <v>58</v>
+      <c r="Y32" s="13">
+        <v>0</v>
       </c>
       <c r="Z32" s="13">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA32" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="13">
         <v>0</v>
@@ -4133,43 +4133,43 @@
         <v>0</v>
       </c>
       <c r="AG32" s="13">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AH32" s="13">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="13">
         <v>0</v>
       </c>
-      <c r="AJ32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN32" s="13">
+      <c r="AJ32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM32" s="13">
         <v>95</v>
       </c>
-      <c r="AO32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="13" t="s">
-        <v>58</v>
+      <c r="AN32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ32" s="13">
+        <v>82</v>
       </c>
       <c r="AR32" s="13">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AS32" s="13">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AT32" s="13">
         <v>0</v>
@@ -4187,13 +4187,13 @@
         <v>0</v>
       </c>
       <c r="AY32" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AZ32" s="13">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="BA32" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BB32" s="13">
         <v>0</v>
@@ -4267,8 +4267,8 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>0</v>
       </c>
       <c r="Z33" s="11">
         <v>0</v>
@@ -4289,10 +4289,10 @@
         <v>0</v>
       </c>
       <c r="AF33" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AG33" s="11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="11">
         <v>0</v>
@@ -4300,29 +4300,29 @@
       <c r="AI33" s="11">
         <v>0</v>
       </c>
-      <c r="AJ33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ33" s="11" t="s">
-        <v>58</v>
+      <c r="AJ33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ33" s="11">
+        <v>0</v>
       </c>
       <c r="AR33" s="11">
         <v>0</v>
@@ -4426,17 +4426,17 @@
       <c r="X34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>58</v>
+      <c r="Y34" s="13">
+        <v>0</v>
       </c>
       <c r="Z34" s="13">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="AA34" s="13">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="AB34" s="13">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="13">
         <v>0</v>
@@ -4448,70 +4448,70 @@
         <v>0</v>
       </c>
       <c r="AF34" s="13">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AG34" s="13">
-        <v>246</v>
+        <v>494</v>
       </c>
       <c r="AH34" s="13">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AI34" s="13">
         <v>0</v>
       </c>
       <c r="AJ34" s="13">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AK34" s="13">
-        <v>406</v>
-      </c>
-      <c r="AL34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AL34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ34" s="13">
+        <v>1530</v>
       </c>
       <c r="AR34" s="13">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="13">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AT34" s="13">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AU34" s="13">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="13">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AW34" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="13">
         <v>0</v>
       </c>
       <c r="AY34" s="13">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AZ34" s="13">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="BA34" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="13">
         <v>0</v>
@@ -4585,95 +4585,95 @@
       <c r="X35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="11" t="s">
-        <v>58</v>
+      <c r="Y35" s="11">
+        <v>4516</v>
       </c>
       <c r="Z35" s="11">
-        <v>4516</v>
+        <v>3673</v>
       </c>
       <c r="AA35" s="11">
-        <v>3673</v>
+        <v>202</v>
       </c>
       <c r="AB35" s="11">
-        <v>202</v>
+        <v>1313</v>
       </c>
       <c r="AC35" s="11">
-        <v>1313</v>
+        <v>2016</v>
       </c>
       <c r="AD35" s="11">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AE35" s="11">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AF35" s="11">
-        <v>5995</v>
+        <v>10745</v>
       </c>
       <c r="AG35" s="11">
-        <v>10745</v>
+        <v>7406</v>
       </c>
       <c r="AH35" s="11">
-        <v>7406</v>
+        <v>3455</v>
       </c>
       <c r="AI35" s="11">
-        <v>3455</v>
+        <v>3233</v>
       </c>
       <c r="AJ35" s="11">
-        <v>3233</v>
+        <v>2884</v>
       </c>
       <c r="AK35" s="11">
-        <v>2884</v>
+        <v>4190</v>
       </c>
       <c r="AL35" s="11">
-        <v>4190</v>
+        <v>3157</v>
       </c>
       <c r="AM35" s="11">
-        <v>3157</v>
-      </c>
-      <c r="AN35" s="11">
         <v>8633</v>
       </c>
-      <c r="AO35" s="11" t="s">
-        <v>58</v>
+      <c r="AN35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO35" s="11">
+        <v>0</v>
       </c>
       <c r="AP35" s="11">
-        <v>0</v>
+        <v>3749</v>
       </c>
       <c r="AQ35" s="11">
-        <v>3749</v>
+        <v>1670</v>
       </c>
       <c r="AR35" s="11">
-        <v>1670</v>
+        <v>2530</v>
       </c>
       <c r="AS35" s="11">
-        <v>2530</v>
+        <v>4948</v>
       </c>
       <c r="AT35" s="11">
-        <v>4948</v>
+        <v>4203</v>
       </c>
       <c r="AU35" s="11">
-        <v>4203</v>
+        <v>1205</v>
       </c>
       <c r="AV35" s="11">
-        <v>1205</v>
+        <v>1735</v>
       </c>
       <c r="AW35" s="11">
-        <v>1735</v>
+        <v>2192</v>
       </c>
       <c r="AX35" s="11">
-        <v>2192</v>
+        <v>2893</v>
       </c>
       <c r="AY35" s="11">
-        <v>2893</v>
+        <v>4493</v>
       </c>
       <c r="AZ35" s="11">
-        <v>4493</v>
+        <v>1425</v>
       </c>
       <c r="BA35" s="11">
-        <v>1425</v>
+        <v>1636</v>
       </c>
       <c r="BB35" s="11">
-        <v>1636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4743,94 +4743,94 @@
         <v>0</v>
       </c>
       <c r="Y36" s="15">
-        <v>0</v>
+        <v>4516</v>
       </c>
       <c r="Z36" s="15">
-        <v>4516</v>
+        <v>3956</v>
       </c>
       <c r="AA36" s="15">
-        <v>3956</v>
+        <v>420</v>
       </c>
       <c r="AB36" s="15">
-        <v>420</v>
+        <v>1313</v>
       </c>
       <c r="AC36" s="15">
-        <v>1313</v>
+        <v>2016</v>
       </c>
       <c r="AD36" s="15">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AE36" s="15">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AF36" s="15">
-        <v>5995</v>
+        <v>11591</v>
       </c>
       <c r="AG36" s="15">
-        <v>11591</v>
+        <v>8061</v>
       </c>
       <c r="AH36" s="15">
-        <v>8061</v>
+        <v>3455</v>
       </c>
       <c r="AI36" s="15">
-        <v>3455</v>
+        <v>3233</v>
       </c>
       <c r="AJ36" s="15">
-        <v>3233</v>
+        <v>3290</v>
       </c>
       <c r="AK36" s="15">
-        <v>3290</v>
+        <v>4190</v>
       </c>
       <c r="AL36" s="15">
-        <v>4190</v>
+        <v>3206</v>
       </c>
       <c r="AM36" s="15">
-        <v>3206</v>
+        <v>9157</v>
       </c>
       <c r="AN36" s="15">
-        <v>9157</v>
+        <v>122</v>
       </c>
       <c r="AO36" s="15">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="AP36" s="15">
-        <v>15</v>
+        <v>4020</v>
       </c>
       <c r="AQ36" s="15">
-        <v>4020</v>
+        <v>3282</v>
       </c>
       <c r="AR36" s="15">
-        <v>3282</v>
+        <v>2669</v>
       </c>
       <c r="AS36" s="15">
-        <v>2669</v>
+        <v>5138</v>
       </c>
       <c r="AT36" s="15">
-        <v>5138</v>
+        <v>4363</v>
       </c>
       <c r="AU36" s="15">
-        <v>4363</v>
+        <v>1205</v>
       </c>
       <c r="AV36" s="15">
-        <v>1205</v>
+        <v>1763</v>
       </c>
       <c r="AW36" s="15">
-        <v>1763</v>
+        <v>2192</v>
       </c>
       <c r="AX36" s="15">
-        <v>2192</v>
+        <v>2893</v>
       </c>
       <c r="AY36" s="15">
-        <v>2893</v>
+        <v>4733</v>
       </c>
       <c r="AZ36" s="15">
-        <v>4733</v>
+        <v>1455</v>
       </c>
       <c r="BA36" s="15">
-        <v>1455</v>
+        <v>1636</v>
       </c>
       <c r="BB36" s="15">
-        <v>1636</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -4985,20 +4985,20 @@
       <c r="AG38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI38" s="11">
-        <v>0</v>
+      <c r="AH38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL38" s="11">
-        <v>0</v>
+      <c r="AK38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM38" s="11" t="s">
         <v>58</v>
@@ -5006,29 +5006,29 @@
       <c r="AN38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP38" s="11">
+      <c r="AO38" s="11">
         <v>401</v>
       </c>
+      <c r="AP38" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="11" t="s">
-        <v>58</v>
+      <c r="AR38" s="11">
+        <v>0</v>
       </c>
       <c r="AS38" s="11">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="AT38" s="11">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="11">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AV38" s="11">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="11">
         <v>0</v>
@@ -5037,16 +5037,16 @@
         <v>0</v>
       </c>
       <c r="AY38" s="11">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AZ38" s="11">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="11">
         <v>0</v>
       </c>
       <c r="BB38" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5141,44 +5141,44 @@
       <c r="AF39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG39" s="13" t="s">
-        <v>58</v>
+      <c r="AG39" s="13">
+        <v>5470</v>
       </c>
       <c r="AH39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM39" s="13">
+        <v>184</v>
+      </c>
+      <c r="AN39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR39" s="13">
         <v>5470</v>
       </c>
-      <c r="AI39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN39" s="13">
-        <v>184</v>
-      </c>
-      <c r="AO39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR39" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AS39" s="13">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="AT39" s="13">
         <v>0</v>
@@ -5196,16 +5196,16 @@
         <v>0</v>
       </c>
       <c r="AY39" s="13">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="AZ39" s="13">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="BA39" s="13">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="BB39" s="13">
-        <v>1300</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5299,52 +5299,52 @@
         <v>0</v>
       </c>
       <c r="AG40" s="17">
-        <v>0</v>
+        <v>5470</v>
       </c>
       <c r="AH40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="17">
+        <v>184</v>
+      </c>
+      <c r="AN40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="17">
+        <v>401</v>
+      </c>
+      <c r="AP40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="17">
         <v>5470</v>
       </c>
-      <c r="AI40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="17">
-        <v>184</v>
-      </c>
-      <c r="AO40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AP40" s="17">
-        <v>401</v>
-      </c>
-      <c r="AQ40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AR40" s="17">
-        <v>0</v>
-      </c>
       <c r="AS40" s="17">
-        <v>5470</v>
+        <v>195</v>
       </c>
       <c r="AT40" s="17">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="17">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AV40" s="17">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="17">
         <v>0</v>
@@ -5353,16 +5353,16 @@
         <v>0</v>
       </c>
       <c r="AY40" s="17">
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="AZ40" s="17">
-        <v>5075</v>
+        <v>2500</v>
       </c>
       <c r="BA40" s="17">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="BB40" s="17">
-        <v>1300</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5490,20 +5490,20 @@
       <c r="X42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y42" s="11" t="s">
-        <v>58</v>
+      <c r="Y42" s="11">
+        <v>0</v>
       </c>
       <c r="Z42" s="11">
         <v>0</v>
       </c>
       <c r="AA42" s="11">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="AB42" s="11">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="AC42" s="11">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AD42" s="11">
         <v>0</v>
@@ -5512,73 +5512,73 @@
         <v>0</v>
       </c>
       <c r="AF42" s="11">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AG42" s="11">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AH42" s="11">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="11">
         <v>10368</v>
       </c>
-      <c r="AK42" s="11" t="s">
-        <v>58</v>
+      <c r="AJ42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK42" s="11">
+        <v>0</v>
       </c>
       <c r="AL42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="11">
         <v>24260</v>
       </c>
-      <c r="AN42" s="11" t="s">
-        <v>58</v>
+      <c r="AM42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN42" s="11">
+        <v>12495</v>
       </c>
       <c r="AO42" s="11">
-        <v>12495</v>
-      </c>
-      <c r="AP42" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP42" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="11" t="s">
-        <v>58</v>
+      <c r="AR42" s="11">
+        <v>0</v>
       </c>
       <c r="AS42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="11">
         <v>13055</v>
       </c>
+      <c r="AT42" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW42" s="11">
+      <c r="AV42" s="11">
         <v>20026</v>
       </c>
-      <c r="AX42" s="11" t="s">
-        <v>58</v>
+      <c r="AW42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX42" s="11">
+        <v>5008</v>
       </c>
       <c r="AY42" s="11">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AZ42" s="11">
-        <v>5995</v>
-      </c>
-      <c r="BA42" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB42" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="BA42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB42" s="11">
+        <v>5499</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5647,20 +5647,20 @@
       <c r="X43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="15" t="s">
-        <v>58</v>
+      <c r="Y43" s="15">
+        <v>0</v>
       </c>
       <c r="Z43" s="15">
         <v>0</v>
       </c>
       <c r="AA43" s="15">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="AB43" s="15">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="AC43" s="15">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="15">
         <v>0</v>
@@ -5669,34 +5669,34 @@
         <v>0</v>
       </c>
       <c r="AF43" s="15">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AG43" s="15">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AH43" s="15">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AI43" s="15">
-        <v>0</v>
+        <v>10368</v>
       </c>
       <c r="AJ43" s="15">
-        <v>10368</v>
+        <v>0</v>
       </c>
       <c r="AK43" s="15">
         <v>0</v>
       </c>
       <c r="AL43" s="15">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AM43" s="15">
-        <v>24260</v>
+        <v>0</v>
       </c>
       <c r="AN43" s="15">
-        <v>0</v>
+        <v>12495</v>
       </c>
       <c r="AO43" s="15">
-        <v>12495</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="15">
         <v>0</v>
@@ -5708,34 +5708,34 @@
         <v>0</v>
       </c>
       <c r="AS43" s="15">
-        <v>0</v>
+        <v>13055</v>
       </c>
       <c r="AT43" s="15">
-        <v>13055</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="15">
         <v>0</v>
       </c>
       <c r="AV43" s="15">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="AW43" s="15">
-        <v>20026</v>
+        <v>0</v>
       </c>
       <c r="AX43" s="15">
-        <v>0</v>
+        <v>5008</v>
       </c>
       <c r="AY43" s="15">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AZ43" s="15">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="15">
         <v>0</v>
       </c>
       <c r="BB43" s="15">
-        <v>0</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5863,8 +5863,8 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>0</v>
       </c>
       <c r="Z45" s="11">
         <v>0</v>
@@ -5890,8 +5890,8 @@
       <c r="AG45" s="11">
         <v>0</v>
       </c>
-      <c r="AH45" s="11">
-        <v>0</v>
+      <c r="AH45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI45" s="11" t="s">
         <v>58</v>
@@ -5899,11 +5899,11 @@
       <c r="AJ45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL45" s="11">
-        <v>0</v>
+      <c r="AK45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM45" s="11" t="s">
         <v>58</v>
@@ -5911,20 +5911,20 @@
       <c r="AN45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP45" s="11">
-        <v>0</v>
+      <c r="AO45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS45" s="11">
-        <v>0</v>
+      <c r="AR45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT45" s="11" t="s">
         <v>58</v>
@@ -5950,8 +5950,8 @@
       <c r="BA45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB45" s="11" t="s">
-        <v>58</v>
+      <c r="BB45" s="11">
+        <v>-12</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6020,8 +6020,8 @@
       <c r="X46" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="15" t="s">
-        <v>58</v>
+      <c r="Y46" s="15">
+        <v>0</v>
       </c>
       <c r="Z46" s="15">
         <v>0</v>
@@ -6108,7 +6108,7 @@
         <v>0</v>
       </c>
       <c r="BB46" s="15">
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6178,94 +6178,94 @@
         <v>0</v>
       </c>
       <c r="Y47" s="17">
-        <v>0</v>
+        <v>4516</v>
       </c>
       <c r="Z47" s="17">
-        <v>4516</v>
+        <v>3956</v>
       </c>
       <c r="AA47" s="17">
-        <v>3956</v>
+        <v>35053</v>
       </c>
       <c r="AB47" s="17">
-        <v>35053</v>
+        <v>13501</v>
       </c>
       <c r="AC47" s="17">
-        <v>13501</v>
+        <v>2016</v>
       </c>
       <c r="AD47" s="17">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AE47" s="17">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AF47" s="17">
-        <v>5995</v>
+        <v>12080</v>
       </c>
       <c r="AG47" s="17">
-        <v>12080</v>
+        <v>13814</v>
       </c>
       <c r="AH47" s="17">
-        <v>13814</v>
+        <v>3455</v>
       </c>
       <c r="AI47" s="17">
-        <v>3455</v>
+        <v>13601</v>
       </c>
       <c r="AJ47" s="17">
-        <v>13601</v>
+        <v>3290</v>
       </c>
       <c r="AK47" s="17">
-        <v>3290</v>
+        <v>4190</v>
       </c>
       <c r="AL47" s="17">
-        <v>4190</v>
+        <v>27466</v>
       </c>
       <c r="AM47" s="17">
-        <v>27466</v>
+        <v>9341</v>
       </c>
       <c r="AN47" s="17">
-        <v>9341</v>
+        <v>12617</v>
       </c>
       <c r="AO47" s="17">
-        <v>12617</v>
+        <v>416</v>
       </c>
       <c r="AP47" s="17">
-        <v>416</v>
+        <v>4020</v>
       </c>
       <c r="AQ47" s="17">
-        <v>4020</v>
+        <v>3282</v>
       </c>
       <c r="AR47" s="17">
-        <v>3282</v>
+        <v>8139</v>
       </c>
       <c r="AS47" s="17">
-        <v>8139</v>
+        <v>18388</v>
       </c>
       <c r="AT47" s="17">
-        <v>18388</v>
+        <v>4363</v>
       </c>
       <c r="AU47" s="17">
-        <v>4363</v>
+        <v>1451</v>
       </c>
       <c r="AV47" s="17">
-        <v>1451</v>
+        <v>21789</v>
       </c>
       <c r="AW47" s="17">
-        <v>21789</v>
+        <v>2192</v>
       </c>
       <c r="AX47" s="17">
-        <v>2192</v>
+        <v>7901</v>
       </c>
       <c r="AY47" s="17">
-        <v>7901</v>
+        <v>15803</v>
       </c>
       <c r="AZ47" s="17">
-        <v>15803</v>
+        <v>3955</v>
       </c>
       <c r="BA47" s="17">
-        <v>3955</v>
+        <v>2936</v>
       </c>
       <c r="BB47" s="17">
-        <v>2936</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6770,17 +6770,17 @@
       <c r="X54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="11" t="s">
-        <v>58</v>
+      <c r="Y54" s="11">
+        <v>0</v>
       </c>
       <c r="Z54" s="11">
         <v>0</v>
       </c>
       <c r="AA54" s="11">
-        <v>0</v>
+        <v>26258</v>
       </c>
       <c r="AB54" s="11">
-        <v>26258</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="11">
         <v>0</v>
@@ -6810,28 +6810,28 @@
         <v>0</v>
       </c>
       <c r="AL54" s="11">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="AM54" s="11">
-        <v>31200</v>
+        <v>277021</v>
       </c>
       <c r="AN54" s="11">
-        <v>277021</v>
+        <v>79745</v>
       </c>
       <c r="AO54" s="11">
-        <v>79745</v>
+        <v>10991</v>
       </c>
       <c r="AP54" s="11">
-        <v>10991</v>
+        <v>189494</v>
       </c>
       <c r="AQ54" s="11">
-        <v>189494</v>
+        <v>0</v>
       </c>
       <c r="AR54" s="11">
-        <v>0</v>
+        <v>87809</v>
       </c>
       <c r="AS54" s="11">
-        <v>87809</v>
+        <v>0</v>
       </c>
       <c r="AT54" s="11">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="BB54" s="11">
-        <v>0</v>
+        <v>20680</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -6929,14 +6929,14 @@
       <c r="X55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="13" t="s">
-        <v>58</v>
+      <c r="Y55" s="13">
+        <v>0</v>
       </c>
       <c r="Z55" s="13">
-        <v>0</v>
+        <v>11839</v>
       </c>
       <c r="AA55" s="13">
-        <v>11839</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="13">
         <v>0</v>
@@ -6954,10 +6954,10 @@
         <v>0</v>
       </c>
       <c r="AG55" s="13">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="AH55" s="13">
-        <v>84839</v>
+        <v>0</v>
       </c>
       <c r="AI55" s="13">
         <v>0</v>
@@ -6972,10 +6972,10 @@
         <v>0</v>
       </c>
       <c r="AM55" s="13">
-        <v>0</v>
+        <v>66370</v>
       </c>
       <c r="AN55" s="13">
-        <v>66370</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="13">
         <v>0</v>
@@ -6984,13 +6984,13 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="13">
-        <v>0</v>
+        <v>53226</v>
       </c>
       <c r="AR55" s="13">
-        <v>53226</v>
+        <v>21065</v>
       </c>
       <c r="AS55" s="13">
-        <v>21065</v>
+        <v>0</v>
       </c>
       <c r="AT55" s="13">
         <v>0</v>
@@ -7008,13 +7008,13 @@
         <v>0</v>
       </c>
       <c r="AY55" s="13">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="AZ55" s="13">
-        <v>23381</v>
+        <v>4564</v>
       </c>
       <c r="BA55" s="13">
-        <v>4564</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="13">
         <v>0</v>
@@ -7088,8 +7088,8 @@
       <c r="X56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>58</v>
+      <c r="Y56" s="11">
+        <v>0</v>
       </c>
       <c r="Z56" s="11">
         <v>0</v>
@@ -7110,10 +7110,10 @@
         <v>0</v>
       </c>
       <c r="AF56" s="11">
-        <v>0</v>
+        <v>102005</v>
       </c>
       <c r="AG56" s="11">
-        <v>102005</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="11">
         <v>0</v>
@@ -7247,17 +7247,17 @@
       <c r="X57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="13" t="s">
-        <v>58</v>
+      <c r="Y57" s="13">
+        <v>0</v>
       </c>
       <c r="Z57" s="13">
-        <v>0</v>
+        <v>41552</v>
       </c>
       <c r="AA57" s="13">
-        <v>41552</v>
+        <v>33777</v>
       </c>
       <c r="AB57" s="13">
-        <v>33777</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="13">
         <v>0</v>
@@ -7269,22 +7269,22 @@
         <v>0</v>
       </c>
       <c r="AF57" s="13">
-        <v>0</v>
+        <v>67780</v>
       </c>
       <c r="AG57" s="13">
-        <v>67780</v>
+        <v>154460</v>
       </c>
       <c r="AH57" s="13">
-        <v>154460</v>
+        <v>0</v>
       </c>
       <c r="AI57" s="13">
         <v>0</v>
       </c>
       <c r="AJ57" s="13">
-        <v>0</v>
+        <v>116399</v>
       </c>
       <c r="AK57" s="13">
-        <v>116399</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="13">
         <v>0</v>
@@ -7302,37 +7302,37 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="13">
-        <v>0</v>
+        <v>550890</v>
       </c>
       <c r="AR57" s="13">
-        <v>550890</v>
+        <v>0</v>
       </c>
       <c r="AS57" s="13">
-        <v>0</v>
+        <v>56932</v>
       </c>
       <c r="AT57" s="13">
-        <v>56932</v>
+        <v>47118</v>
       </c>
       <c r="AU57" s="13">
-        <v>47118</v>
+        <v>0</v>
       </c>
       <c r="AV57" s="13">
-        <v>0</v>
+        <v>6993</v>
       </c>
       <c r="AW57" s="13">
-        <v>6993</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="13">
         <v>0</v>
       </c>
       <c r="AY57" s="13">
-        <v>0</v>
+        <v>38584</v>
       </c>
       <c r="AZ57" s="13">
-        <v>38584</v>
+        <v>3870</v>
       </c>
       <c r="BA57" s="13">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="13">
         <v>0</v>
@@ -7406,95 +7406,95 @@
       <c r="X58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="11" t="s">
-        <v>58</v>
+      <c r="Y58" s="11">
+        <v>171298</v>
       </c>
       <c r="Z58" s="11">
-        <v>171298</v>
+        <v>105667</v>
       </c>
       <c r="AA58" s="11">
-        <v>105667</v>
+        <v>8379</v>
       </c>
       <c r="AB58" s="11">
-        <v>8379</v>
+        <v>55692</v>
       </c>
       <c r="AC58" s="11">
-        <v>55692</v>
+        <v>222743</v>
       </c>
       <c r="AD58" s="11">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AE58" s="11">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AF58" s="11">
-        <v>324876</v>
+        <v>739810</v>
       </c>
       <c r="AG58" s="11">
-        <v>739810</v>
+        <v>577703</v>
       </c>
       <c r="AH58" s="11">
-        <v>577703</v>
+        <v>301726</v>
       </c>
       <c r="AI58" s="11">
-        <v>301726</v>
+        <v>296304</v>
       </c>
       <c r="AJ58" s="11">
-        <v>296304</v>
+        <v>293882</v>
       </c>
       <c r="AK58" s="11">
-        <v>293882</v>
+        <v>435851</v>
       </c>
       <c r="AL58" s="11">
-        <v>435851</v>
+        <v>273570</v>
       </c>
       <c r="AM58" s="11">
-        <v>273570</v>
+        <v>836997</v>
       </c>
       <c r="AN58" s="11">
-        <v>836997</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="11">
         <v>0</v>
       </c>
       <c r="AP58" s="11">
-        <v>0</v>
+        <v>330488</v>
       </c>
       <c r="AQ58" s="11">
-        <v>330488</v>
+        <v>154245</v>
       </c>
       <c r="AR58" s="11">
-        <v>154245</v>
+        <v>293815</v>
       </c>
       <c r="AS58" s="11">
-        <v>293815</v>
+        <v>774252</v>
       </c>
       <c r="AT58" s="11">
-        <v>774252</v>
+        <v>645393</v>
       </c>
       <c r="AU58" s="11">
-        <v>645393</v>
+        <v>97722</v>
       </c>
       <c r="AV58" s="11">
-        <v>97722</v>
+        <v>123901</v>
       </c>
       <c r="AW58" s="11">
-        <v>123901</v>
+        <v>122812</v>
       </c>
       <c r="AX58" s="11">
-        <v>122812</v>
+        <v>334051</v>
       </c>
       <c r="AY58" s="11">
-        <v>334051</v>
+        <v>538414</v>
       </c>
       <c r="AZ58" s="11">
-        <v>538414</v>
+        <v>175961</v>
       </c>
       <c r="BA58" s="11">
-        <v>175961</v>
+        <v>106213</v>
       </c>
       <c r="BB58" s="11">
-        <v>106213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7564,94 +7564,94 @@
         <v>0</v>
       </c>
       <c r="Y59" s="15">
-        <v>0</v>
+        <v>171298</v>
       </c>
       <c r="Z59" s="15">
-        <v>171298</v>
+        <v>159058</v>
       </c>
       <c r="AA59" s="15">
-        <v>159058</v>
+        <v>68414</v>
       </c>
       <c r="AB59" s="15">
-        <v>68414</v>
+        <v>55692</v>
       </c>
       <c r="AC59" s="15">
-        <v>55692</v>
+        <v>222743</v>
       </c>
       <c r="AD59" s="15">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AE59" s="15">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AF59" s="15">
-        <v>324876</v>
+        <v>909595</v>
       </c>
       <c r="AG59" s="15">
-        <v>909595</v>
+        <v>817002</v>
       </c>
       <c r="AH59" s="15">
-        <v>817002</v>
+        <v>301726</v>
       </c>
       <c r="AI59" s="15">
-        <v>301726</v>
+        <v>296304</v>
       </c>
       <c r="AJ59" s="15">
-        <v>296304</v>
+        <v>410281</v>
       </c>
       <c r="AK59" s="15">
-        <v>410281</v>
+        <v>435851</v>
       </c>
       <c r="AL59" s="15">
-        <v>435851</v>
+        <v>304770</v>
       </c>
       <c r="AM59" s="15">
-        <v>304770</v>
+        <v>1180388</v>
       </c>
       <c r="AN59" s="15">
-        <v>1180388</v>
+        <v>79745</v>
       </c>
       <c r="AO59" s="15">
-        <v>79745</v>
+        <v>10991</v>
       </c>
       <c r="AP59" s="15">
-        <v>10991</v>
+        <v>519982</v>
       </c>
       <c r="AQ59" s="15">
-        <v>519982</v>
+        <v>758361</v>
       </c>
       <c r="AR59" s="15">
-        <v>758361</v>
+        <v>402689</v>
       </c>
       <c r="AS59" s="15">
-        <v>402689</v>
+        <v>831184</v>
       </c>
       <c r="AT59" s="15">
-        <v>831184</v>
+        <v>692511</v>
       </c>
       <c r="AU59" s="15">
-        <v>692511</v>
+        <v>97722</v>
       </c>
       <c r="AV59" s="15">
-        <v>97722</v>
+        <v>130894</v>
       </c>
       <c r="AW59" s="15">
-        <v>130894</v>
+        <v>122812</v>
       </c>
       <c r="AX59" s="15">
-        <v>122812</v>
+        <v>334051</v>
       </c>
       <c r="AY59" s="15">
-        <v>334051</v>
+        <v>600379</v>
       </c>
       <c r="AZ59" s="15">
-        <v>600379</v>
+        <v>184395</v>
       </c>
       <c r="BA59" s="15">
-        <v>184395</v>
+        <v>106213</v>
       </c>
       <c r="BB59" s="15">
-        <v>106213</v>
+        <v>20680</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7806,8 +7806,8 @@
       <c r="AG61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH61" s="11" t="s">
-        <v>58</v>
+      <c r="AH61" s="11">
+        <v>0</v>
       </c>
       <c r="AI61" s="11">
         <v>0</v>
@@ -7828,10 +7828,10 @@
         <v>0</v>
       </c>
       <c r="AO61" s="11">
-        <v>0</v>
+        <v>300977</v>
       </c>
       <c r="AP61" s="11">
-        <v>300977</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="11">
         <v>0</v>
@@ -7840,16 +7840,16 @@
         <v>0</v>
       </c>
       <c r="AS61" s="11">
-        <v>0</v>
+        <v>172699</v>
       </c>
       <c r="AT61" s="11">
-        <v>172699</v>
+        <v>0</v>
       </c>
       <c r="AU61" s="11">
-        <v>0</v>
+        <v>214709</v>
       </c>
       <c r="AV61" s="11">
-        <v>214709</v>
+        <v>0</v>
       </c>
       <c r="AW61" s="11">
         <v>0</v>
@@ -7858,16 +7858,16 @@
         <v>0</v>
       </c>
       <c r="AY61" s="11">
-        <v>0</v>
+        <v>654439</v>
       </c>
       <c r="AZ61" s="11">
-        <v>654439</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="11">
         <v>0</v>
       </c>
       <c r="BB61" s="11">
-        <v>0</v>
+        <v>13671</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -7962,11 +7962,11 @@
       <c r="AF62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG62" s="13" t="s">
-        <v>58</v>
+      <c r="AG62" s="13">
+        <v>612056</v>
       </c>
       <c r="AH62" s="13">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="AI62" s="13">
         <v>0</v>
@@ -7981,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="AM62" s="13">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="AN62" s="13">
-        <v>20634</v>
+        <v>0</v>
       </c>
       <c r="AO62" s="13">
         <v>0</v>
@@ -7996,10 +7996,10 @@
         <v>0</v>
       </c>
       <c r="AR62" s="13">
-        <v>0</v>
+        <v>461637</v>
       </c>
       <c r="AS62" s="13">
-        <v>461637</v>
+        <v>0</v>
       </c>
       <c r="AT62" s="13">
         <v>0</v>
@@ -8017,16 +8017,16 @@
         <v>0</v>
       </c>
       <c r="AY62" s="13">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="AZ62" s="13">
-        <v>857115</v>
+        <v>435521</v>
       </c>
       <c r="BA62" s="13">
-        <v>435521</v>
+        <v>214500</v>
       </c>
       <c r="BB62" s="13">
-        <v>214500</v>
+        <v>108141</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8120,10 +8120,10 @@
         <v>0</v>
       </c>
       <c r="AG63" s="17">
-        <v>0</v>
+        <v>612056</v>
       </c>
       <c r="AH63" s="17">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="AI63" s="17">
         <v>0</v>
@@ -8138,34 +8138,34 @@
         <v>0</v>
       </c>
       <c r="AM63" s="17">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="AN63" s="17">
-        <v>20634</v>
+        <v>0</v>
       </c>
       <c r="AO63" s="17">
-        <v>0</v>
+        <v>300977</v>
       </c>
       <c r="AP63" s="17">
-        <v>300977</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="17">
         <v>0</v>
       </c>
       <c r="AR63" s="17">
-        <v>0</v>
+        <v>461637</v>
       </c>
       <c r="AS63" s="17">
-        <v>461637</v>
+        <v>172699</v>
       </c>
       <c r="AT63" s="17">
-        <v>172699</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="17">
-        <v>0</v>
+        <v>214709</v>
       </c>
       <c r="AV63" s="17">
-        <v>214709</v>
+        <v>0</v>
       </c>
       <c r="AW63" s="17">
         <v>0</v>
@@ -8174,16 +8174,16 @@
         <v>0</v>
       </c>
       <c r="AY63" s="17">
-        <v>0</v>
+        <v>1511554</v>
       </c>
       <c r="AZ63" s="17">
-        <v>1511554</v>
+        <v>435521</v>
       </c>
       <c r="BA63" s="17">
-        <v>435521</v>
+        <v>214500</v>
       </c>
       <c r="BB63" s="17">
-        <v>214500</v>
+        <v>121812</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8311,20 +8311,20 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>0</v>
       </c>
       <c r="Z65" s="11">
         <v>0</v>
       </c>
       <c r="AA65" s="11">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="AB65" s="11">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="AC65" s="11">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="AD65" s="11">
         <v>0</v>
@@ -8333,34 +8333,34 @@
         <v>0</v>
       </c>
       <c r="AF65" s="11">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AG65" s="11">
-        <v>2101</v>
+        <v>1217</v>
       </c>
       <c r="AH65" s="11">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AI65" s="11">
-        <v>0</v>
+        <v>87094</v>
       </c>
       <c r="AJ65" s="11">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="11">
         <v>0</v>
       </c>
       <c r="AL65" s="11">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AM65" s="11">
-        <v>222580</v>
+        <v>0</v>
       </c>
       <c r="AN65" s="11">
-        <v>0</v>
+        <v>137445</v>
       </c>
       <c r="AO65" s="11">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AP65" s="11">
         <v>0</v>
@@ -8372,34 +8372,34 @@
         <v>0</v>
       </c>
       <c r="AS65" s="11">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AT65" s="11">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="11">
         <v>0</v>
       </c>
       <c r="AV65" s="11">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AW65" s="11">
-        <v>280368</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="11">
-        <v>0</v>
+        <v>70114</v>
       </c>
       <c r="AY65" s="11">
-        <v>70114</v>
+        <v>83929</v>
       </c>
       <c r="AZ65" s="11">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="11">
         <v>0</v>
       </c>
       <c r="BB65" s="11">
-        <v>0</v>
+        <v>76992</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8470,20 +8470,20 @@
       <c r="X66" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="15" t="s">
-        <v>58</v>
+      <c r="Y66" s="15">
+        <v>0</v>
       </c>
       <c r="Z66" s="15">
         <v>0</v>
       </c>
       <c r="AA66" s="15">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="AB66" s="15">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="AC66" s="15">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="15">
         <v>0</v>
@@ -8492,34 +8492,34 @@
         <v>0</v>
       </c>
       <c r="AF66" s="15">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AG66" s="15">
-        <v>2101</v>
+        <v>1217</v>
       </c>
       <c r="AH66" s="15">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AI66" s="15">
-        <v>0</v>
+        <v>87094</v>
       </c>
       <c r="AJ66" s="15">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AK66" s="15">
         <v>0</v>
       </c>
       <c r="AL66" s="15">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AM66" s="15">
-        <v>222580</v>
+        <v>0</v>
       </c>
       <c r="AN66" s="15">
-        <v>0</v>
+        <v>137445</v>
       </c>
       <c r="AO66" s="15">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="15">
         <v>0</v>
@@ -8531,34 +8531,34 @@
         <v>0</v>
       </c>
       <c r="AS66" s="15">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AT66" s="15">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="15">
         <v>0</v>
       </c>
       <c r="AV66" s="15">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AW66" s="15">
-        <v>280368</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="15">
-        <v>0</v>
+        <v>70114</v>
       </c>
       <c r="AY66" s="15">
-        <v>70114</v>
+        <v>83929</v>
       </c>
       <c r="AZ66" s="15">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="15">
         <v>0</v>
       </c>
       <c r="BB66" s="15">
-        <v>0</v>
+        <v>76992</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8686,8 +8686,8 @@
       <c r="X68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="11" t="s">
-        <v>58</v>
+      <c r="Y68" s="11">
+        <v>0</v>
       </c>
       <c r="Z68" s="11">
         <v>0</v>
@@ -8713,11 +8713,11 @@
       <c r="AG68" s="11">
         <v>0</v>
       </c>
-      <c r="AH68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI68" s="11" t="s">
-        <v>58</v>
+      <c r="AH68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI68" s="11">
+        <v>0</v>
       </c>
       <c r="AJ68" s="11">
         <v>0</v>
@@ -8749,8 +8749,8 @@
       <c r="AS68" s="11">
         <v>0</v>
       </c>
-      <c r="AT68" s="11">
-        <v>0</v>
+      <c r="AT68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU68" s="11" t="s">
         <v>58</v>
@@ -8773,8 +8773,8 @@
       <c r="BA68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB68" s="11" t="s">
-        <v>58</v>
+      <c r="BB68" s="11">
+        <v>-4850</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -8845,8 +8845,8 @@
       <c r="X69" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="15" t="s">
-        <v>58</v>
+      <c r="Y69" s="15">
+        <v>0</v>
       </c>
       <c r="Z69" s="15">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="BB69" s="15">
-        <v>0</v>
+        <v>-4850</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.3">
@@ -9061,8 +9061,8 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>0</v>
       </c>
       <c r="Z71" s="11">
         <v>0</v>
@@ -9219,94 +9219,94 @@
         <v>0</v>
       </c>
       <c r="Y72" s="15">
-        <v>0</v>
+        <v>171298</v>
       </c>
       <c r="Z72" s="15">
-        <v>171298</v>
+        <v>159058</v>
       </c>
       <c r="AA72" s="15">
-        <v>159058</v>
+        <v>225877</v>
       </c>
       <c r="AB72" s="15">
-        <v>225877</v>
+        <v>152377</v>
       </c>
       <c r="AC72" s="15">
-        <v>152377</v>
+        <v>222743</v>
       </c>
       <c r="AD72" s="15">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AE72" s="15">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AF72" s="15">
-        <v>324876</v>
+        <v>911696</v>
       </c>
       <c r="AG72" s="15">
-        <v>911696</v>
+        <v>1430275</v>
       </c>
       <c r="AH72" s="15">
-        <v>1430275</v>
+        <v>301726</v>
       </c>
       <c r="AI72" s="15">
-        <v>301726</v>
+        <v>383398</v>
       </c>
       <c r="AJ72" s="15">
-        <v>383398</v>
+        <v>410281</v>
       </c>
       <c r="AK72" s="15">
-        <v>410281</v>
+        <v>435851</v>
       </c>
       <c r="AL72" s="15">
-        <v>435851</v>
+        <v>527350</v>
       </c>
       <c r="AM72" s="15">
-        <v>527350</v>
+        <v>1201022</v>
       </c>
       <c r="AN72" s="15">
-        <v>1201022</v>
+        <v>217190</v>
       </c>
       <c r="AO72" s="15">
-        <v>217190</v>
+        <v>311968</v>
       </c>
       <c r="AP72" s="15">
-        <v>311968</v>
+        <v>519982</v>
       </c>
       <c r="AQ72" s="15">
-        <v>519982</v>
+        <v>758361</v>
       </c>
       <c r="AR72" s="15">
-        <v>758361</v>
+        <v>864326</v>
       </c>
       <c r="AS72" s="15">
-        <v>864326</v>
+        <v>1147492</v>
       </c>
       <c r="AT72" s="15">
-        <v>1147492</v>
+        <v>692511</v>
       </c>
       <c r="AU72" s="15">
-        <v>692511</v>
+        <v>312431</v>
       </c>
       <c r="AV72" s="15">
-        <v>312431</v>
+        <v>411262</v>
       </c>
       <c r="AW72" s="15">
-        <v>411262</v>
+        <v>122812</v>
       </c>
       <c r="AX72" s="15">
-        <v>122812</v>
+        <v>404165</v>
       </c>
       <c r="AY72" s="15">
-        <v>404165</v>
+        <v>2195862</v>
       </c>
       <c r="AZ72" s="15">
-        <v>2195862</v>
+        <v>619916</v>
       </c>
       <c r="BA72" s="15">
-        <v>619916</v>
+        <v>320713</v>
       </c>
       <c r="BB72" s="15">
-        <v>320713</v>
+        <v>214634</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.3">
@@ -9817,12 +9817,12 @@
       <c r="Z79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB79" s="11">
+      <c r="AA79" s="11">
         <v>525160000</v>
       </c>
+      <c r="AB79" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AC79" s="11" t="s">
         <v>58</v>
       </c>
@@ -9850,30 +9850,30 @@
       <c r="AK79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL79" s="11" t="s">
-        <v>58</v>
+      <c r="AL79" s="11">
+        <v>636734694</v>
       </c>
       <c r="AM79" s="11">
-        <v>636734694</v>
+        <v>645736597</v>
       </c>
       <c r="AN79" s="11">
-        <v>645736597</v>
+        <v>653647541</v>
       </c>
       <c r="AO79" s="11">
-        <v>653647541</v>
+        <v>732733333</v>
       </c>
       <c r="AP79" s="11">
-        <v>732733333</v>
-      </c>
-      <c r="AQ79" s="11">
         <v>699239852</v>
       </c>
-      <c r="AR79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS79" s="11">
+      <c r="AQ79" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR79" s="11">
         <v>878090000</v>
       </c>
+      <c r="AS79" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT79" s="11" t="s">
         <v>58</v>
       </c>
@@ -9898,8 +9898,8 @@
       <c r="BA79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB79" s="11" t="s">
-        <v>58</v>
+      <c r="BB79" s="11">
+        <v>1292500000</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -9973,12 +9973,12 @@
       <c r="Y80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA80" s="13">
+      <c r="Z80" s="13">
         <v>408241379</v>
       </c>
+      <c r="AA80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AB80" s="13" t="s">
         <v>58</v>
       </c>
@@ -9994,12 +9994,12 @@
       <c r="AF80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH80" s="13">
+      <c r="AG80" s="13">
         <v>526950311</v>
       </c>
+      <c r="AH80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI80" s="13" t="s">
         <v>58</v>
       </c>
@@ -10012,27 +10012,27 @@
       <c r="AL80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN80" s="13">
+      <c r="AM80" s="13">
         <v>698631579</v>
       </c>
+      <c r="AN80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO80" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AP80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ80" s="13" t="s">
-        <v>58</v>
+      <c r="AQ80" s="13">
+        <v>649097561</v>
       </c>
       <c r="AR80" s="13">
-        <v>649097561</v>
-      </c>
-      <c r="AS80" s="13">
         <v>540128205</v>
       </c>
+      <c r="AS80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT80" s="13" t="s">
         <v>58</v>
       </c>
@@ -10048,14 +10048,14 @@
       <c r="AX80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY80" s="13" t="s">
-        <v>58</v>
+      <c r="AY80" s="13">
+        <v>334014286</v>
       </c>
       <c r="AZ80" s="13">
-        <v>334014286</v>
-      </c>
-      <c r="BA80" s="13">
         <v>351076923</v>
+      </c>
+      <c r="BA80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB80" s="13" t="s">
         <v>58</v>
@@ -10150,11 +10150,11 @@
       <c r="AE81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG81" s="11">
+      <c r="AF81" s="11">
         <v>170008333</v>
+      </c>
+      <c r="AG81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH81" s="11" t="s">
         <v>58</v>
@@ -10291,15 +10291,15 @@
       <c r="Y82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="13" t="s">
-        <v>58</v>
+      <c r="Z82" s="13">
+        <v>163590551</v>
       </c>
       <c r="AA82" s="13">
-        <v>163590551</v>
-      </c>
-      <c r="AB82" s="13">
         <v>201053571</v>
       </c>
+      <c r="AB82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC82" s="13" t="s">
         <v>58</v>
       </c>
@@ -10309,24 +10309,24 @@
       <c r="AE82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF82" s="13" t="s">
-        <v>58</v>
+      <c r="AF82" s="13">
+        <v>275528455</v>
       </c>
       <c r="AG82" s="13">
-        <v>275528455</v>
-      </c>
-      <c r="AH82" s="13">
         <v>312672065</v>
       </c>
+      <c r="AH82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK82" s="13">
+      <c r="AJ82" s="13">
         <v>286697044</v>
       </c>
+      <c r="AK82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AL82" s="13" t="s">
         <v>58</v>
       </c>
@@ -10342,38 +10342,38 @@
       <c r="AP82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ82" s="13" t="s">
-        <v>58</v>
+      <c r="AQ82" s="13">
+        <v>360058824</v>
       </c>
       <c r="AR82" s="13">
-        <v>360058824</v>
+        <v>0</v>
       </c>
       <c r="AS82" s="13">
-        <v>0</v>
+        <v>299642105</v>
       </c>
       <c r="AT82" s="13">
-        <v>299642105</v>
-      </c>
-      <c r="AU82" s="13">
         <v>294487500</v>
       </c>
-      <c r="AV82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW82" s="13">
+      <c r="AU82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV82" s="13">
         <v>249750000</v>
       </c>
+      <c r="AW82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY82" s="13" t="s">
-        <v>58</v>
+      <c r="AY82" s="13">
+        <v>226964706</v>
       </c>
       <c r="AZ82" s="13">
-        <v>226964706</v>
-      </c>
-      <c r="BA82" s="13">
         <v>227647059</v>
+      </c>
+      <c r="BA82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB82" s="13" t="s">
         <v>58</v>
@@ -10447,95 +10447,95 @@
       <c r="X83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>58</v>
+      <c r="Y83" s="11">
+        <v>37931355</v>
       </c>
       <c r="Z83" s="11">
-        <v>37931355</v>
+        <v>28768582</v>
       </c>
       <c r="AA83" s="11">
-        <v>28768582</v>
+        <v>41480198</v>
       </c>
       <c r="AB83" s="11">
-        <v>41480198</v>
+        <v>42415842</v>
       </c>
       <c r="AC83" s="11">
-        <v>42415842</v>
+        <v>110487599</v>
       </c>
       <c r="AD83" s="11">
-        <v>110487599</v>
+        <v>100593602</v>
       </c>
       <c r="AE83" s="11">
-        <v>100593602</v>
+        <v>54191159</v>
       </c>
       <c r="AF83" s="11">
-        <v>54191159</v>
+        <v>68851559</v>
       </c>
       <c r="AG83" s="11">
-        <v>68851559</v>
+        <v>78004726</v>
       </c>
       <c r="AH83" s="11">
-        <v>78004726</v>
+        <v>87330246</v>
       </c>
       <c r="AI83" s="11">
-        <v>87330246</v>
+        <v>91649861</v>
       </c>
       <c r="AJ83" s="11">
-        <v>91649861</v>
+        <v>101900832</v>
       </c>
       <c r="AK83" s="11">
-        <v>101900832</v>
+        <v>104021718</v>
       </c>
       <c r="AL83" s="11">
-        <v>104021718</v>
+        <v>86655052</v>
       </c>
       <c r="AM83" s="11">
-        <v>86655052</v>
-      </c>
-      <c r="AN83" s="11">
         <v>96953203</v>
       </c>
+      <c r="AN83" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP83" s="11" t="s">
-        <v>58</v>
+      <c r="AP83" s="11">
+        <v>88153641</v>
       </c>
       <c r="AQ83" s="11">
-        <v>88153641</v>
+        <v>92362275</v>
       </c>
       <c r="AR83" s="11">
-        <v>92362275</v>
+        <v>116132411</v>
       </c>
       <c r="AS83" s="11">
-        <v>116132411</v>
+        <v>156477769</v>
       </c>
       <c r="AT83" s="11">
-        <v>156477769</v>
+        <v>153555318</v>
       </c>
       <c r="AU83" s="11">
-        <v>153555318</v>
+        <v>81097095</v>
       </c>
       <c r="AV83" s="11">
-        <v>81097095</v>
+        <v>71412680</v>
       </c>
       <c r="AW83" s="11">
-        <v>71412680</v>
+        <v>56027372</v>
       </c>
       <c r="AX83" s="11">
-        <v>56027372</v>
+        <v>115468718</v>
       </c>
       <c r="AY83" s="11">
-        <v>115468718</v>
+        <v>119833964</v>
       </c>
       <c r="AZ83" s="11">
-        <v>119833964</v>
+        <v>123481404</v>
       </c>
       <c r="BA83" s="11">
-        <v>123481404</v>
-      </c>
-      <c r="BB83" s="11">
         <v>64922372</v>
+      </c>
+      <c r="BB83" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10711,47 +10711,47 @@
       <c r="AN85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP85" s="11">
+      <c r="AO85" s="11">
         <v>750566085</v>
       </c>
+      <c r="AP85" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR85" s="11" t="s">
-        <v>58</v>
+      <c r="AR85" s="11">
+        <v>0</v>
       </c>
       <c r="AS85" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT85" s="11">
         <v>885635897</v>
       </c>
-      <c r="AU85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV85" s="11">
+      <c r="AT85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU85" s="11">
         <v>872800813</v>
       </c>
+      <c r="AV85" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AW85" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AX85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ85" s="11">
+      <c r="AY85" s="11">
         <v>844437419</v>
       </c>
+      <c r="AZ85" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BA85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB85" s="11" t="s">
-        <v>58</v>
+      <c r="BB85" s="11">
+        <v>854437500</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -10846,12 +10846,12 @@
       <c r="AF86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH86" s="13">
+      <c r="AG86" s="13">
         <v>111893236</v>
       </c>
+      <c r="AH86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI86" s="13" t="s">
         <v>58</v>
       </c>
@@ -10864,12 +10864,12 @@
       <c r="AL86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN86" s="13">
+      <c r="AM86" s="13">
         <v>112141304</v>
       </c>
+      <c r="AN86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO86" s="13" t="s">
         <v>58</v>
       </c>
@@ -10879,12 +10879,12 @@
       <c r="AQ86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS86" s="13">
+      <c r="AR86" s="13">
         <v>84394333</v>
       </c>
+      <c r="AS86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT86" s="13" t="s">
         <v>58</v>
       </c>
@@ -10900,17 +10900,17 @@
       <c r="AX86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY86" s="13" t="s">
-        <v>58</v>
+      <c r="AY86" s="13">
+        <v>199329070</v>
       </c>
       <c r="AZ86" s="13">
-        <v>199329070</v>
+        <v>174208400</v>
       </c>
       <c r="BA86" s="13">
-        <v>174208400</v>
+        <v>165000000</v>
       </c>
       <c r="BB86" s="13">
-        <v>165000000</v>
+        <v>207166667</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11038,20 +11038,20 @@
       <c r="X88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>58</v>
+      <c r="Y88" s="11">
+        <v>0</v>
       </c>
       <c r="Z88" s="11">
         <v>0</v>
       </c>
       <c r="AA88" s="11">
-        <v>0</v>
+        <v>4546617</v>
       </c>
       <c r="AB88" s="11">
-        <v>4546617</v>
+        <v>7932803</v>
       </c>
       <c r="AC88" s="11">
-        <v>7932803</v>
+        <v>0</v>
       </c>
       <c r="AD88" s="11">
         <v>0</v>
@@ -11060,34 +11060,34 @@
         <v>0</v>
       </c>
       <c r="AF88" s="11">
-        <v>0</v>
+        <v>4296524</v>
       </c>
       <c r="AG88" s="11">
-        <v>4296524</v>
+        <v>4300353</v>
       </c>
       <c r="AH88" s="11">
-        <v>4300353</v>
+        <v>0</v>
       </c>
       <c r="AI88" s="11">
-        <v>0</v>
+        <v>8400270</v>
       </c>
       <c r="AJ88" s="11">
-        <v>8400270</v>
+        <v>0</v>
       </c>
       <c r="AK88" s="11">
         <v>0</v>
       </c>
       <c r="AL88" s="11">
-        <v>0</v>
+        <v>9174773</v>
       </c>
       <c r="AM88" s="11">
-        <v>9174773</v>
+        <v>0</v>
       </c>
       <c r="AN88" s="11">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="AO88" s="11">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="AP88" s="11">
         <v>0</v>
@@ -11099,34 +11099,34 @@
         <v>0</v>
       </c>
       <c r="AS88" s="11">
-        <v>0</v>
+        <v>11000306</v>
       </c>
       <c r="AT88" s="11">
-        <v>11000306</v>
+        <v>0</v>
       </c>
       <c r="AU88" s="11">
         <v>0</v>
       </c>
       <c r="AV88" s="11">
-        <v>0</v>
+        <v>14000200</v>
       </c>
       <c r="AW88" s="11">
-        <v>14000200</v>
+        <v>0</v>
       </c>
       <c r="AX88" s="11">
-        <v>0</v>
+        <v>14000399</v>
       </c>
       <c r="AY88" s="11">
-        <v>14000399</v>
+        <v>13999833</v>
       </c>
       <c r="AZ88" s="11">
-        <v>13999833</v>
+        <v>0</v>
       </c>
       <c r="BA88" s="11">
         <v>0</v>
       </c>
       <c r="BB88" s="11">
-        <v>0</v>
+        <v>14001091</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/kimia/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/kimia/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\kimia\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\kimia\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0CEBE3-54C6-4B05-8D2B-57EDD4BF9052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC04FD1-B590-4F2B-962B-BA70844F2EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -766,12 +766,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -826,7 +826,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -995,7 +995,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1376,7 +1376,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1495,11 +1495,11 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
+        <v>0</v>
       </c>
       <c r="Y11" s="11">
         <v>0</v>
@@ -1528,38 +1528,38 @@
       <c r="AG11" s="11">
         <v>0</v>
       </c>
-      <c r="AH11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>58</v>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>210</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>268</v>
       </c>
       <c r="AL11" s="11">
-        <v>210</v>
+        <v>122</v>
       </c>
       <c r="AM11" s="11">
-        <v>268</v>
+        <v>538</v>
       </c>
       <c r="AN11" s="11">
-        <v>122</v>
+        <v>689</v>
       </c>
       <c r="AO11" s="11">
-        <v>538</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>689</v>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ11" s="11">
         <v>0</v>
       </c>
       <c r="AR11" s="11">
-        <v>-111</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1654,65 +1654,65 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
+        <v>40</v>
       </c>
       <c r="Y12" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z12" s="13">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="AA12" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="13">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AD12" s="13">
         <v>0</v>
       </c>
       <c r="AE12" s="13">
-        <v>69</v>
+        <v>191</v>
       </c>
       <c r="AF12" s="13">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AG12" s="13">
-        <v>191</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>107</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL12" s="13" t="s">
-        <v>58</v>
+      <c r="AK12" s="13">
+        <v>224</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>78</v>
       </c>
       <c r="AM12" s="13">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="AN12" s="13">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="AO12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="13">
         <v>0</v>
@@ -1721,37 +1721,37 @@
         <v>0</v>
       </c>
       <c r="AS12" s="13">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AT12" s="13">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AU12" s="13">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="13">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="AW12" s="13">
         <v>0</v>
       </c>
       <c r="AX12" s="13">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="AY12" s="13">
         <v>0</v>
       </c>
       <c r="AZ12" s="13">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="BA12" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB12" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1813,104 +1813,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>0</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
       </c>
       <c r="Y13" s="11">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="Z13" s="11">
-        <v>0</v>
+        <v>2091</v>
       </c>
       <c r="AA13" s="11">
-        <v>626</v>
+        <v>2091</v>
       </c>
       <c r="AB13" s="11">
-        <v>2091</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="11">
-        <v>2091</v>
+        <v>1858</v>
       </c>
       <c r="AD13" s="11">
         <v>0</v>
       </c>
       <c r="AE13" s="11">
-        <v>1858</v>
+        <v>483</v>
       </c>
       <c r="AF13" s="11">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="AG13" s="11">
-        <v>483</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>558</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL13" s="11" t="s">
-        <v>58</v>
+      <c r="AK13" s="11">
+        <v>940</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>580</v>
       </c>
       <c r="AM13" s="11">
-        <v>940</v>
+        <v>103</v>
       </c>
       <c r="AN13" s="11">
-        <v>580</v>
+        <v>75</v>
       </c>
       <c r="AO13" s="11">
-        <v>103</v>
+        <v>364</v>
       </c>
       <c r="AP13" s="11">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AQ13" s="11">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="AR13" s="11">
-        <v>84</v>
+        <v>213</v>
       </c>
       <c r="AS13" s="11">
-        <v>100</v>
+        <v>1121</v>
       </c>
       <c r="AT13" s="11">
-        <v>213</v>
+        <v>446</v>
       </c>
       <c r="AU13" s="11">
-        <v>1121</v>
+        <v>271</v>
       </c>
       <c r="AV13" s="11">
-        <v>446</v>
+        <v>1229</v>
       </c>
       <c r="AW13" s="11">
-        <v>271</v>
+        <v>1288</v>
       </c>
       <c r="AX13" s="11">
-        <v>1229</v>
+        <v>873</v>
       </c>
       <c r="AY13" s="11">
-        <v>1288</v>
+        <v>866</v>
       </c>
       <c r="AZ13" s="11">
-        <v>873</v>
+        <v>604</v>
       </c>
       <c r="BA13" s="11">
-        <v>866</v>
+        <v>1957</v>
       </c>
       <c r="BB13" s="11">
-        <v>604</v>
+        <v>351</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1972,104 +1972,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>85</v>
+      </c>
+      <c r="X14" s="13">
+        <v>212</v>
       </c>
       <c r="Y14" s="13">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="13">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="13">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="AB14" s="13">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="AC14" s="13">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="AD14" s="13">
-        <v>192</v>
+        <v>460</v>
       </c>
       <c r="AE14" s="13">
+        <v>218</v>
+      </c>
+      <c r="AF14" s="13">
         <v>14</v>
       </c>
-      <c r="AF14" s="13">
-        <v>460</v>
-      </c>
       <c r="AG14" s="13">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="AH14" s="13">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="AI14" s="13">
+        <v>187</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>174</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>276</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>145</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>470</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>366</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>108</v>
+      </c>
+      <c r="AS14" s="13">
         <v>109</v>
       </c>
-      <c r="AJ14" s="13">
-        <v>155</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>187</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>174</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>276</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>145</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>470</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>366</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>0</v>
-      </c>
       <c r="AT14" s="13">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="AU14" s="13">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="AV14" s="13">
-        <v>306</v>
+        <v>118</v>
       </c>
       <c r="AW14" s="13">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AX14" s="13">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AY14" s="13">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="13">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="BA14" s="13">
         <v>0</v>
       </c>
       <c r="BB14" s="13">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2131,104 +2131,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>3654</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1150</v>
       </c>
       <c r="Y15" s="11">
-        <v>3654</v>
+        <v>571</v>
       </c>
       <c r="Z15" s="11">
-        <v>1150</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="11">
-        <v>571</v>
+        <v>3382</v>
       </c>
       <c r="AB15" s="11">
-        <v>0</v>
+        <v>2732</v>
       </c>
       <c r="AC15" s="11">
-        <v>3382</v>
+        <v>5532</v>
       </c>
       <c r="AD15" s="11">
-        <v>2732</v>
+        <v>9254</v>
       </c>
       <c r="AE15" s="11">
-        <v>5532</v>
+        <v>9021</v>
       </c>
       <c r="AF15" s="11">
-        <v>9254</v>
+        <v>3122</v>
       </c>
       <c r="AG15" s="11">
-        <v>9021</v>
+        <v>3127</v>
       </c>
       <c r="AH15" s="11">
-        <v>3122</v>
+        <v>3596</v>
       </c>
       <c r="AI15" s="11">
-        <v>3127</v>
+        <v>4363</v>
       </c>
       <c r="AJ15" s="11">
-        <v>3596</v>
+        <v>4027</v>
       </c>
       <c r="AK15" s="11">
-        <v>4363</v>
+        <v>9373</v>
       </c>
       <c r="AL15" s="11">
-        <v>4027</v>
+        <v>3271</v>
       </c>
       <c r="AM15" s="11">
-        <v>9373</v>
+        <v>646</v>
       </c>
       <c r="AN15" s="11">
-        <v>3271</v>
+        <v>758</v>
       </c>
       <c r="AO15" s="11">
-        <v>646</v>
+        <v>1866</v>
       </c>
       <c r="AP15" s="11">
-        <v>758</v>
+        <v>3050</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1866</v>
+        <v>4602</v>
       </c>
       <c r="AR15" s="11">
-        <v>6463</v>
+        <v>3982</v>
       </c>
       <c r="AS15" s="11">
-        <v>4602</v>
+        <v>2418</v>
       </c>
       <c r="AT15" s="11">
-        <v>3982</v>
+        <v>3872</v>
       </c>
       <c r="AU15" s="11">
-        <v>2418</v>
+        <v>1784</v>
       </c>
       <c r="AV15" s="11">
-        <v>3872</v>
+        <v>1147</v>
       </c>
       <c r="AW15" s="11">
-        <v>1784</v>
+        <v>7063</v>
       </c>
       <c r="AX15" s="11">
-        <v>1147</v>
+        <v>954</v>
       </c>
       <c r="AY15" s="11">
-        <v>7063</v>
+        <v>1676</v>
       </c>
       <c r="AZ15" s="11">
-        <v>954</v>
+        <v>1045</v>
       </c>
       <c r="BA15" s="11">
-        <v>1676</v>
+        <v>180</v>
       </c>
       <c r="BB15" s="11">
-        <v>1045</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>63</v>
       </c>
@@ -2289,103 +2289,103 @@
         <v>0</v>
       </c>
       <c r="W16" s="15">
-        <v>0</v>
+        <v>3739</v>
       </c>
       <c r="X16" s="15">
-        <v>0</v>
+        <v>1402</v>
       </c>
       <c r="Y16" s="15">
-        <v>3739</v>
+        <v>1203</v>
       </c>
       <c r="Z16" s="15">
-        <v>1402</v>
+        <v>2108</v>
       </c>
       <c r="AA16" s="15">
-        <v>1203</v>
+        <v>5697</v>
       </c>
       <c r="AB16" s="15">
-        <v>2108</v>
+        <v>2924</v>
       </c>
       <c r="AC16" s="15">
-        <v>5697</v>
+        <v>7473</v>
       </c>
       <c r="AD16" s="15">
-        <v>2924</v>
+        <v>9714</v>
       </c>
       <c r="AE16" s="15">
-        <v>7473</v>
+        <v>9913</v>
       </c>
       <c r="AF16" s="15">
-        <v>9714</v>
+        <v>3801</v>
       </c>
       <c r="AG16" s="15">
-        <v>9913</v>
+        <v>3236</v>
       </c>
       <c r="AH16" s="15">
-        <v>3801</v>
+        <v>3751</v>
       </c>
       <c r="AI16" s="15">
-        <v>3236</v>
+        <v>4550</v>
       </c>
       <c r="AJ16" s="15">
-        <v>3751</v>
+        <v>4411</v>
       </c>
       <c r="AK16" s="15">
-        <v>4550</v>
+        <v>11081</v>
       </c>
       <c r="AL16" s="15">
-        <v>4411</v>
+        <v>4051</v>
       </c>
       <c r="AM16" s="15">
-        <v>11081</v>
+        <v>1309</v>
       </c>
       <c r="AN16" s="15">
-        <v>4051</v>
+        <v>1689</v>
       </c>
       <c r="AO16" s="15">
-        <v>1309</v>
+        <v>2700</v>
       </c>
       <c r="AP16" s="15">
-        <v>1689</v>
+        <v>3500</v>
       </c>
       <c r="AQ16" s="15">
-        <v>2700</v>
+        <v>4702</v>
       </c>
       <c r="AR16" s="15">
-        <v>6802</v>
+        <v>4303</v>
       </c>
       <c r="AS16" s="15">
-        <v>4702</v>
+        <v>3767</v>
       </c>
       <c r="AT16" s="15">
-        <v>4303</v>
+        <v>4727</v>
       </c>
       <c r="AU16" s="15">
-        <v>3767</v>
+        <v>2244</v>
       </c>
       <c r="AV16" s="15">
-        <v>4727</v>
+        <v>2578</v>
       </c>
       <c r="AW16" s="15">
-        <v>2244</v>
+        <v>8453</v>
       </c>
       <c r="AX16" s="15">
-        <v>2578</v>
+        <v>1975</v>
       </c>
       <c r="AY16" s="15">
-        <v>8453</v>
+        <v>2542</v>
       </c>
       <c r="AZ16" s="15">
-        <v>1975</v>
+        <v>1721</v>
       </c>
       <c r="BA16" s="15">
-        <v>2542</v>
+        <v>2145</v>
       </c>
       <c r="BB16" s="15">
-        <v>1721</v>
+        <v>797</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>64</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
@@ -2531,17 +2531,17 @@
       <c r="AE18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="11" t="s">
-        <v>58</v>
+      <c r="AF18" s="11">
+        <v>0</v>
       </c>
       <c r="AG18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="11" t="s">
-        <v>58</v>
+      <c r="AH18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI18" s="11">
+        <v>0</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>58</v>
@@ -2571,37 +2571,37 @@
         <v>0</v>
       </c>
       <c r="AS18" s="11">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AT18" s="11">
         <v>0</v>
       </c>
       <c r="AU18" s="11">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AV18" s="11">
         <v>0</v>
       </c>
       <c r="AW18" s="11">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AX18" s="11">
         <v>0</v>
       </c>
       <c r="AY18" s="11">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BA18" s="11">
         <v>0</v>
       </c>
       <c r="BB18" s="11">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>60</v>
       </c>
@@ -2687,20 +2687,20 @@
       <c r="AD19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="13" t="s">
-        <v>58</v>
+      <c r="AE19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI19" s="13">
+        <v>0</v>
       </c>
       <c r="AJ19" s="13" t="s">
         <v>58</v>
@@ -2720,8 +2720,8 @@
       <c r="AO19" s="13">
         <v>0</v>
       </c>
-      <c r="AP19" s="13" t="s">
-        <v>58</v>
+      <c r="AP19" s="13">
+        <v>0</v>
       </c>
       <c r="AQ19" s="13">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>65</v>
       </c>
@@ -2887,37 +2887,37 @@
         <v>0</v>
       </c>
       <c r="AS20" s="17">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AT20" s="17">
         <v>0</v>
       </c>
       <c r="AU20" s="17">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AV20" s="17">
         <v>0</v>
       </c>
       <c r="AW20" s="17">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AX20" s="17">
         <v>0</v>
       </c>
       <c r="AY20" s="17">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="17">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="BA20" s="17">
         <v>0</v>
       </c>
       <c r="BB20" s="17">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>66</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="BA21" s="9"/>
       <c r="BB21" s="9"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>67</v>
       </c>
@@ -3036,104 +3036,104 @@
       <c r="V22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>58</v>
+      <c r="W22" s="11">
+        <v>0</v>
+      </c>
+      <c r="X22" s="11">
+        <v>0</v>
       </c>
       <c r="Y22" s="11">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="Z22" s="11">
-        <v>0</v>
+        <v>12188</v>
       </c>
       <c r="AA22" s="11">
-        <v>34633</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="11">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="11">
         <v>0</v>
       </c>
       <c r="AD22" s="11">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AE22" s="11">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AF22" s="11">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="11">
-        <v>283</v>
-      </c>
-      <c r="AH22" s="11">
-        <v>0</v>
+        <v>10368</v>
+      </c>
+      <c r="AH22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI22" s="11">
-        <v>10368</v>
-      </c>
-      <c r="AJ22" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="11">
+        <v>24260</v>
       </c>
       <c r="AK22" s="11">
         <v>0</v>
       </c>
       <c r="AL22" s="11">
-        <v>24260</v>
+        <v>12495</v>
       </c>
       <c r="AM22" s="11">
         <v>0</v>
       </c>
-      <c r="AN22" s="11">
-        <v>12495</v>
-      </c>
-      <c r="AO22" s="11">
-        <v>0</v>
+      <c r="AN22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO22" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP22" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="11">
+      <c r="AQ22" s="11">
         <v>13055</v>
       </c>
-      <c r="AT22" s="11" t="s">
-        <v>58</v>
+      <c r="AR22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT22" s="11">
+        <v>20026</v>
       </c>
       <c r="AU22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV22" s="11">
-        <v>20026</v>
-      </c>
-      <c r="AW22" s="11" t="s">
-        <v>58</v>
+        <v>5008</v>
+      </c>
+      <c r="AW22" s="11">
+        <v>5995</v>
       </c>
       <c r="AX22" s="11">
-        <v>5008</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="11">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="11">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="BA22" s="11">
         <v>0</v>
       </c>
       <c r="BB22" s="11">
-        <v>5499</v>
+        <v>11513</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>68</v>
       </c>
@@ -3193,11 +3193,11 @@
       <c r="V23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>58</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>69</v>
       </c>
@@ -3351,103 +3351,103 @@
         <v>0</v>
       </c>
       <c r="W24" s="17">
-        <v>0</v>
+        <v>3739</v>
       </c>
       <c r="X24" s="17">
-        <v>0</v>
+        <v>1402</v>
       </c>
       <c r="Y24" s="17">
-        <v>3739</v>
+        <v>35836</v>
       </c>
       <c r="Z24" s="17">
-        <v>1402</v>
+        <v>14296</v>
       </c>
       <c r="AA24" s="17">
-        <v>35836</v>
+        <v>5697</v>
       </c>
       <c r="AB24" s="17">
-        <v>14296</v>
+        <v>2924</v>
       </c>
       <c r="AC24" s="17">
-        <v>5697</v>
+        <v>7473</v>
       </c>
       <c r="AD24" s="17">
-        <v>2924</v>
+        <v>10203</v>
       </c>
       <c r="AE24" s="17">
-        <v>7473</v>
+        <v>10196</v>
       </c>
       <c r="AF24" s="17">
-        <v>10203</v>
+        <v>3801</v>
       </c>
       <c r="AG24" s="17">
-        <v>10196</v>
+        <v>13604</v>
       </c>
       <c r="AH24" s="17">
-        <v>3801</v>
+        <v>3751</v>
       </c>
       <c r="AI24" s="17">
-        <v>13604</v>
+        <v>4550</v>
       </c>
       <c r="AJ24" s="17">
-        <v>3751</v>
+        <v>28671</v>
       </c>
       <c r="AK24" s="17">
-        <v>4550</v>
+        <v>11081</v>
       </c>
       <c r="AL24" s="17">
-        <v>28671</v>
+        <v>16546</v>
       </c>
       <c r="AM24" s="17">
-        <v>11081</v>
+        <v>1309</v>
       </c>
       <c r="AN24" s="17">
-        <v>16546</v>
+        <v>1689</v>
       </c>
       <c r="AO24" s="17">
-        <v>1309</v>
+        <v>2700</v>
       </c>
       <c r="AP24" s="17">
-        <v>1689</v>
+        <v>3500</v>
       </c>
       <c r="AQ24" s="17">
-        <v>2700</v>
+        <v>17757</v>
       </c>
       <c r="AR24" s="17">
-        <v>6802</v>
+        <v>4303</v>
       </c>
       <c r="AS24" s="17">
-        <v>17757</v>
+        <v>3879</v>
       </c>
       <c r="AT24" s="17">
-        <v>4303</v>
+        <v>24753</v>
       </c>
       <c r="AU24" s="17">
-        <v>3879</v>
+        <v>2244</v>
       </c>
       <c r="AV24" s="17">
-        <v>24753</v>
+        <v>7586</v>
       </c>
       <c r="AW24" s="17">
-        <v>2244</v>
+        <v>15223</v>
       </c>
       <c r="AX24" s="17">
-        <v>7586</v>
+        <v>1975</v>
       </c>
       <c r="AY24" s="17">
-        <v>15223</v>
+        <v>2542</v>
       </c>
       <c r="AZ24" s="17">
-        <v>1975</v>
+        <v>7253</v>
       </c>
       <c r="BA24" s="17">
-        <v>2542</v>
+        <v>2145</v>
       </c>
       <c r="BB24" s="17">
-        <v>7253</v>
+        <v>12310</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3502,7 +3502,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3557,7 +3557,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3612,7 +3612,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>70</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3824,7 +3824,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -3881,7 +3881,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -3943,20 +3943,20 @@
       <c r="V31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>58</v>
+      <c r="W31" s="11">
+        <v>0</v>
+      </c>
+      <c r="X31" s="11">
+        <v>0</v>
       </c>
       <c r="Y31" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Z31" s="11">
         <v>0</v>
       </c>
       <c r="AA31" s="11">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="11">
         <v>0</v>
@@ -3976,38 +3976,38 @@
       <c r="AG31" s="11">
         <v>0</v>
       </c>
-      <c r="AH31" s="11">
-        <v>0</v>
+      <c r="AH31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI31" s="11">
         <v>0</v>
       </c>
-      <c r="AJ31" s="11" t="s">
-        <v>58</v>
+      <c r="AJ31" s="11">
+        <v>49</v>
       </c>
       <c r="AK31" s="11">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="AL31" s="11">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="AM31" s="11">
-        <v>429</v>
+        <v>15</v>
       </c>
       <c r="AN31" s="11">
-        <v>122</v>
-      </c>
-      <c r="AO31" s="11">
-        <v>15</v>
+        <v>271</v>
+      </c>
+      <c r="AO31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP31" s="11">
-        <v>271</v>
-      </c>
-      <c r="AQ31" s="11" t="s">
-        <v>58</v>
+        <v>100</v>
+      </c>
+      <c r="AQ31" s="11">
+        <v>0</v>
       </c>
       <c r="AR31" s="11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AS31" s="11">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA31" s="11">
         <v>0</v>
       </c>
       <c r="BB31" s="11">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4102,17 +4102,17 @@
       <c r="V32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>58</v>
+      <c r="W32" s="13">
+        <v>0</v>
+      </c>
+      <c r="X32" s="13">
+        <v>29</v>
       </c>
       <c r="Y32" s="13">
         <v>0</v>
       </c>
       <c r="Z32" s="13">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AA32" s="13">
         <v>0</v>
@@ -4127,16 +4127,16 @@
         <v>0</v>
       </c>
       <c r="AE32" s="13">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AF32" s="13">
         <v>0</v>
       </c>
       <c r="AG32" s="13">
-        <v>161</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI32" s="13">
         <v>0</v>
@@ -4145,28 +4145,28 @@
         <v>58</v>
       </c>
       <c r="AK32" s="13">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AL32" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AM32" s="13">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AN32" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AO32" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="13" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="AP32" s="13">
+        <v>39</v>
       </c>
       <c r="AQ32" s="13">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="13">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="13">
         <v>0</v>
@@ -4181,16 +4181,16 @@
         <v>0</v>
       </c>
       <c r="AW32" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AX32" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AY32" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AZ32" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="13">
         <v>0</v>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4261,11 +4261,11 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>0</v>
+      </c>
+      <c r="X33" s="11">
+        <v>0</v>
       </c>
       <c r="Y33" s="11">
         <v>0</v>
@@ -4283,19 +4283,19 @@
         <v>0</v>
       </c>
       <c r="AD33" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AE33" s="11">
         <v>0</v>
       </c>
       <c r="AF33" s="11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="11">
         <v>0</v>
       </c>
-      <c r="AH33" s="11">
-        <v>0</v>
+      <c r="AH33" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI33" s="11">
         <v>0</v>
@@ -4318,8 +4318,8 @@
       <c r="AO33" s="11">
         <v>0</v>
       </c>
-      <c r="AP33" s="11" t="s">
-        <v>58</v>
+      <c r="AP33" s="11">
+        <v>0</v>
       </c>
       <c r="AQ33" s="11">
         <v>0</v>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
@@ -4420,20 +4420,20 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>0</v>
+      </c>
+      <c r="X34" s="13">
+        <v>254</v>
       </c>
       <c r="Y34" s="13">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="Z34" s="13">
-        <v>254</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="13">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="13">
         <v>0</v>
@@ -4442,25 +4442,25 @@
         <v>0</v>
       </c>
       <c r="AD34" s="13">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AE34" s="13">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="AF34" s="13">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="13">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="13">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AI34" s="13">
         <v>0</v>
       </c>
-      <c r="AJ34" s="13">
-        <v>406</v>
+      <c r="AJ34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK34" s="13">
         <v>0</v>
@@ -4475,40 +4475,40 @@
         <v>58</v>
       </c>
       <c r="AO34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="13" t="s">
-        <v>58</v>
+        <v>1530</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>0</v>
       </c>
       <c r="AQ34" s="13">
-        <v>1530</v>
+        <v>190</v>
       </c>
       <c r="AR34" s="13">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AS34" s="13">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="13">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="AU34" s="13">
         <v>0</v>
       </c>
       <c r="AV34" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AW34" s="13">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AX34" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AY34" s="13">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AZ34" s="13">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BA34" s="13">
         <v>0</v>
@@ -4517,7 +4517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>62</v>
       </c>
@@ -4579,104 +4579,104 @@
       <c r="V35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="11" t="s">
-        <v>58</v>
+      <c r="W35" s="11">
+        <v>4516</v>
+      </c>
+      <c r="X35" s="11">
+        <v>3673</v>
       </c>
       <c r="Y35" s="11">
-        <v>4516</v>
+        <v>202</v>
       </c>
       <c r="Z35" s="11">
-        <v>3673</v>
+        <v>1313</v>
       </c>
       <c r="AA35" s="11">
-        <v>202</v>
+        <v>2016</v>
       </c>
       <c r="AB35" s="11">
-        <v>1313</v>
+        <v>2751</v>
       </c>
       <c r="AC35" s="11">
-        <v>2016</v>
+        <v>5995</v>
       </c>
       <c r="AD35" s="11">
-        <v>2751</v>
+        <v>10745</v>
       </c>
       <c r="AE35" s="11">
-        <v>5995</v>
+        <v>7406</v>
       </c>
       <c r="AF35" s="11">
-        <v>10745</v>
+        <v>3455</v>
       </c>
       <c r="AG35" s="11">
-        <v>7406</v>
+        <v>3233</v>
       </c>
       <c r="AH35" s="11">
-        <v>3455</v>
+        <v>2884</v>
       </c>
       <c r="AI35" s="11">
-        <v>3233</v>
+        <v>4190</v>
       </c>
       <c r="AJ35" s="11">
-        <v>2884</v>
+        <v>3157</v>
       </c>
       <c r="AK35" s="11">
-        <v>4190</v>
-      </c>
-      <c r="AL35" s="11">
-        <v>3157</v>
+        <v>8633</v>
+      </c>
+      <c r="AL35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM35" s="11">
-        <v>8633</v>
-      </c>
-      <c r="AN35" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AN35" s="11">
+        <v>3749</v>
       </c>
       <c r="AO35" s="11">
-        <v>0</v>
+        <v>1670</v>
       </c>
       <c r="AP35" s="11">
-        <v>3749</v>
+        <v>2530</v>
       </c>
       <c r="AQ35" s="11">
-        <v>1670</v>
+        <v>4948</v>
       </c>
       <c r="AR35" s="11">
-        <v>2530</v>
+        <v>4203</v>
       </c>
       <c r="AS35" s="11">
-        <v>4948</v>
+        <v>1205</v>
       </c>
       <c r="AT35" s="11">
-        <v>4203</v>
+        <v>1735</v>
       </c>
       <c r="AU35" s="11">
-        <v>1205</v>
+        <v>2192</v>
       </c>
       <c r="AV35" s="11">
-        <v>1735</v>
+        <v>2893</v>
       </c>
       <c r="AW35" s="11">
-        <v>2192</v>
+        <v>4493</v>
       </c>
       <c r="AX35" s="11">
-        <v>2893</v>
+        <v>1425</v>
       </c>
       <c r="AY35" s="11">
-        <v>4493</v>
+        <v>1636</v>
       </c>
       <c r="AZ35" s="11">
-        <v>1425</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="11">
-        <v>1636</v>
+        <v>974</v>
       </c>
       <c r="BB35" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
@@ -4737,103 +4737,103 @@
         <v>0</v>
       </c>
       <c r="W36" s="15">
-        <v>0</v>
+        <v>4516</v>
       </c>
       <c r="X36" s="15">
-        <v>0</v>
+        <v>3956</v>
       </c>
       <c r="Y36" s="15">
-        <v>4516</v>
+        <v>420</v>
       </c>
       <c r="Z36" s="15">
-        <v>3956</v>
+        <v>1313</v>
       </c>
       <c r="AA36" s="15">
-        <v>420</v>
+        <v>2016</v>
       </c>
       <c r="AB36" s="15">
-        <v>1313</v>
+        <v>2751</v>
       </c>
       <c r="AC36" s="15">
-        <v>2016</v>
+        <v>5995</v>
       </c>
       <c r="AD36" s="15">
-        <v>2751</v>
+        <v>11591</v>
       </c>
       <c r="AE36" s="15">
-        <v>5995</v>
+        <v>8061</v>
       </c>
       <c r="AF36" s="15">
-        <v>11591</v>
+        <v>3455</v>
       </c>
       <c r="AG36" s="15">
-        <v>8061</v>
+        <v>3233</v>
       </c>
       <c r="AH36" s="15">
-        <v>3455</v>
+        <v>3290</v>
       </c>
       <c r="AI36" s="15">
-        <v>3233</v>
+        <v>4190</v>
       </c>
       <c r="AJ36" s="15">
-        <v>3290</v>
+        <v>3206</v>
       </c>
       <c r="AK36" s="15">
-        <v>4190</v>
+        <v>9157</v>
       </c>
       <c r="AL36" s="15">
-        <v>3206</v>
+        <v>122</v>
       </c>
       <c r="AM36" s="15">
-        <v>9157</v>
+        <v>15</v>
       </c>
       <c r="AN36" s="15">
-        <v>122</v>
+        <v>4020</v>
       </c>
       <c r="AO36" s="15">
-        <v>15</v>
+        <v>3282</v>
       </c>
       <c r="AP36" s="15">
-        <v>4020</v>
+        <v>2669</v>
       </c>
       <c r="AQ36" s="15">
-        <v>3282</v>
+        <v>5138</v>
       </c>
       <c r="AR36" s="15">
-        <v>2669</v>
+        <v>4363</v>
       </c>
       <c r="AS36" s="15">
-        <v>5138</v>
+        <v>1205</v>
       </c>
       <c r="AT36" s="15">
-        <v>4363</v>
+        <v>1763</v>
       </c>
       <c r="AU36" s="15">
-        <v>1205</v>
+        <v>2192</v>
       </c>
       <c r="AV36" s="15">
-        <v>1763</v>
+        <v>2893</v>
       </c>
       <c r="AW36" s="15">
-        <v>2192</v>
+        <v>4733</v>
       </c>
       <c r="AX36" s="15">
-        <v>2893</v>
+        <v>1455</v>
       </c>
       <c r="AY36" s="15">
-        <v>4733</v>
+        <v>1636</v>
       </c>
       <c r="AZ36" s="15">
-        <v>1455</v>
+        <v>16</v>
       </c>
       <c r="BA36" s="15">
-        <v>1636</v>
+        <v>974</v>
       </c>
       <c r="BB36" s="15">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>73</v>
       </c>
@@ -4890,7 +4890,7 @@
       <c r="BA37" s="9"/>
       <c r="BB37" s="9"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>56</v>
       </c>
@@ -4979,77 +4979,77 @@
       <c r="AE38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF38" s="11" t="s">
-        <v>58</v>
+      <c r="AF38" s="11">
+        <v>0</v>
       </c>
       <c r="AG38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="11" t="s">
-        <v>58</v>
+      <c r="AH38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI38" s="11">
+        <v>0</v>
       </c>
       <c r="AJ38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK38" s="11">
-        <v>0</v>
+      <c r="AK38" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM38" s="11" t="s">
-        <v>58</v>
+      <c r="AM38" s="11">
+        <v>401</v>
       </c>
       <c r="AN38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="11">
-        <v>401</v>
-      </c>
-      <c r="AP38" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ38" s="11" t="s">
-        <v>58</v>
+      <c r="AO38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="11">
+        <v>195</v>
       </c>
       <c r="AR38" s="11">
         <v>0</v>
       </c>
       <c r="AS38" s="11">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="AT38" s="11">
         <v>0</v>
       </c>
       <c r="AU38" s="11">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AV38" s="11">
         <v>0</v>
       </c>
       <c r="AW38" s="11">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AX38" s="11">
         <v>0</v>
       </c>
       <c r="AY38" s="11">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BA38" s="11">
         <v>0</v>
       </c>
       <c r="BB38" s="11">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>60</v>
       </c>
@@ -5135,47 +5135,47 @@
       <c r="AD39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG39" s="13">
+      <c r="AE39" s="13">
         <v>5470</v>
       </c>
-      <c r="AH39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="13" t="s">
-        <v>58</v>
+      <c r="AF39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI39" s="13">
+        <v>0</v>
       </c>
       <c r="AJ39" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AK39" s="13">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AL39" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AM39" s="13">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ39" s="13" t="s">
-        <v>58</v>
+      <c r="AO39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP39" s="13">
+        <v>5470</v>
+      </c>
+      <c r="AQ39" s="13">
+        <v>0</v>
       </c>
       <c r="AR39" s="13">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="13">
         <v>0</v>
@@ -5190,25 +5190,25 @@
         <v>0</v>
       </c>
       <c r="AW39" s="13">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="AX39" s="13">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY39" s="13">
-        <v>4300</v>
+        <v>1300</v>
       </c>
       <c r="AZ39" s="13">
-        <v>2500</v>
+        <v>522</v>
       </c>
       <c r="BA39" s="13">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="BB39" s="13">
-        <v>522</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="16" t="s">
         <v>74</v>
       </c>
@@ -5293,79 +5293,79 @@
         <v>0</v>
       </c>
       <c r="AE40" s="17">
-        <v>0</v>
+        <v>5470</v>
       </c>
       <c r="AF40" s="17">
         <v>0</v>
       </c>
       <c r="AG40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="17">
+        <v>184</v>
+      </c>
+      <c r="AL40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="17">
+        <v>401</v>
+      </c>
+      <c r="AN40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="17">
         <v>5470</v>
       </c>
-      <c r="AH40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="17">
-        <v>184</v>
-      </c>
-      <c r="AN40" s="17">
-        <v>0</v>
-      </c>
-      <c r="AO40" s="17">
-        <v>401</v>
-      </c>
-      <c r="AP40" s="17">
-        <v>0</v>
-      </c>
       <c r="AQ40" s="17">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="AR40" s="17">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="17">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="AT40" s="17">
         <v>0</v>
       </c>
       <c r="AU40" s="17">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AV40" s="17">
         <v>0</v>
       </c>
       <c r="AW40" s="17">
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="AX40" s="17">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="AY40" s="17">
-        <v>5075</v>
+        <v>1300</v>
       </c>
       <c r="AZ40" s="17">
-        <v>2500</v>
+        <v>538</v>
       </c>
       <c r="BA40" s="17">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="BB40" s="17">
-        <v>538</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>66</v>
       </c>
@@ -5422,7 +5422,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>67</v>
       </c>
@@ -5484,104 +5484,104 @@
       <c r="V42" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="11" t="s">
-        <v>58</v>
+      <c r="W42" s="11">
+        <v>0</v>
+      </c>
+      <c r="X42" s="11">
+        <v>0</v>
       </c>
       <c r="Y42" s="11">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="Z42" s="11">
-        <v>0</v>
+        <v>12188</v>
       </c>
       <c r="AA42" s="11">
-        <v>34633</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="11">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AC42" s="11">
         <v>0</v>
       </c>
       <c r="AD42" s="11">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AE42" s="11">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AF42" s="11">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="11">
-        <v>283</v>
-      </c>
-      <c r="AH42" s="11">
-        <v>0</v>
+        <v>10368</v>
+      </c>
+      <c r="AH42" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI42" s="11">
-        <v>10368</v>
-      </c>
-      <c r="AJ42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK42" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="11">
+        <v>24260</v>
+      </c>
+      <c r="AK42" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL42" s="11">
-        <v>24260</v>
-      </c>
-      <c r="AM42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN42" s="11">
         <v>12495</v>
       </c>
-      <c r="AO42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ42" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR42" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS42" s="11">
+      <c r="AM42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP42" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="11">
         <v>13055</v>
       </c>
-      <c r="AT42" s="11" t="s">
-        <v>58</v>
+      <c r="AR42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS42" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT42" s="11">
+        <v>20026</v>
       </c>
       <c r="AU42" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV42" s="11">
-        <v>20026</v>
-      </c>
-      <c r="AW42" s="11" t="s">
-        <v>58</v>
+        <v>5008</v>
+      </c>
+      <c r="AW42" s="11">
+        <v>5995</v>
       </c>
       <c r="AX42" s="11">
-        <v>5008</v>
-      </c>
-      <c r="AY42" s="11">
-        <v>5995</v>
+        <v>0</v>
+      </c>
+      <c r="AY42" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ42" s="11">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="BA42" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BB42" s="11">
-        <v>5499</v>
+        <v>11513</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>68</v>
       </c>
@@ -5641,59 +5641,59 @@
       <c r="V43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>58</v>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
       </c>
       <c r="Y43" s="15">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="Z43" s="15">
-        <v>0</v>
+        <v>12188</v>
       </c>
       <c r="AA43" s="15">
-        <v>34633</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="15">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="15">
         <v>0</v>
       </c>
       <c r="AD43" s="15">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AE43" s="15">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="AF43" s="15">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="15">
-        <v>283</v>
+        <v>10368</v>
       </c>
       <c r="AH43" s="15">
         <v>0</v>
       </c>
       <c r="AI43" s="15">
-        <v>10368</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="15">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AK43" s="15">
         <v>0</v>
       </c>
       <c r="AL43" s="15">
-        <v>24260</v>
+        <v>12495</v>
       </c>
       <c r="AM43" s="15">
         <v>0</v>
       </c>
       <c r="AN43" s="15">
-        <v>12495</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="15">
         <v>0</v>
@@ -5702,43 +5702,43 @@
         <v>0</v>
       </c>
       <c r="AQ43" s="15">
-        <v>0</v>
+        <v>13055</v>
       </c>
       <c r="AR43" s="15">
         <v>0</v>
       </c>
       <c r="AS43" s="15">
-        <v>13055</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="15">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="AU43" s="15">
         <v>0</v>
       </c>
       <c r="AV43" s="15">
-        <v>20026</v>
+        <v>5008</v>
       </c>
       <c r="AW43" s="15">
-        <v>0</v>
+        <v>5995</v>
       </c>
       <c r="AX43" s="15">
-        <v>5008</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="15">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="15">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="BA43" s="15">
         <v>0</v>
       </c>
       <c r="BB43" s="15">
-        <v>5499</v>
+        <v>11513</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>62</v>
       </c>
@@ -5857,11 +5857,11 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>0</v>
+      </c>
+      <c r="X45" s="11">
+        <v>0</v>
       </c>
       <c r="Y45" s="11">
         <v>0</v>
@@ -5884,35 +5884,35 @@
       <c r="AE45" s="11">
         <v>0</v>
       </c>
-      <c r="AF45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="11">
-        <v>0</v>
+      <c r="AF45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI45" s="11" t="s">
-        <v>58</v>
+      <c r="AI45" s="11">
+        <v>0</v>
       </c>
       <c r="AJ45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK45" s="11">
-        <v>0</v>
+      <c r="AK45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM45" s="11" t="s">
-        <v>58</v>
+      <c r="AM45" s="11">
+        <v>0</v>
       </c>
       <c r="AN45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO45" s="11">
-        <v>0</v>
+      <c r="AO45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP45" s="11" t="s">
         <v>58</v>
@@ -5920,8 +5920,8 @@
       <c r="AQ45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR45" s="11">
-        <v>0</v>
+      <c r="AR45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS45" s="11" t="s">
         <v>58</v>
@@ -5944,17 +5944,17 @@
       <c r="AY45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ45" s="11" t="s">
-        <v>58</v>
+      <c r="AZ45" s="11">
+        <v>-12</v>
       </c>
       <c r="BA45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BB45" s="11">
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="14" t="s">
         <v>76</v>
       </c>
@@ -6014,11 +6014,11 @@
       <c r="V46" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="15" t="s">
-        <v>58</v>
+      <c r="W46" s="15">
+        <v>0</v>
+      </c>
+      <c r="X46" s="15">
+        <v>0</v>
       </c>
       <c r="Y46" s="15">
         <v>0</v>
@@ -6102,16 +6102,16 @@
         <v>0</v>
       </c>
       <c r="AZ46" s="15">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="BA46" s="15">
         <v>0</v>
       </c>
       <c r="BB46" s="15">
-        <v>-12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
         <v>69</v>
       </c>
@@ -6172,103 +6172,103 @@
         <v>0</v>
       </c>
       <c r="W47" s="17">
-        <v>0</v>
+        <v>4516</v>
       </c>
       <c r="X47" s="17">
-        <v>0</v>
+        <v>3956</v>
       </c>
       <c r="Y47" s="17">
-        <v>4516</v>
+        <v>35053</v>
       </c>
       <c r="Z47" s="17">
-        <v>3956</v>
+        <v>13501</v>
       </c>
       <c r="AA47" s="17">
-        <v>35053</v>
+        <v>2016</v>
       </c>
       <c r="AB47" s="17">
-        <v>13501</v>
+        <v>2751</v>
       </c>
       <c r="AC47" s="17">
-        <v>2016</v>
+        <v>5995</v>
       </c>
       <c r="AD47" s="17">
-        <v>2751</v>
+        <v>12080</v>
       </c>
       <c r="AE47" s="17">
-        <v>5995</v>
+        <v>13814</v>
       </c>
       <c r="AF47" s="17">
-        <v>12080</v>
+        <v>3455</v>
       </c>
       <c r="AG47" s="17">
-        <v>13814</v>
+        <v>13601</v>
       </c>
       <c r="AH47" s="17">
-        <v>3455</v>
+        <v>3290</v>
       </c>
       <c r="AI47" s="17">
-        <v>13601</v>
+        <v>4190</v>
       </c>
       <c r="AJ47" s="17">
-        <v>3290</v>
+        <v>27466</v>
       </c>
       <c r="AK47" s="17">
-        <v>4190</v>
+        <v>9341</v>
       </c>
       <c r="AL47" s="17">
-        <v>27466</v>
+        <v>12617</v>
       </c>
       <c r="AM47" s="17">
-        <v>9341</v>
+        <v>416</v>
       </c>
       <c r="AN47" s="17">
-        <v>12617</v>
+        <v>4020</v>
       </c>
       <c r="AO47" s="17">
-        <v>416</v>
+        <v>3282</v>
       </c>
       <c r="AP47" s="17">
-        <v>4020</v>
+        <v>8139</v>
       </c>
       <c r="AQ47" s="17">
-        <v>3282</v>
+        <v>18388</v>
       </c>
       <c r="AR47" s="17">
-        <v>8139</v>
+        <v>4363</v>
       </c>
       <c r="AS47" s="17">
-        <v>18388</v>
+        <v>1451</v>
       </c>
       <c r="AT47" s="17">
-        <v>4363</v>
+        <v>21789</v>
       </c>
       <c r="AU47" s="17">
-        <v>1451</v>
+        <v>2192</v>
       </c>
       <c r="AV47" s="17">
-        <v>21789</v>
+        <v>7901</v>
       </c>
       <c r="AW47" s="17">
-        <v>2192</v>
+        <v>15803</v>
       </c>
       <c r="AX47" s="17">
-        <v>7901</v>
+        <v>3955</v>
       </c>
       <c r="AY47" s="17">
-        <v>15803</v>
+        <v>2936</v>
       </c>
       <c r="AZ47" s="17">
-        <v>3955</v>
+        <v>6041</v>
       </c>
       <c r="BA47" s="17">
-        <v>2936</v>
+        <v>2974</v>
       </c>
       <c r="BB47" s="17">
-        <v>6041</v>
+        <v>11863</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6323,7 +6323,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6378,7 +6378,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6433,7 +6433,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
         <v>77</v>
       </c>
@@ -6590,7 +6590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6645,7 +6645,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>78</v>
       </c>
@@ -6702,7 +6702,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>56</v>
       </c>
@@ -6764,20 +6764,20 @@
       <c r="V54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="11" t="s">
-        <v>58</v>
+      <c r="W54" s="11">
+        <v>0</v>
+      </c>
+      <c r="X54" s="11">
+        <v>0</v>
       </c>
       <c r="Y54" s="11">
-        <v>0</v>
+        <v>26258</v>
       </c>
       <c r="Z54" s="11">
         <v>0</v>
       </c>
       <c r="AA54" s="11">
-        <v>26258</v>
+        <v>0</v>
       </c>
       <c r="AB54" s="11">
         <v>0</v>
@@ -6804,31 +6804,31 @@
         <v>0</v>
       </c>
       <c r="AJ54" s="11">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="AK54" s="11">
-        <v>0</v>
+        <v>277021</v>
       </c>
       <c r="AL54" s="11">
-        <v>31200</v>
+        <v>79745</v>
       </c>
       <c r="AM54" s="11">
-        <v>277021</v>
+        <v>10991</v>
       </c>
       <c r="AN54" s="11">
-        <v>79745</v>
+        <v>189494</v>
       </c>
       <c r="AO54" s="11">
-        <v>10991</v>
+        <v>0</v>
       </c>
       <c r="AP54" s="11">
-        <v>189494</v>
+        <v>87809</v>
       </c>
       <c r="AQ54" s="11">
         <v>0</v>
       </c>
       <c r="AR54" s="11">
-        <v>87809</v>
+        <v>0</v>
       </c>
       <c r="AS54" s="11">
         <v>0</v>
@@ -6852,16 +6852,16 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="11">
-        <v>0</v>
+        <v>20680</v>
       </c>
       <c r="BA54" s="11">
         <v>0</v>
       </c>
       <c r="BB54" s="11">
-        <v>20680</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>59</v>
       </c>
@@ -6923,17 +6923,17 @@
       <c r="V55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="13" t="s">
-        <v>58</v>
+      <c r="W55" s="13">
+        <v>0</v>
+      </c>
+      <c r="X55" s="13">
+        <v>11839</v>
       </c>
       <c r="Y55" s="13">
         <v>0</v>
       </c>
       <c r="Z55" s="13">
-        <v>11839</v>
+        <v>0</v>
       </c>
       <c r="AA55" s="13">
         <v>0</v>
@@ -6948,13 +6948,13 @@
         <v>0</v>
       </c>
       <c r="AE55" s="13">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="AF55" s="13">
         <v>0</v>
       </c>
       <c r="AG55" s="13">
-        <v>84839</v>
+        <v>0</v>
       </c>
       <c r="AH55" s="13">
         <v>0</v>
@@ -6966,28 +6966,28 @@
         <v>0</v>
       </c>
       <c r="AK55" s="13">
-        <v>0</v>
+        <v>66370</v>
       </c>
       <c r="AL55" s="13">
         <v>0</v>
       </c>
       <c r="AM55" s="13">
-        <v>66370</v>
+        <v>0</v>
       </c>
       <c r="AN55" s="13">
         <v>0</v>
       </c>
       <c r="AO55" s="13">
-        <v>0</v>
+        <v>53226</v>
       </c>
       <c r="AP55" s="13">
-        <v>0</v>
+        <v>21065</v>
       </c>
       <c r="AQ55" s="13">
-        <v>53226</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="13">
-        <v>21065</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="13">
         <v>0</v>
@@ -7002,16 +7002,16 @@
         <v>0</v>
       </c>
       <c r="AW55" s="13">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="AX55" s="13">
-        <v>0</v>
+        <v>4564</v>
       </c>
       <c r="AY55" s="13">
-        <v>23381</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="13">
-        <v>4564</v>
+        <v>0</v>
       </c>
       <c r="BA55" s="13">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>60</v>
       </c>
@@ -7082,11 +7082,11 @@
       <c r="V56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>58</v>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+      <c r="X56" s="11">
+        <v>0</v>
       </c>
       <c r="Y56" s="11">
         <v>0</v>
@@ -7104,13 +7104,13 @@
         <v>0</v>
       </c>
       <c r="AD56" s="11">
-        <v>0</v>
+        <v>102005</v>
       </c>
       <c r="AE56" s="11">
         <v>0</v>
       </c>
       <c r="AF56" s="11">
-        <v>102005</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="11">
         <v>0</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>61</v>
       </c>
@@ -7241,20 +7241,20 @@
       <c r="V57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="13" t="s">
-        <v>58</v>
+      <c r="W57" s="13">
+        <v>0</v>
+      </c>
+      <c r="X57" s="13">
+        <v>41552</v>
       </c>
       <c r="Y57" s="13">
-        <v>0</v>
+        <v>33777</v>
       </c>
       <c r="Z57" s="13">
-        <v>41552</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="13">
-        <v>33777</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="13">
         <v>0</v>
@@ -7263,25 +7263,25 @@
         <v>0</v>
       </c>
       <c r="AD57" s="13">
-        <v>0</v>
+        <v>67780</v>
       </c>
       <c r="AE57" s="13">
-        <v>0</v>
+        <v>154460</v>
       </c>
       <c r="AF57" s="13">
-        <v>67780</v>
+        <v>0</v>
       </c>
       <c r="AG57" s="13">
-        <v>154460</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="13">
-        <v>0</v>
+        <v>116399</v>
       </c>
       <c r="AI57" s="13">
         <v>0</v>
       </c>
       <c r="AJ57" s="13">
-        <v>116399</v>
+        <v>0</v>
       </c>
       <c r="AK57" s="13">
         <v>0</v>
@@ -7296,40 +7296,40 @@
         <v>0</v>
       </c>
       <c r="AO57" s="13">
-        <v>0</v>
+        <v>550890</v>
       </c>
       <c r="AP57" s="13">
         <v>0</v>
       </c>
       <c r="AQ57" s="13">
-        <v>550890</v>
+        <v>56932</v>
       </c>
       <c r="AR57" s="13">
-        <v>0</v>
+        <v>47118</v>
       </c>
       <c r="AS57" s="13">
-        <v>56932</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="13">
-        <v>47118</v>
+        <v>6993</v>
       </c>
       <c r="AU57" s="13">
         <v>0</v>
       </c>
       <c r="AV57" s="13">
-        <v>6993</v>
+        <v>0</v>
       </c>
       <c r="AW57" s="13">
-        <v>0</v>
+        <v>38584</v>
       </c>
       <c r="AX57" s="13">
-        <v>0</v>
+        <v>3870</v>
       </c>
       <c r="AY57" s="13">
-        <v>38584</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="13">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="13">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>62</v>
       </c>
@@ -7400,104 +7400,104 @@
       <c r="V58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="11" t="s">
-        <v>58</v>
+      <c r="W58" s="11">
+        <v>171298</v>
+      </c>
+      <c r="X58" s="11">
+        <v>105667</v>
       </c>
       <c r="Y58" s="11">
-        <v>171298</v>
+        <v>8379</v>
       </c>
       <c r="Z58" s="11">
-        <v>105667</v>
+        <v>55692</v>
       </c>
       <c r="AA58" s="11">
-        <v>8379</v>
+        <v>222743</v>
       </c>
       <c r="AB58" s="11">
-        <v>55692</v>
+        <v>276733</v>
       </c>
       <c r="AC58" s="11">
-        <v>222743</v>
+        <v>324876</v>
       </c>
       <c r="AD58" s="11">
-        <v>276733</v>
+        <v>739810</v>
       </c>
       <c r="AE58" s="11">
-        <v>324876</v>
+        <v>577703</v>
       </c>
       <c r="AF58" s="11">
-        <v>739810</v>
+        <v>301726</v>
       </c>
       <c r="AG58" s="11">
-        <v>577703</v>
+        <v>296304</v>
       </c>
       <c r="AH58" s="11">
-        <v>301726</v>
+        <v>293882</v>
       </c>
       <c r="AI58" s="11">
-        <v>296304</v>
+        <v>435851</v>
       </c>
       <c r="AJ58" s="11">
-        <v>293882</v>
+        <v>273570</v>
       </c>
       <c r="AK58" s="11">
-        <v>435851</v>
+        <v>836997</v>
       </c>
       <c r="AL58" s="11">
-        <v>273570</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="11">
-        <v>836997</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="11">
-        <v>0</v>
+        <v>330488</v>
       </c>
       <c r="AO58" s="11">
-        <v>0</v>
+        <v>154245</v>
       </c>
       <c r="AP58" s="11">
-        <v>330488</v>
+        <v>293815</v>
       </c>
       <c r="AQ58" s="11">
-        <v>154245</v>
+        <v>774252</v>
       </c>
       <c r="AR58" s="11">
-        <v>293815</v>
+        <v>645393</v>
       </c>
       <c r="AS58" s="11">
-        <v>774252</v>
+        <v>97722</v>
       </c>
       <c r="AT58" s="11">
-        <v>645393</v>
+        <v>123901</v>
       </c>
       <c r="AU58" s="11">
-        <v>97722</v>
+        <v>122812</v>
       </c>
       <c r="AV58" s="11">
-        <v>123901</v>
+        <v>334051</v>
       </c>
       <c r="AW58" s="11">
-        <v>122812</v>
+        <v>538414</v>
       </c>
       <c r="AX58" s="11">
-        <v>334051</v>
+        <v>175961</v>
       </c>
       <c r="AY58" s="11">
-        <v>538414</v>
+        <v>106213</v>
       </c>
       <c r="AZ58" s="11">
-        <v>175961</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="11">
-        <v>106213</v>
+        <v>81828</v>
       </c>
       <c r="BB58" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>72</v>
       </c>
@@ -7558,103 +7558,103 @@
         <v>0</v>
       </c>
       <c r="W59" s="15">
-        <v>0</v>
+        <v>171298</v>
       </c>
       <c r="X59" s="15">
-        <v>0</v>
+        <v>159058</v>
       </c>
       <c r="Y59" s="15">
-        <v>171298</v>
+        <v>68414</v>
       </c>
       <c r="Z59" s="15">
-        <v>159058</v>
+        <v>55692</v>
       </c>
       <c r="AA59" s="15">
-        <v>68414</v>
+        <v>222743</v>
       </c>
       <c r="AB59" s="15">
-        <v>55692</v>
+        <v>276733</v>
       </c>
       <c r="AC59" s="15">
-        <v>222743</v>
+        <v>324876</v>
       </c>
       <c r="AD59" s="15">
-        <v>276733</v>
+        <v>909595</v>
       </c>
       <c r="AE59" s="15">
-        <v>324876</v>
+        <v>817002</v>
       </c>
       <c r="AF59" s="15">
-        <v>909595</v>
+        <v>301726</v>
       </c>
       <c r="AG59" s="15">
-        <v>817002</v>
+        <v>296304</v>
       </c>
       <c r="AH59" s="15">
-        <v>301726</v>
+        <v>410281</v>
       </c>
       <c r="AI59" s="15">
-        <v>296304</v>
+        <v>435851</v>
       </c>
       <c r="AJ59" s="15">
-        <v>410281</v>
+        <v>304770</v>
       </c>
       <c r="AK59" s="15">
-        <v>435851</v>
+        <v>1180388</v>
       </c>
       <c r="AL59" s="15">
-        <v>304770</v>
+        <v>79745</v>
       </c>
       <c r="AM59" s="15">
-        <v>1180388</v>
+        <v>10991</v>
       </c>
       <c r="AN59" s="15">
-        <v>79745</v>
+        <v>519982</v>
       </c>
       <c r="AO59" s="15">
-        <v>10991</v>
+        <v>758361</v>
       </c>
       <c r="AP59" s="15">
-        <v>519982</v>
+        <v>402689</v>
       </c>
       <c r="AQ59" s="15">
-        <v>758361</v>
+        <v>831184</v>
       </c>
       <c r="AR59" s="15">
-        <v>402689</v>
+        <v>692511</v>
       </c>
       <c r="AS59" s="15">
-        <v>831184</v>
+        <v>97722</v>
       </c>
       <c r="AT59" s="15">
-        <v>692511</v>
+        <v>130894</v>
       </c>
       <c r="AU59" s="15">
-        <v>97722</v>
+        <v>122812</v>
       </c>
       <c r="AV59" s="15">
-        <v>130894</v>
+        <v>334051</v>
       </c>
       <c r="AW59" s="15">
-        <v>122812</v>
+        <v>600379</v>
       </c>
       <c r="AX59" s="15">
-        <v>334051</v>
+        <v>184395</v>
       </c>
       <c r="AY59" s="15">
-        <v>600379</v>
+        <v>106213</v>
       </c>
       <c r="AZ59" s="15">
-        <v>184395</v>
+        <v>20680</v>
       </c>
       <c r="BA59" s="15">
-        <v>106213</v>
+        <v>81828</v>
       </c>
       <c r="BB59" s="15">
-        <v>20680</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
         <v>80</v>
       </c>
@@ -7711,7 +7711,7 @@
       <c r="BA60" s="9"/>
       <c r="BB60" s="9"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
@@ -7800,11 +7800,11 @@
       <c r="AE61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG61" s="11" t="s">
-        <v>58</v>
+      <c r="AF61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="11">
+        <v>0</v>
       </c>
       <c r="AH61" s="11">
         <v>0</v>
@@ -7822,55 +7822,55 @@
         <v>0</v>
       </c>
       <c r="AM61" s="11">
-        <v>0</v>
+        <v>300977</v>
       </c>
       <c r="AN61" s="11">
         <v>0</v>
       </c>
       <c r="AO61" s="11">
-        <v>300977</v>
+        <v>0</v>
       </c>
       <c r="AP61" s="11">
         <v>0</v>
       </c>
       <c r="AQ61" s="11">
-        <v>0</v>
+        <v>172699</v>
       </c>
       <c r="AR61" s="11">
         <v>0</v>
       </c>
       <c r="AS61" s="11">
-        <v>172699</v>
+        <v>214709</v>
       </c>
       <c r="AT61" s="11">
         <v>0</v>
       </c>
       <c r="AU61" s="11">
-        <v>214709</v>
+        <v>0</v>
       </c>
       <c r="AV61" s="11">
         <v>0</v>
       </c>
       <c r="AW61" s="11">
-        <v>0</v>
+        <v>654439</v>
       </c>
       <c r="AX61" s="11">
         <v>0</v>
       </c>
       <c r="AY61" s="11">
-        <v>654439</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="11">
-        <v>0</v>
+        <v>13671</v>
       </c>
       <c r="BA61" s="11">
         <v>0</v>
       </c>
       <c r="BB61" s="11">
-        <v>13671</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>60</v>
       </c>
@@ -7956,14 +7956,14 @@
       <c r="AD62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF62" s="13" t="s">
-        <v>58</v>
+      <c r="AE62" s="13">
+        <v>612056</v>
+      </c>
+      <c r="AF62" s="13">
+        <v>0</v>
       </c>
       <c r="AG62" s="13">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="AH62" s="13">
         <v>0</v>
@@ -7975,13 +7975,13 @@
         <v>0</v>
       </c>
       <c r="AK62" s="13">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="AL62" s="13">
         <v>0</v>
       </c>
       <c r="AM62" s="13">
-        <v>20634</v>
+        <v>0</v>
       </c>
       <c r="AN62" s="13">
         <v>0</v>
@@ -7990,13 +7990,13 @@
         <v>0</v>
       </c>
       <c r="AP62" s="13">
-        <v>0</v>
+        <v>461637</v>
       </c>
       <c r="AQ62" s="13">
         <v>0</v>
       </c>
       <c r="AR62" s="13">
-        <v>461637</v>
+        <v>0</v>
       </c>
       <c r="AS62" s="13">
         <v>0</v>
@@ -8011,25 +8011,25 @@
         <v>0</v>
       </c>
       <c r="AW62" s="13">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="AX62" s="13">
-        <v>0</v>
+        <v>435521</v>
       </c>
       <c r="AY62" s="13">
-        <v>857115</v>
+        <v>214500</v>
       </c>
       <c r="AZ62" s="13">
-        <v>435521</v>
+        <v>108141</v>
       </c>
       <c r="BA62" s="13">
-        <v>214500</v>
+        <v>389640</v>
       </c>
       <c r="BB62" s="13">
-        <v>108141</v>
+        <v>68187</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="16" t="s">
         <v>74</v>
       </c>
@@ -8114,13 +8114,13 @@
         <v>0</v>
       </c>
       <c r="AE63" s="17">
-        <v>0</v>
+        <v>612056</v>
       </c>
       <c r="AF63" s="17">
         <v>0</v>
       </c>
       <c r="AG63" s="17">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="AH63" s="17">
         <v>0</v>
@@ -8132,61 +8132,61 @@
         <v>0</v>
       </c>
       <c r="AK63" s="17">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="AL63" s="17">
         <v>0</v>
       </c>
       <c r="AM63" s="17">
-        <v>20634</v>
+        <v>300977</v>
       </c>
       <c r="AN63" s="17">
         <v>0</v>
       </c>
       <c r="AO63" s="17">
-        <v>300977</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="17">
-        <v>0</v>
+        <v>461637</v>
       </c>
       <c r="AQ63" s="17">
-        <v>0</v>
+        <v>172699</v>
       </c>
       <c r="AR63" s="17">
-        <v>461637</v>
+        <v>0</v>
       </c>
       <c r="AS63" s="17">
-        <v>172699</v>
+        <v>214709</v>
       </c>
       <c r="AT63" s="17">
         <v>0</v>
       </c>
       <c r="AU63" s="17">
-        <v>214709</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="17">
         <v>0</v>
       </c>
       <c r="AW63" s="17">
-        <v>0</v>
+        <v>1511554</v>
       </c>
       <c r="AX63" s="17">
-        <v>0</v>
+        <v>435521</v>
       </c>
       <c r="AY63" s="17">
-        <v>1511554</v>
+        <v>214500</v>
       </c>
       <c r="AZ63" s="17">
-        <v>435521</v>
+        <v>121812</v>
       </c>
       <c r="BA63" s="17">
-        <v>214500</v>
+        <v>389640</v>
       </c>
       <c r="BB63" s="17">
-        <v>121812</v>
+        <v>68187</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>81</v>
       </c>
@@ -8243,7 +8243,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>67</v>
       </c>
@@ -8305,59 +8305,59 @@
       <c r="V65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="W65" s="11">
+        <v>0</v>
+      </c>
+      <c r="X65" s="11">
+        <v>0</v>
       </c>
       <c r="Y65" s="11">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="Z65" s="11">
-        <v>0</v>
+        <v>96685</v>
       </c>
       <c r="AA65" s="11">
-        <v>157463</v>
+        <v>0</v>
       </c>
       <c r="AB65" s="11">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="AC65" s="11">
         <v>0</v>
       </c>
       <c r="AD65" s="11">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AE65" s="11">
-        <v>0</v>
+        <v>1217</v>
       </c>
       <c r="AF65" s="11">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="AG65" s="11">
-        <v>1217</v>
+        <v>87094</v>
       </c>
       <c r="AH65" s="11">
         <v>0</v>
       </c>
       <c r="AI65" s="11">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="11">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AK65" s="11">
         <v>0</v>
       </c>
       <c r="AL65" s="11">
-        <v>222580</v>
+        <v>137445</v>
       </c>
       <c r="AM65" s="11">
         <v>0</v>
       </c>
       <c r="AN65" s="11">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AO65" s="11">
         <v>0</v>
@@ -8366,43 +8366,43 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="11">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AR65" s="11">
         <v>0</v>
       </c>
       <c r="AS65" s="11">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="11">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AU65" s="11">
         <v>0</v>
       </c>
       <c r="AV65" s="11">
-        <v>280368</v>
+        <v>70114</v>
       </c>
       <c r="AW65" s="11">
-        <v>0</v>
+        <v>83929</v>
       </c>
       <c r="AX65" s="11">
-        <v>70114</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="11">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="11">
-        <v>0</v>
+        <v>76992</v>
       </c>
       <c r="BA65" s="11">
         <v>0</v>
       </c>
       <c r="BB65" s="11">
-        <v>76992</v>
+        <v>172695</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>68</v>
       </c>
@@ -8464,59 +8464,59 @@
       <c r="V66" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="15" t="s">
-        <v>58</v>
+      <c r="W66" s="15">
+        <v>0</v>
+      </c>
+      <c r="X66" s="15">
+        <v>0</v>
       </c>
       <c r="Y66" s="15">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="Z66" s="15">
-        <v>0</v>
+        <v>96685</v>
       </c>
       <c r="AA66" s="15">
-        <v>157463</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="15">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="AC66" s="15">
         <v>0</v>
       </c>
       <c r="AD66" s="15">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AE66" s="15">
-        <v>0</v>
+        <v>1217</v>
       </c>
       <c r="AF66" s="15">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="15">
-        <v>1217</v>
+        <v>87094</v>
       </c>
       <c r="AH66" s="15">
         <v>0</v>
       </c>
       <c r="AI66" s="15">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="15">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AK66" s="15">
         <v>0</v>
       </c>
       <c r="AL66" s="15">
-        <v>222580</v>
+        <v>137445</v>
       </c>
       <c r="AM66" s="15">
         <v>0</v>
       </c>
       <c r="AN66" s="15">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="15">
         <v>0</v>
@@ -8525,43 +8525,43 @@
         <v>0</v>
       </c>
       <c r="AQ66" s="15">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AR66" s="15">
         <v>0</v>
       </c>
       <c r="AS66" s="15">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="15">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AU66" s="15">
         <v>0</v>
       </c>
       <c r="AV66" s="15">
-        <v>280368</v>
+        <v>70114</v>
       </c>
       <c r="AW66" s="15">
-        <v>0</v>
+        <v>83929</v>
       </c>
       <c r="AX66" s="15">
-        <v>70114</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="15">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="15">
-        <v>0</v>
+        <v>76992</v>
       </c>
       <c r="BA66" s="15">
         <v>0</v>
       </c>
       <c r="BB66" s="15">
-        <v>76992</v>
+        <v>172695</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>82</v>
       </c>
@@ -8618,7 +8618,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>62</v>
       </c>
@@ -8680,11 +8680,11 @@
       <c r="V68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="11" t="s">
-        <v>58</v>
+      <c r="W68" s="11">
+        <v>0</v>
+      </c>
+      <c r="X68" s="11">
+        <v>0</v>
       </c>
       <c r="Y68" s="11">
         <v>0</v>
@@ -8707,14 +8707,14 @@
       <c r="AE68" s="11">
         <v>0</v>
       </c>
-      <c r="AF68" s="11">
-        <v>0</v>
+      <c r="AF68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG68" s="11">
         <v>0</v>
       </c>
-      <c r="AH68" s="11" t="s">
-        <v>58</v>
+      <c r="AH68" s="11">
+        <v>0</v>
       </c>
       <c r="AI68" s="11">
         <v>0</v>
@@ -8743,11 +8743,11 @@
       <c r="AQ68" s="11">
         <v>0</v>
       </c>
-      <c r="AR68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS68" s="11">
-        <v>0</v>
+      <c r="AR68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT68" s="11" t="s">
         <v>58</v>
@@ -8767,17 +8767,17 @@
       <c r="AY68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA68" s="11" t="s">
-        <v>58</v>
+      <c r="AZ68" s="11">
+        <v>-4850</v>
+      </c>
+      <c r="BA68" s="11">
+        <v>0</v>
       </c>
       <c r="BB68" s="11">
-        <v>-4850</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>76</v>
       </c>
@@ -8839,11 +8839,11 @@
       <c r="V69" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="15" t="s">
-        <v>58</v>
+      <c r="W69" s="15">
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
+        <v>0</v>
       </c>
       <c r="Y69" s="15">
         <v>0</v>
@@ -8927,16 +8927,16 @@
         <v>0</v>
       </c>
       <c r="AZ69" s="15">
-        <v>0</v>
+        <v>-4850</v>
       </c>
       <c r="BA69" s="15">
         <v>0</v>
       </c>
       <c r="BB69" s="15">
-        <v>-4850</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>83</v>
       </c>
@@ -8993,7 +8993,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>84</v>
       </c>
@@ -9055,11 +9055,11 @@
       <c r="V71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>58</v>
+      <c r="W71" s="11">
+        <v>0</v>
+      </c>
+      <c r="X71" s="11">
+        <v>0</v>
       </c>
       <c r="Y71" s="11">
         <v>0</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>69</v>
       </c>
@@ -9213,103 +9213,103 @@
         <v>0</v>
       </c>
       <c r="W72" s="15">
-        <v>0</v>
+        <v>171298</v>
       </c>
       <c r="X72" s="15">
-        <v>0</v>
+        <v>159058</v>
       </c>
       <c r="Y72" s="15">
-        <v>171298</v>
+        <v>225877</v>
       </c>
       <c r="Z72" s="15">
-        <v>159058</v>
+        <v>152377</v>
       </c>
       <c r="AA72" s="15">
-        <v>225877</v>
+        <v>222743</v>
       </c>
       <c r="AB72" s="15">
-        <v>152377</v>
+        <v>276733</v>
       </c>
       <c r="AC72" s="15">
-        <v>222743</v>
+        <v>324876</v>
       </c>
       <c r="AD72" s="15">
-        <v>276733</v>
+        <v>911696</v>
       </c>
       <c r="AE72" s="15">
-        <v>324876</v>
+        <v>1430275</v>
       </c>
       <c r="AF72" s="15">
-        <v>911696</v>
+        <v>301726</v>
       </c>
       <c r="AG72" s="15">
-        <v>1430275</v>
+        <v>383398</v>
       </c>
       <c r="AH72" s="15">
-        <v>301726</v>
+        <v>410281</v>
       </c>
       <c r="AI72" s="15">
-        <v>383398</v>
+        <v>435851</v>
       </c>
       <c r="AJ72" s="15">
-        <v>410281</v>
+        <v>527350</v>
       </c>
       <c r="AK72" s="15">
-        <v>435851</v>
+        <v>1201022</v>
       </c>
       <c r="AL72" s="15">
-        <v>527350</v>
+        <v>217190</v>
       </c>
       <c r="AM72" s="15">
-        <v>1201022</v>
+        <v>311968</v>
       </c>
       <c r="AN72" s="15">
-        <v>217190</v>
+        <v>519982</v>
       </c>
       <c r="AO72" s="15">
-        <v>311968</v>
+        <v>758361</v>
       </c>
       <c r="AP72" s="15">
-        <v>519982</v>
+        <v>864326</v>
       </c>
       <c r="AQ72" s="15">
-        <v>758361</v>
+        <v>1147492</v>
       </c>
       <c r="AR72" s="15">
-        <v>864326</v>
+        <v>692511</v>
       </c>
       <c r="AS72" s="15">
-        <v>1147492</v>
+        <v>312431</v>
       </c>
       <c r="AT72" s="15">
-        <v>692511</v>
+        <v>411262</v>
       </c>
       <c r="AU72" s="15">
-        <v>312431</v>
+        <v>122812</v>
       </c>
       <c r="AV72" s="15">
-        <v>411262</v>
+        <v>404165</v>
       </c>
       <c r="AW72" s="15">
-        <v>122812</v>
+        <v>2195862</v>
       </c>
       <c r="AX72" s="15">
-        <v>404165</v>
+        <v>619916</v>
       </c>
       <c r="AY72" s="15">
-        <v>2195862</v>
+        <v>320713</v>
       </c>
       <c r="AZ72" s="15">
-        <v>619916</v>
+        <v>214634</v>
       </c>
       <c r="BA72" s="15">
-        <v>320713</v>
+        <v>471468</v>
       </c>
       <c r="BB72" s="15">
-        <v>214634</v>
+        <v>240882</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9364,7 +9364,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9419,7 +9419,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9474,7 +9474,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B76" s="7" t="s">
         <v>85</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -9686,7 +9686,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
         <v>86</v>
       </c>
@@ -9743,7 +9743,7 @@
       <c r="BA78" s="9"/>
       <c r="BB78" s="9"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>56</v>
       </c>
@@ -9811,14 +9811,14 @@
       <c r="X79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
+      <c r="Y79" s="11">
+        <v>525160000</v>
       </c>
       <c r="Z79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA79" s="11">
-        <v>525160000</v>
+      <c r="AA79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AB79" s="11" t="s">
         <v>58</v>
@@ -9844,32 +9844,32 @@
       <c r="AI79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK79" s="11" t="s">
-        <v>58</v>
+      <c r="AJ79" s="11">
+        <v>636734694</v>
+      </c>
+      <c r="AK79" s="11">
+        <v>645736597</v>
       </c>
       <c r="AL79" s="11">
-        <v>636734694</v>
+        <v>653647541</v>
       </c>
       <c r="AM79" s="11">
-        <v>645736597</v>
+        <v>732733333</v>
       </c>
       <c r="AN79" s="11">
-        <v>653647541</v>
-      </c>
-      <c r="AO79" s="11">
-        <v>732733333</v>
+        <v>699239852</v>
+      </c>
+      <c r="AO79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP79" s="11">
-        <v>699239852</v>
+        <v>878090000</v>
       </c>
       <c r="AQ79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR79" s="11">
-        <v>878090000</v>
+      <c r="AR79" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS79" s="11" t="s">
         <v>58</v>
@@ -9892,17 +9892,17 @@
       <c r="AY79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ79" s="11" t="s">
-        <v>58</v>
+      <c r="AZ79" s="11">
+        <v>1292500000</v>
       </c>
       <c r="BA79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB79" s="11">
-        <v>1292500000</v>
+      <c r="BB79" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>59</v>
       </c>
@@ -9967,14 +9967,14 @@
       <c r="W80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X80" s="13" t="s">
-        <v>58</v>
+      <c r="X80" s="13">
+        <v>408241379</v>
       </c>
       <c r="Y80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z80" s="13">
-        <v>408241379</v>
+      <c r="Z80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA80" s="13" t="s">
         <v>58</v>
@@ -9988,14 +9988,14 @@
       <c r="AD80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE80" s="13" t="s">
-        <v>58</v>
+      <c r="AE80" s="13">
+        <v>526950311</v>
       </c>
       <c r="AF80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG80" s="13">
-        <v>526950311</v>
+      <c r="AG80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH80" s="13" t="s">
         <v>58</v>
@@ -10006,30 +10006,30 @@
       <c r="AJ80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK80" s="13" t="s">
-        <v>58</v>
+      <c r="AK80" s="13">
+        <v>698631579</v>
       </c>
       <c r="AL80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM80" s="13">
-        <v>698631579</v>
+      <c r="AM80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ80" s="13">
+      <c r="AO80" s="13">
         <v>649097561</v>
       </c>
-      <c r="AR80" s="13">
+      <c r="AP80" s="13">
         <v>540128205</v>
       </c>
+      <c r="AQ80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS80" s="13" t="s">
         <v>58</v>
       </c>
@@ -10042,18 +10042,18 @@
       <c r="AV80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY80" s="13">
+      <c r="AW80" s="13">
         <v>334014286</v>
       </c>
-      <c r="AZ80" s="13">
+      <c r="AX80" s="13">
         <v>351076923</v>
       </c>
+      <c r="AY80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="BA80" s="13" t="s">
         <v>58</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>60</v>
       </c>
@@ -10144,14 +10144,14 @@
       <c r="AC81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD81" s="11" t="s">
-        <v>58</v>
+      <c r="AD81" s="11">
+        <v>170008333</v>
       </c>
       <c r="AE81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF81" s="11">
-        <v>170008333</v>
+      <c r="AF81" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG81" s="11" t="s">
         <v>58</v>
@@ -10220,7 +10220,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>61</v>
       </c>
@@ -10285,44 +10285,44 @@
       <c r="W82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z82" s="13">
+      <c r="X82" s="13">
         <v>163590551</v>
       </c>
-      <c r="AA82" s="13">
+      <c r="Y82" s="13">
         <v>201053571</v>
       </c>
+      <c r="Z82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AB82" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AC82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF82" s="13">
+      <c r="AD82" s="13">
         <v>275528455</v>
       </c>
-      <c r="AG82" s="13">
+      <c r="AE82" s="13">
         <v>312672065</v>
       </c>
-      <c r="AH82" s="13" t="s">
-        <v>58</v>
+      <c r="AF82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH82" s="13">
+        <v>286697044</v>
       </c>
       <c r="AI82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ82" s="13">
-        <v>286697044</v>
+      <c r="AJ82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK82" s="13" t="s">
         <v>58</v>
@@ -10336,42 +10336,42 @@
       <c r="AN82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO82" s="13" t="s">
-        <v>58</v>
+      <c r="AO82" s="13">
+        <v>360058824</v>
       </c>
       <c r="AP82" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AQ82" s="13">
-        <v>360058824</v>
+        <v>299642105</v>
       </c>
       <c r="AR82" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS82" s="13">
-        <v>299642105</v>
+        <v>294487500</v>
+      </c>
+      <c r="AS82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT82" s="13">
-        <v>294487500</v>
+        <v>249750000</v>
       </c>
       <c r="AU82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV82" s="13">
-        <v>249750000</v>
-      </c>
-      <c r="AW82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY82" s="13">
+      <c r="AV82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW82" s="13">
         <v>226964706</v>
       </c>
-      <c r="AZ82" s="13">
+      <c r="AX82" s="13">
         <v>227647059</v>
       </c>
+      <c r="AY82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ82" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="BA82" s="13" t="s">
         <v>58</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>62</v>
       </c>
@@ -10441,104 +10441,104 @@
       <c r="V83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>58</v>
+      <c r="W83" s="11">
+        <v>37931355</v>
+      </c>
+      <c r="X83" s="11">
+        <v>28768582</v>
       </c>
       <c r="Y83" s="11">
-        <v>37931355</v>
+        <v>41480198</v>
       </c>
       <c r="Z83" s="11">
-        <v>28768582</v>
+        <v>42415842</v>
       </c>
       <c r="AA83" s="11">
-        <v>41480198</v>
+        <v>110487599</v>
       </c>
       <c r="AB83" s="11">
-        <v>42415842</v>
+        <v>100593602</v>
       </c>
       <c r="AC83" s="11">
-        <v>110487599</v>
+        <v>54191159</v>
       </c>
       <c r="AD83" s="11">
-        <v>100593602</v>
+        <v>68851559</v>
       </c>
       <c r="AE83" s="11">
-        <v>54191159</v>
+        <v>78004726</v>
       </c>
       <c r="AF83" s="11">
-        <v>68851559</v>
+        <v>87330246</v>
       </c>
       <c r="AG83" s="11">
-        <v>78004726</v>
+        <v>91649861</v>
       </c>
       <c r="AH83" s="11">
-        <v>87330246</v>
+        <v>101900832</v>
       </c>
       <c r="AI83" s="11">
-        <v>91649861</v>
+        <v>104021718</v>
       </c>
       <c r="AJ83" s="11">
-        <v>101900832</v>
+        <v>86655052</v>
       </c>
       <c r="AK83" s="11">
-        <v>104021718</v>
-      </c>
-      <c r="AL83" s="11">
-        <v>86655052</v>
-      </c>
-      <c r="AM83" s="11">
         <v>96953203</v>
       </c>
-      <c r="AN83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO83" s="11" t="s">
-        <v>58</v>
+      <c r="AL83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM83" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN83" s="11">
+        <v>88153641</v>
+      </c>
+      <c r="AO83" s="11">
+        <v>92362275</v>
       </c>
       <c r="AP83" s="11">
-        <v>88153641</v>
+        <v>116132411</v>
       </c>
       <c r="AQ83" s="11">
-        <v>92362275</v>
+        <v>156477769</v>
       </c>
       <c r="AR83" s="11">
-        <v>116132411</v>
+        <v>153555318</v>
       </c>
       <c r="AS83" s="11">
-        <v>156477769</v>
+        <v>81097095</v>
       </c>
       <c r="AT83" s="11">
-        <v>153555318</v>
+        <v>71412680</v>
       </c>
       <c r="AU83" s="11">
-        <v>81097095</v>
+        <v>56027372</v>
       </c>
       <c r="AV83" s="11">
-        <v>71412680</v>
+        <v>115468718</v>
       </c>
       <c r="AW83" s="11">
-        <v>56027372</v>
+        <v>119833964</v>
       </c>
       <c r="AX83" s="11">
-        <v>115468718</v>
+        <v>123481404</v>
       </c>
       <c r="AY83" s="11">
-        <v>119833964</v>
-      </c>
-      <c r="AZ83" s="11">
-        <v>123481404</v>
+        <v>64922372</v>
+      </c>
+      <c r="AZ83" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA83" s="11">
-        <v>64922372</v>
+        <v>84012320</v>
       </c>
       <c r="BB83" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>88</v>
       </c>
@@ -10595,7 +10595,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
@@ -10705,56 +10705,56 @@
       <c r="AL85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM85" s="11" t="s">
-        <v>58</v>
+      <c r="AM85" s="11">
+        <v>750566085</v>
       </c>
       <c r="AN85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO85" s="11">
-        <v>750566085</v>
+      <c r="AO85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR85" s="11">
-        <v>0</v>
+      <c r="AQ85" s="11">
+        <v>885635897</v>
+      </c>
+      <c r="AR85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS85" s="11">
-        <v>885635897</v>
+        <v>872800813</v>
       </c>
       <c r="AT85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU85" s="11">
-        <v>872800813</v>
+      <c r="AU85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW85" s="11" t="s">
-        <v>58</v>
+      <c r="AW85" s="11">
+        <v>844437419</v>
       </c>
       <c r="AX85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY85" s="11">
-        <v>844437419</v>
-      </c>
-      <c r="AZ85" s="11" t="s">
-        <v>58</v>
+      <c r="AY85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ85" s="11">
+        <v>854437500</v>
       </c>
       <c r="BA85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB85" s="11">
-        <v>854437500</v>
+      <c r="BB85" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>60</v>
       </c>
@@ -10840,14 +10840,14 @@
       <c r="AD86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE86" s="13" t="s">
-        <v>58</v>
+      <c r="AE86" s="13">
+        <v>111893236</v>
       </c>
       <c r="AF86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG86" s="13">
-        <v>111893236</v>
+      <c r="AG86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH86" s="13" t="s">
         <v>58</v>
@@ -10858,14 +10858,14 @@
       <c r="AJ86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK86" s="13" t="s">
-        <v>58</v>
+      <c r="AK86" s="13">
+        <v>112141304</v>
       </c>
       <c r="AL86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM86" s="13">
-        <v>112141304</v>
+      <c r="AM86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN86" s="13" t="s">
         <v>58</v>
@@ -10873,14 +10873,14 @@
       <c r="AO86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP86" s="13" t="s">
-        <v>58</v>
+      <c r="AP86" s="13">
+        <v>84394333</v>
       </c>
       <c r="AQ86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR86" s="13">
-        <v>84394333</v>
+      <c r="AR86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS86" s="13" t="s">
         <v>58</v>
@@ -10894,26 +10894,26 @@
       <c r="AV86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX86" s="13" t="s">
-        <v>58</v>
+      <c r="AW86" s="13">
+        <v>199329070</v>
+      </c>
+      <c r="AX86" s="13">
+        <v>174208400</v>
       </c>
       <c r="AY86" s="13">
-        <v>199329070</v>
+        <v>165000000</v>
       </c>
       <c r="AZ86" s="13">
-        <v>174208400</v>
+        <v>207166667</v>
       </c>
       <c r="BA86" s="13">
-        <v>165000000</v>
+        <v>194820000</v>
       </c>
       <c r="BB86" s="13">
-        <v>207166667</v>
+        <v>194820000</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>89</v>
       </c>
@@ -10970,7 +10970,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>67</v>
       </c>
@@ -11032,59 +11032,59 @@
       <c r="V88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="11" t="s">
-        <v>58</v>
+      <c r="W88" s="11">
+        <v>0</v>
+      </c>
+      <c r="X88" s="11">
+        <v>0</v>
       </c>
       <c r="Y88" s="11">
-        <v>0</v>
+        <v>4546617</v>
       </c>
       <c r="Z88" s="11">
-        <v>0</v>
+        <v>7932803</v>
       </c>
       <c r="AA88" s="11">
-        <v>4546617</v>
+        <v>0</v>
       </c>
       <c r="AB88" s="11">
-        <v>7932803</v>
+        <v>0</v>
       </c>
       <c r="AC88" s="11">
         <v>0</v>
       </c>
       <c r="AD88" s="11">
-        <v>0</v>
+        <v>4296524</v>
       </c>
       <c r="AE88" s="11">
-        <v>0</v>
+        <v>4300353</v>
       </c>
       <c r="AF88" s="11">
-        <v>4296524</v>
+        <v>0</v>
       </c>
       <c r="AG88" s="11">
-        <v>4300353</v>
+        <v>8400270</v>
       </c>
       <c r="AH88" s="11">
         <v>0</v>
       </c>
       <c r="AI88" s="11">
-        <v>8400270</v>
+        <v>0</v>
       </c>
       <c r="AJ88" s="11">
-        <v>0</v>
+        <v>9174773</v>
       </c>
       <c r="AK88" s="11">
         <v>0</v>
       </c>
       <c r="AL88" s="11">
-        <v>9174773</v>
+        <v>11000000</v>
       </c>
       <c r="AM88" s="11">
         <v>0</v>
       </c>
       <c r="AN88" s="11">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="AO88" s="11">
         <v>0</v>
@@ -11093,40 +11093,40 @@
         <v>0</v>
       </c>
       <c r="AQ88" s="11">
-        <v>0</v>
+        <v>11000306</v>
       </c>
       <c r="AR88" s="11">
         <v>0</v>
       </c>
       <c r="AS88" s="11">
-        <v>11000306</v>
+        <v>0</v>
       </c>
       <c r="AT88" s="11">
-        <v>0</v>
+        <v>14000200</v>
       </c>
       <c r="AU88" s="11">
         <v>0</v>
       </c>
       <c r="AV88" s="11">
-        <v>14000200</v>
+        <v>14000399</v>
       </c>
       <c r="AW88" s="11">
-        <v>0</v>
+        <v>13999833</v>
       </c>
       <c r="AX88" s="11">
-        <v>14000399</v>
+        <v>0</v>
       </c>
       <c r="AY88" s="11">
-        <v>13999833</v>
+        <v>0</v>
       </c>
       <c r="AZ88" s="11">
-        <v>0</v>
+        <v>14001091</v>
       </c>
       <c r="BA88" s="11">
         <v>0</v>
       </c>
       <c r="BB88" s="11">
-        <v>14001091</v>
+        <v>15000000</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/felezat/kimia/product/monthly_seprated.xlsx
+++ b/database/industries/felezat/kimia/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="90">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -119,7 +119,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -159,7 +159,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -199,7 +199,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -239,7 +239,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -279,7 +279,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -319,7 +319,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -359,7 +359,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -399,7 +399,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -439,7 +439,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -479,7 +479,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -519,7 +519,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -559,7 +559,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -599,7 +599,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -639,7 +639,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -679,7 +679,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -719,7 +719,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -759,7 +759,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -799,7 +799,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -839,7 +839,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -879,7 +879,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -919,7 +919,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -959,7 +959,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -999,7 +999,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1039,7 +1039,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1079,7 +1079,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1119,7 +1119,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1159,7 +1159,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1199,7 +1199,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1239,7 +1239,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1279,7 +1279,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1319,7 +1319,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1359,7 +1359,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1399,7 +1399,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1439,7 +1439,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1479,7 +1479,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1519,7 +1519,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1559,7 +1559,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1599,7 +1599,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1639,7 +1639,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1679,7 +1679,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1719,7 +1719,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1759,7 +1759,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1799,7 +1799,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1839,7 +1839,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1879,7 +1879,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1919,7 +1919,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1959,7 +1959,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1999,7 +1999,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2039,7 +2039,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2079,7 +2079,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3313,8 +3313,8 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V11" s="13" t="n">
         <v>0</v>
@@ -3346,35 +3346,35 @@
       <c r="AE11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AF11" s="13" t="n">
-        <v>0</v>
+      <c r="AF11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH11" s="13" t="s">
-        <v>58</v>
+      <c r="AH11" s="13" t="n">
+        <v>210</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>268</v>
+        <v>122</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>122</v>
+        <v>538</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>538</v>
+        <v>689</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>689</v>
-      </c>
-      <c r="AN11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP11" s="13" t="n">
         <v>0</v>
@@ -3472,41 +3472,41 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>107</v>
-      </c>
-      <c r="AF12" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AG12" s="16" t="s">
         <v>58</v>
@@ -3514,20 +3514,20 @@
       <c r="AH12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI12" s="16" t="s">
-        <v>58</v>
+      <c r="AI12" s="16" t="n">
+        <v>224</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="AL12" s="16" t="n">
         <v>22</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="16" t="n">
         <v>0</v>
@@ -3539,34 +3539,34 @@
         <v>0</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="16" t="n">
         <v>0</v>
@@ -3631,41 +3631,41 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V13" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>626</v>
+        <v>2091</v>
       </c>
       <c r="Y13" s="13" t="n">
         <v>2091</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>2091</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>0</v>
+        <v>1858</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>1858</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>483</v>
+        <v>558</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>558</v>
-      </c>
-      <c r="AF13" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG13" s="13" t="s">
         <v>58</v>
@@ -3673,65 +3673,65 @@
       <c r="AH13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI13" s="13" t="s">
-        <v>58</v>
+      <c r="AI13" s="13" t="n">
+        <v>940</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>940</v>
+        <v>580</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>580</v>
+        <v>103</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>364</v>
+        <v>84</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>213</v>
+        <v>1121</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>1121</v>
+        <v>446</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>271</v>
+        <v>1229</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>1229</v>
+        <v>1288</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>1288</v>
+        <v>873</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>866</v>
+        <v>604</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>604</v>
+        <v>1957</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>1957</v>
+        <v>351</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>351</v>
+        <v>4500</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>4500</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3790,107 +3790,107 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>85</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>85</v>
+        <v>212</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="X14" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="AB14" s="16" t="n">
+        <v>460</v>
+      </c>
+      <c r="AC14" s="16" t="n">
+        <v>218</v>
+      </c>
+      <c r="AD14" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="AC14" s="16" t="n">
-        <v>460</v>
-      </c>
-      <c r="AD14" s="16" t="n">
-        <v>218</v>
-      </c>
       <c r="AE14" s="16" t="n">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="AF14" s="16" t="n">
+        <v>155</v>
+      </c>
+      <c r="AG14" s="16" t="n">
+        <v>187</v>
+      </c>
+      <c r="AH14" s="16" t="n">
+        <v>174</v>
+      </c>
+      <c r="AI14" s="16" t="n">
+        <v>276</v>
+      </c>
+      <c r="AJ14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="16" t="n">
+        <v>145</v>
+      </c>
+      <c r="AM14" s="16" t="n">
+        <v>470</v>
+      </c>
+      <c r="AN14" s="16" t="n">
+        <v>366</v>
+      </c>
+      <c r="AO14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="16" t="n">
+        <v>108</v>
+      </c>
+      <c r="AQ14" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="AG14" s="16" t="n">
-        <v>155</v>
-      </c>
-      <c r="AH14" s="16" t="n">
-        <v>187</v>
-      </c>
-      <c r="AI14" s="16" t="n">
-        <v>174</v>
-      </c>
-      <c r="AJ14" s="16" t="n">
-        <v>276</v>
-      </c>
-      <c r="AK14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="16" t="n">
-        <v>145</v>
-      </c>
-      <c r="AN14" s="16" t="n">
-        <v>470</v>
-      </c>
-      <c r="AO14" s="16" t="n">
-        <v>366</v>
-      </c>
-      <c r="AP14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="16" t="n">
-        <v>108</v>
-      </c>
       <c r="AR14" s="16" t="n">
-        <v>109</v>
+        <v>306</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>306</v>
+        <v>189</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="AZ14" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3949,107 +3949,107 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+      <c r="U15" s="13" t="n">
+        <v>3654</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>3654</v>
+        <v>1150</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>1150</v>
+        <v>571</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>571</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>0</v>
+        <v>3382</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>3382</v>
+        <v>2732</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>2732</v>
+        <v>5532</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>5532</v>
+        <v>9254</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>9254</v>
+        <v>9021</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>9021</v>
+        <v>3122</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>3122</v>
+        <v>3127</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>3127</v>
+        <v>3596</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>3596</v>
+        <v>4363</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>4363</v>
+        <v>4027</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>4027</v>
+        <v>9373</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>9373</v>
+        <v>3271</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>3271</v>
+        <v>646</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>646</v>
+        <v>758</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>758</v>
+        <v>1866</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>1866</v>
+        <v>3050</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>3050</v>
+        <v>4602</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>4602</v>
+        <v>3982</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>3982</v>
+        <v>2418</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>2418</v>
+        <v>3872</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>3872</v>
+        <v>1784</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>1784</v>
+        <v>1147</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>1147</v>
+        <v>7063</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>7063</v>
+        <v>954</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>954</v>
+        <v>1676</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>1676</v>
+        <v>1045</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>1045</v>
+        <v>180</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>180</v>
+        <v>446</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>446</v>
+        <v>6880</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>6880</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,106 +4107,106 @@
         <v>0</v>
       </c>
       <c r="U16" s="18" t="n">
-        <v>0</v>
+        <v>3739</v>
       </c>
       <c r="V16" s="18" t="n">
-        <v>3739</v>
+        <v>1402</v>
       </c>
       <c r="W16" s="18" t="n">
-        <v>1402</v>
+        <v>1203</v>
       </c>
       <c r="X16" s="18" t="n">
-        <v>1203</v>
+        <v>2108</v>
       </c>
       <c r="Y16" s="18" t="n">
-        <v>2108</v>
+        <v>5697</v>
       </c>
       <c r="Z16" s="18" t="n">
-        <v>5697</v>
+        <v>2924</v>
       </c>
       <c r="AA16" s="18" t="n">
-        <v>2924</v>
+        <v>7473</v>
       </c>
       <c r="AB16" s="18" t="n">
-        <v>7473</v>
+        <v>9714</v>
       </c>
       <c r="AC16" s="18" t="n">
-        <v>9714</v>
+        <v>9913</v>
       </c>
       <c r="AD16" s="18" t="n">
-        <v>9913</v>
+        <v>3801</v>
       </c>
       <c r="AE16" s="18" t="n">
-        <v>3801</v>
+        <v>3236</v>
       </c>
       <c r="AF16" s="18" t="n">
-        <v>3236</v>
+        <v>3751</v>
       </c>
       <c r="AG16" s="18" t="n">
-        <v>3751</v>
+        <v>4550</v>
       </c>
       <c r="AH16" s="18" t="n">
-        <v>4550</v>
+        <v>4411</v>
       </c>
       <c r="AI16" s="18" t="n">
-        <v>4411</v>
+        <v>11081</v>
       </c>
       <c r="AJ16" s="18" t="n">
-        <v>11081</v>
+        <v>4051</v>
       </c>
       <c r="AK16" s="18" t="n">
-        <v>4051</v>
+        <v>1309</v>
       </c>
       <c r="AL16" s="18" t="n">
-        <v>1309</v>
+        <v>1689</v>
       </c>
       <c r="AM16" s="18" t="n">
-        <v>1689</v>
+        <v>2700</v>
       </c>
       <c r="AN16" s="18" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="AO16" s="18" t="n">
-        <v>3500</v>
+        <v>4702</v>
       </c>
       <c r="AP16" s="18" t="n">
-        <v>4702</v>
+        <v>4303</v>
       </c>
       <c r="AQ16" s="18" t="n">
-        <v>4303</v>
+        <v>3767</v>
       </c>
       <c r="AR16" s="18" t="n">
-        <v>3767</v>
+        <v>4727</v>
       </c>
       <c r="AS16" s="18" t="n">
-        <v>4727</v>
+        <v>2244</v>
       </c>
       <c r="AT16" s="18" t="n">
-        <v>2244</v>
+        <v>2578</v>
       </c>
       <c r="AU16" s="18" t="n">
-        <v>2578</v>
+        <v>8453</v>
       </c>
       <c r="AV16" s="18" t="n">
-        <v>8453</v>
+        <v>1975</v>
       </c>
       <c r="AW16" s="18" t="n">
-        <v>1975</v>
+        <v>2542</v>
       </c>
       <c r="AX16" s="18" t="n">
-        <v>2542</v>
+        <v>1721</v>
       </c>
       <c r="AY16" s="18" t="n">
-        <v>1721</v>
+        <v>2145</v>
       </c>
       <c r="AZ16" s="18" t="n">
-        <v>2145</v>
+        <v>797</v>
       </c>
       <c r="BA16" s="18" t="n">
-        <v>797</v>
+        <v>11386</v>
       </c>
       <c r="BB16" s="18" t="n">
-        <v>11386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4349,50 +4349,50 @@
       <c r="AC18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE18" s="13" t="n">
-        <v>0</v>
+      <c r="AD18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="13" t="s">
-        <v>58</v>
+      <c r="AG18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM18" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO18" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP18" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AQ18" s="13" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AR18" s="13" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="13" t="n">
         <v>0</v>
@@ -4401,28 +4401,28 @@
         <v>0</v>
       </c>
       <c r="AU18" s="13" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AV18" s="13" t="n">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AX18" s="13" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AY18" s="13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="13" t="n">
         <v>0</v>
       </c>
       <c r="BA18" s="13" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="BB18" s="13" t="n">
-        <v>591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,38 +4505,38 @@
       <c r="AB19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC19" s="16" t="s">
-        <v>58</v>
+      <c r="AC19" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AD19" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" s="16" t="n">
-        <v>0</v>
+      <c r="AE19" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL19" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="16" t="s">
-        <v>58</v>
+      <c r="AG19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM19" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN19" s="16" t="n">
         <v>0</v>
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
       <c r="AQ20" s="20" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AR20" s="20" t="n">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="20" t="n">
         <v>0</v>
@@ -4717,28 +4717,28 @@
         <v>0</v>
       </c>
       <c r="AU20" s="20" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AV20" s="20" t="n">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AW20" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AX20" s="20" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AY20" s="20" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AZ20" s="20" t="n">
         <v>0</v>
       </c>
       <c r="BA20" s="20" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="BB20" s="20" t="n">
-        <v>591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4854,20 +4854,20 @@
       <c r="T22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>58</v>
+      <c r="U22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="13" t="n">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="X22" s="13" t="n">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="Y22" s="13" t="n">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="13" t="n">
         <v>0</v>
@@ -4876,37 +4876,37 @@
         <v>0</v>
       </c>
       <c r="AB22" s="13" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AC22" s="13" t="n">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AD22" s="13" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="13" t="n">
         <v>10368</v>
       </c>
-      <c r="AG22" s="13" t="s">
-        <v>58</v>
+      <c r="AF22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AH22" s="13" t="n">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AI22" s="13" t="n">
-        <v>24260</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="13" t="n">
-        <v>0</v>
+        <v>12495</v>
       </c>
       <c r="AK22" s="13" t="n">
-        <v>12495</v>
-      </c>
-      <c r="AL22" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM22" s="13" t="s">
         <v>58</v>
@@ -4914,47 +4914,47 @@
       <c r="AN22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP22" s="13" t="n">
+      <c r="AO22" s="13" t="n">
         <v>13055</v>
       </c>
+      <c r="AP22" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS22" s="13" t="n">
+      <c r="AR22" s="13" t="n">
         <v>20026</v>
       </c>
-      <c r="AT22" s="13" t="s">
-        <v>58</v>
+      <c r="AS22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT22" s="13" t="n">
+        <v>5008</v>
       </c>
       <c r="AU22" s="13" t="n">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AV22" s="13" t="n">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="AW22" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AX22" s="13" t="n">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="AY22" s="13" t="n">
-        <v>5499</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="13" t="n">
-        <v>0</v>
+        <v>11513</v>
       </c>
       <c r="BA22" s="13" t="n">
-        <v>11513</v>
+        <v>14964</v>
       </c>
       <c r="BB22" s="13" t="n">
-        <v>14964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5011,8 +5011,8 @@
       <c r="T23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="18" t="s">
-        <v>58</v>
+      <c r="U23" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="18" t="n">
         <v>0</v>
@@ -5169,106 +5169,106 @@
         <v>0</v>
       </c>
       <c r="U24" s="20" t="n">
-        <v>0</v>
+        <v>3739</v>
       </c>
       <c r="V24" s="20" t="n">
-        <v>3739</v>
+        <v>1402</v>
       </c>
       <c r="W24" s="20" t="n">
-        <v>1402</v>
+        <v>35836</v>
       </c>
       <c r="X24" s="20" t="n">
-        <v>35836</v>
+        <v>14296</v>
       </c>
       <c r="Y24" s="20" t="n">
-        <v>14296</v>
+        <v>5697</v>
       </c>
       <c r="Z24" s="20" t="n">
-        <v>5697</v>
+        <v>2924</v>
       </c>
       <c r="AA24" s="20" t="n">
-        <v>2924</v>
+        <v>7473</v>
       </c>
       <c r="AB24" s="20" t="n">
-        <v>7473</v>
+        <v>10203</v>
       </c>
       <c r="AC24" s="20" t="n">
-        <v>10203</v>
+        <v>10196</v>
       </c>
       <c r="AD24" s="20" t="n">
-        <v>10196</v>
+        <v>3801</v>
       </c>
       <c r="AE24" s="20" t="n">
-        <v>3801</v>
+        <v>13604</v>
       </c>
       <c r="AF24" s="20" t="n">
-        <v>13604</v>
+        <v>3751</v>
       </c>
       <c r="AG24" s="20" t="n">
-        <v>3751</v>
+        <v>4550</v>
       </c>
       <c r="AH24" s="20" t="n">
-        <v>4550</v>
+        <v>28671</v>
       </c>
       <c r="AI24" s="20" t="n">
-        <v>28671</v>
+        <v>11081</v>
       </c>
       <c r="AJ24" s="20" t="n">
-        <v>11081</v>
+        <v>16546</v>
       </c>
       <c r="AK24" s="20" t="n">
-        <v>16546</v>
+        <v>1309</v>
       </c>
       <c r="AL24" s="20" t="n">
-        <v>1309</v>
+        <v>1689</v>
       </c>
       <c r="AM24" s="20" t="n">
-        <v>1689</v>
+        <v>2700</v>
       </c>
       <c r="AN24" s="20" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="AO24" s="20" t="n">
-        <v>3500</v>
+        <v>17757</v>
       </c>
       <c r="AP24" s="20" t="n">
-        <v>17757</v>
+        <v>4303</v>
       </c>
       <c r="AQ24" s="20" t="n">
-        <v>4303</v>
+        <v>3879</v>
       </c>
       <c r="AR24" s="20" t="n">
-        <v>3879</v>
+        <v>24753</v>
       </c>
       <c r="AS24" s="20" t="n">
-        <v>24753</v>
+        <v>2244</v>
       </c>
       <c r="AT24" s="20" t="n">
-        <v>2244</v>
+        <v>7586</v>
       </c>
       <c r="AU24" s="20" t="n">
-        <v>7586</v>
+        <v>15223</v>
       </c>
       <c r="AV24" s="20" t="n">
-        <v>15223</v>
+        <v>1975</v>
       </c>
       <c r="AW24" s="20" t="n">
-        <v>1975</v>
+        <v>2542</v>
       </c>
       <c r="AX24" s="20" t="n">
-        <v>2542</v>
+        <v>7253</v>
       </c>
       <c r="AY24" s="20" t="n">
-        <v>7253</v>
+        <v>2145</v>
       </c>
       <c r="AZ24" s="20" t="n">
-        <v>2145</v>
+        <v>12310</v>
       </c>
       <c r="BA24" s="20" t="n">
-        <v>12310</v>
+        <v>26941</v>
       </c>
       <c r="BB24" s="20" t="n">
-        <v>26941</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5761,17 +5761,17 @@
       <c r="T31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="13" t="s">
-        <v>58</v>
+      <c r="U31" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="13" t="n">
         <v>0</v>
@@ -5794,35 +5794,35 @@
       <c r="AE31" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AF31" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG31" s="13" t="s">
-        <v>58</v>
+      <c r="AF31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG31" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>49</v>
+        <v>429</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>429</v>
+        <v>122</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM31" s="13" t="n">
         <v>271</v>
       </c>
-      <c r="AN31" s="13" t="s">
-        <v>58</v>
+      <c r="AM31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN31" s="13" t="n">
+        <v>100</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AP31" s="13" t="n">
         <v>0</v>
@@ -5849,10 +5849,10 @@
         <v>0</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AZ31" s="13" t="n">
         <v>0</v>
@@ -5920,14 +5920,14 @@
       <c r="T32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>58</v>
+      <c r="U32" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V32" s="16" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="W32" s="16" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="X32" s="16" t="n">
         <v>0</v>
@@ -5945,43 +5945,43 @@
         <v>0</v>
       </c>
       <c r="AC32" s="16" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="AD32" s="16" t="n">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AF32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ32" s="16" t="n">
+      <c r="AF32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI32" s="16" t="n">
         <v>95</v>
       </c>
-      <c r="AK32" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="16" t="s">
-        <v>58</v>
+      <c r="AJ32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM32" s="16" t="n">
+        <v>82</v>
       </c>
       <c r="AN32" s="16" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="AO32" s="16" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AP32" s="16" t="n">
         <v>0</v>
@@ -5999,13 +5999,13 @@
         <v>0</v>
       </c>
       <c r="AU32" s="16" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AV32" s="16" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AW32" s="16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AX32" s="16" t="n">
         <v>0</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6079,8 +6079,8 @@
       <c r="T33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="13" t="s">
-        <v>58</v>
+      <c r="U33" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V33" s="13" t="n">
         <v>0</v>
@@ -6101,10 +6101,10 @@
         <v>0</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="13" t="n">
         <v>0</v>
@@ -6112,29 +6112,29 @@
       <c r="AE33" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AF33" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH33" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ33" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL33" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM33" s="13" t="s">
-        <v>58</v>
+      <c r="AF33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM33" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN33" s="13" t="n">
         <v>0</v>
@@ -6238,17 +6238,17 @@
       <c r="T34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="16" t="s">
-        <v>58</v>
+      <c r="U34" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V34" s="16" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="W34" s="16" t="n">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="X34" s="16" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="16" t="n">
         <v>0</v>
@@ -6260,70 +6260,70 @@
         <v>0</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>246</v>
+        <v>494</v>
       </c>
       <c r="AD34" s="16" t="n">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="AE34" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AF34" s="16" t="n">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="AG34" s="16" t="n">
-        <v>406</v>
-      </c>
-      <c r="AH34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL34" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="16" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AH34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM34" s="16" t="n">
+        <v>1530</v>
       </c>
       <c r="AN34" s="16" t="n">
-        <v>1530</v>
+        <v>0</v>
       </c>
       <c r="AO34" s="16" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AP34" s="16" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AQ34" s="16" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AR34" s="16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AS34" s="16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AX34" s="16" t="n">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6397,107 +6397,107 @@
       <c r="T35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="13" t="s">
-        <v>58</v>
+      <c r="U35" s="13" t="n">
+        <v>4516</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>4516</v>
+        <v>3673</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>3673</v>
+        <v>202</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>202</v>
+        <v>1313</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>1313</v>
+        <v>2016</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AB35" s="13" t="n">
-        <v>5995</v>
+        <v>10745</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>10745</v>
+        <v>7406</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>7406</v>
+        <v>3455</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>3455</v>
+        <v>3233</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>3233</v>
+        <v>2884</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>2884</v>
+        <v>4190</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>4190</v>
+        <v>3157</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>3157</v>
-      </c>
-      <c r="AJ35" s="13" t="n">
         <v>8633</v>
       </c>
-      <c r="AK35" s="13" t="s">
-        <v>58</v>
+      <c r="AJ35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK35" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>0</v>
+        <v>3749</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>3749</v>
+        <v>1670</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>1670</v>
+        <v>2530</v>
       </c>
       <c r="AO35" s="13" t="n">
-        <v>2530</v>
+        <v>4948</v>
       </c>
       <c r="AP35" s="13" t="n">
-        <v>4948</v>
+        <v>4203</v>
       </c>
       <c r="AQ35" s="13" t="n">
-        <v>4203</v>
+        <v>1205</v>
       </c>
       <c r="AR35" s="13" t="n">
-        <v>1205</v>
+        <v>1735</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>1735</v>
+        <v>2192</v>
       </c>
       <c r="AT35" s="13" t="n">
-        <v>2192</v>
+        <v>2893</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>2893</v>
+        <v>4493</v>
       </c>
       <c r="AV35" s="13" t="n">
-        <v>4493</v>
+        <v>1425</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>1425</v>
+        <v>1636</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>1636</v>
+        <v>0</v>
       </c>
       <c r="AY35" s="13" t="n">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="AZ35" s="13" t="n">
-        <v>974</v>
+        <v>0</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>4400</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,106 +6555,106 @@
         <v>0</v>
       </c>
       <c r="U36" s="18" t="n">
-        <v>0</v>
+        <v>4516</v>
       </c>
       <c r="V36" s="18" t="n">
-        <v>4516</v>
+        <v>3956</v>
       </c>
       <c r="W36" s="18" t="n">
-        <v>3956</v>
+        <v>420</v>
       </c>
       <c r="X36" s="18" t="n">
-        <v>420</v>
+        <v>1313</v>
       </c>
       <c r="Y36" s="18" t="n">
-        <v>1313</v>
+        <v>2016</v>
       </c>
       <c r="Z36" s="18" t="n">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AA36" s="18" t="n">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AB36" s="18" t="n">
-        <v>5995</v>
+        <v>11591</v>
       </c>
       <c r="AC36" s="18" t="n">
-        <v>11591</v>
+        <v>8061</v>
       </c>
       <c r="AD36" s="18" t="n">
-        <v>8061</v>
+        <v>3455</v>
       </c>
       <c r="AE36" s="18" t="n">
-        <v>3455</v>
+        <v>3233</v>
       </c>
       <c r="AF36" s="18" t="n">
-        <v>3233</v>
+        <v>3290</v>
       </c>
       <c r="AG36" s="18" t="n">
-        <v>3290</v>
+        <v>4190</v>
       </c>
       <c r="AH36" s="18" t="n">
-        <v>4190</v>
+        <v>3206</v>
       </c>
       <c r="AI36" s="18" t="n">
-        <v>3206</v>
+        <v>9157</v>
       </c>
       <c r="AJ36" s="18" t="n">
-        <v>9157</v>
+        <v>122</v>
       </c>
       <c r="AK36" s="18" t="n">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="AL36" s="18" t="n">
-        <v>15</v>
+        <v>4020</v>
       </c>
       <c r="AM36" s="18" t="n">
-        <v>4020</v>
+        <v>3282</v>
       </c>
       <c r="AN36" s="18" t="n">
-        <v>3282</v>
+        <v>2669</v>
       </c>
       <c r="AO36" s="18" t="n">
-        <v>2669</v>
+        <v>5138</v>
       </c>
       <c r="AP36" s="18" t="n">
-        <v>5138</v>
+        <v>4363</v>
       </c>
       <c r="AQ36" s="18" t="n">
-        <v>4363</v>
+        <v>1205</v>
       </c>
       <c r="AR36" s="18" t="n">
-        <v>1205</v>
+        <v>1763</v>
       </c>
       <c r="AS36" s="18" t="n">
-        <v>1763</v>
+        <v>2192</v>
       </c>
       <c r="AT36" s="18" t="n">
-        <v>2192</v>
+        <v>2893</v>
       </c>
       <c r="AU36" s="18" t="n">
-        <v>2893</v>
+        <v>4733</v>
       </c>
       <c r="AV36" s="18" t="n">
-        <v>4733</v>
+        <v>1455</v>
       </c>
       <c r="AW36" s="18" t="n">
-        <v>1455</v>
+        <v>1636</v>
       </c>
       <c r="AX36" s="18" t="n">
-        <v>1636</v>
+        <v>16</v>
       </c>
       <c r="AY36" s="18" t="n">
-        <v>16</v>
+        <v>974</v>
       </c>
       <c r="AZ36" s="18" t="n">
-        <v>974</v>
+        <v>0</v>
       </c>
       <c r="BA36" s="18" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="BB36" s="18" t="n">
-        <v>4400</v>
+        <v>828</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6797,20 +6797,20 @@
       <c r="AC38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE38" s="13" t="n">
-        <v>0</v>
+      <c r="AD38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH38" s="13" t="n">
-        <v>0</v>
+      <c r="AG38" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>58</v>
@@ -6818,29 +6818,29 @@
       <c r="AJ38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL38" s="13" t="n">
+      <c r="AK38" s="13" t="n">
         <v>401</v>
       </c>
+      <c r="AL38" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN38" s="13" t="s">
-        <v>58</v>
+      <c r="AN38" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO38" s="13" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="AP38" s="13" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AQ38" s="13" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AR38" s="13" t="n">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="13" t="n">
         <v>0</v>
@@ -6849,28 +6849,28 @@
         <v>0</v>
       </c>
       <c r="AU38" s="13" t="n">
-        <v>0</v>
+        <v>775</v>
       </c>
       <c r="AV38" s="13" t="n">
-        <v>775</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AX38" s="13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AY38" s="13" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AZ38" s="13" t="n">
         <v>0</v>
       </c>
       <c r="BA38" s="13" t="n">
-        <v>0</v>
+        <v>591</v>
       </c>
       <c r="BB38" s="13" t="n">
-        <v>591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,44 +6953,44 @@
       <c r="AB39" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC39" s="16" t="s">
-        <v>58</v>
+      <c r="AC39" s="16" t="n">
+        <v>5470</v>
       </c>
       <c r="AD39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI39" s="16" t="n">
+        <v>184</v>
+      </c>
+      <c r="AJ39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK39" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN39" s="16" t="n">
         <v>5470</v>
       </c>
-      <c r="AE39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ39" s="16" t="n">
-        <v>184</v>
-      </c>
-      <c r="AK39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL39" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN39" s="16" t="s">
-        <v>58</v>
-      </c>
       <c r="AO39" s="16" t="n">
-        <v>5470</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="16" t="n">
         <v>0</v>
@@ -7008,28 +7008,28 @@
         <v>0</v>
       </c>
       <c r="AU39" s="16" t="n">
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="AV39" s="16" t="n">
-        <v>4300</v>
+        <v>2500</v>
       </c>
       <c r="AW39" s="16" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="AX39" s="16" t="n">
-        <v>1300</v>
+        <v>522</v>
       </c>
       <c r="AY39" s="16" t="n">
-        <v>522</v>
+        <v>2000</v>
       </c>
       <c r="AZ39" s="16" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="BA39" s="16" t="n">
-        <v>350</v>
+        <v>3650</v>
       </c>
       <c r="BB39" s="16" t="n">
-        <v>3650</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7111,52 +7111,52 @@
         <v>0</v>
       </c>
       <c r="AC40" s="20" t="n">
-        <v>0</v>
+        <v>5470</v>
       </c>
       <c r="AD40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="20" t="n">
+        <v>184</v>
+      </c>
+      <c r="AJ40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="20" t="n">
+        <v>401</v>
+      </c>
+      <c r="AL40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="20" t="n">
         <v>5470</v>
       </c>
-      <c r="AE40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="20" t="n">
-        <v>184</v>
-      </c>
-      <c r="AK40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="20" t="n">
-        <v>401</v>
-      </c>
-      <c r="AM40" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="20" t="n">
-        <v>0</v>
-      </c>
       <c r="AO40" s="20" t="n">
-        <v>5470</v>
+        <v>195</v>
       </c>
       <c r="AP40" s="20" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="20" t="n">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="AR40" s="20" t="n">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="20" t="n">
         <v>0</v>
@@ -7165,28 +7165,28 @@
         <v>0</v>
       </c>
       <c r="AU40" s="20" t="n">
-        <v>0</v>
+        <v>5075</v>
       </c>
       <c r="AV40" s="20" t="n">
-        <v>5075</v>
+        <v>2500</v>
       </c>
       <c r="AW40" s="20" t="n">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="AX40" s="20" t="n">
-        <v>1300</v>
+        <v>538</v>
       </c>
       <c r="AY40" s="20" t="n">
-        <v>538</v>
+        <v>2000</v>
       </c>
       <c r="AZ40" s="20" t="n">
-        <v>2000</v>
+        <v>350</v>
       </c>
       <c r="BA40" s="20" t="n">
-        <v>350</v>
+        <v>4241</v>
       </c>
       <c r="BB40" s="20" t="n">
-        <v>4241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,20 +7302,20 @@
       <c r="T42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U42" s="13" t="s">
-        <v>58</v>
+      <c r="U42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V42" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W42" s="13" t="n">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="X42" s="13" t="n">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="Y42" s="13" t="n">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="13" t="n">
         <v>0</v>
@@ -7324,85 +7324,85 @@
         <v>0</v>
       </c>
       <c r="AB42" s="13" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AC42" s="13" t="n">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AD42" s="13" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AE42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="13" t="n">
         <v>10368</v>
       </c>
-      <c r="AG42" s="13" t="s">
-        <v>58</v>
+      <c r="AF42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AH42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="13" t="n">
         <v>24260</v>
       </c>
-      <c r="AJ42" s="13" t="s">
-        <v>58</v>
+      <c r="AI42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ42" s="13" t="n">
+        <v>12495</v>
       </c>
       <c r="AK42" s="13" t="n">
-        <v>12495</v>
-      </c>
-      <c r="AL42" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AL42" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN42" s="13" t="s">
-        <v>58</v>
+      <c r="AN42" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="13" t="n">
         <v>13055</v>
       </c>
+      <c r="AP42" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS42" s="13" t="n">
+      <c r="AR42" s="13" t="n">
         <v>20026</v>
       </c>
-      <c r="AT42" s="13" t="s">
-        <v>58</v>
+      <c r="AS42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT42" s="13" t="n">
+        <v>5008</v>
       </c>
       <c r="AU42" s="13" t="n">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AV42" s="13" t="n">
-        <v>5995</v>
-      </c>
-      <c r="AW42" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY42" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX42" s="13" t="n">
         <v>5499</v>
       </c>
-      <c r="AZ42" s="13" t="s">
-        <v>58</v>
+      <c r="AY42" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ42" s="13" t="n">
+        <v>11513</v>
       </c>
       <c r="BA42" s="13" t="n">
-        <v>11513</v>
+        <v>14964</v>
       </c>
       <c r="BB42" s="13" t="n">
-        <v>14964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7459,20 +7459,20 @@
       <c r="T43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>58</v>
+      <c r="U43" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="W43" s="18" t="n">
-        <v>0</v>
+        <v>34633</v>
       </c>
       <c r="X43" s="18" t="n">
-        <v>34633</v>
+        <v>12188</v>
       </c>
       <c r="Y43" s="18" t="n">
-        <v>12188</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="18" t="n">
         <v>0</v>
@@ -7481,34 +7481,34 @@
         <v>0</v>
       </c>
       <c r="AB43" s="18" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="AC43" s="18" t="n">
-        <v>489</v>
+        <v>283</v>
       </c>
       <c r="AD43" s="18" t="n">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="18" t="n">
-        <v>0</v>
+        <v>10368</v>
       </c>
       <c r="AF43" s="18" t="n">
-        <v>10368</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AH43" s="18" t="n">
-        <v>0</v>
+        <v>24260</v>
       </c>
       <c r="AI43" s="18" t="n">
-        <v>24260</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="18" t="n">
-        <v>0</v>
+        <v>12495</v>
       </c>
       <c r="AK43" s="18" t="n">
-        <v>12495</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="18" t="n">
         <v>0</v>
@@ -7520,46 +7520,46 @@
         <v>0</v>
       </c>
       <c r="AO43" s="18" t="n">
-        <v>0</v>
+        <v>13055</v>
       </c>
       <c r="AP43" s="18" t="n">
-        <v>13055</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AR43" s="18" t="n">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="AS43" s="18" t="n">
-        <v>20026</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="18" t="n">
-        <v>0</v>
+        <v>5008</v>
       </c>
       <c r="AU43" s="18" t="n">
-        <v>5008</v>
+        <v>5995</v>
       </c>
       <c r="AV43" s="18" t="n">
-        <v>5995</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AX43" s="18" t="n">
-        <v>0</v>
+        <v>5499</v>
       </c>
       <c r="AY43" s="18" t="n">
-        <v>5499</v>
+        <v>0</v>
       </c>
       <c r="AZ43" s="18" t="n">
-        <v>0</v>
+        <v>11513</v>
       </c>
       <c r="BA43" s="18" t="n">
-        <v>11513</v>
+        <v>14964</v>
       </c>
       <c r="BB43" s="18" t="n">
-        <v>14964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7675,8 +7675,8 @@
       <c r="T45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="13" t="s">
-        <v>58</v>
+      <c r="U45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="13" t="n">
         <v>0</v>
@@ -7702,8 +7702,8 @@
       <c r="AC45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD45" s="13" t="n">
-        <v>0</v>
+      <c r="AD45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE45" s="13" t="s">
         <v>58</v>
@@ -7711,11 +7711,11 @@
       <c r="AF45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH45" s="13" t="n">
-        <v>0</v>
+      <c r="AG45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI45" s="13" t="s">
         <v>58</v>
@@ -7723,11 +7723,11 @@
       <c r="AJ45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL45" s="13" t="n">
-        <v>0</v>
+      <c r="AK45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM45" s="13" t="s">
         <v>58</v>
@@ -7762,20 +7762,20 @@
       <c r="AW45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY45" s="13" t="n">
+      <c r="AX45" s="13" t="n">
         <v>-12</v>
       </c>
-      <c r="AZ45" s="13" t="s">
-        <v>58</v>
+      <c r="AY45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB45" s="13" t="n">
-        <v>0</v>
+      <c r="BB45" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7832,8 +7832,8 @@
       <c r="T46" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="18" t="s">
-        <v>58</v>
+      <c r="U46" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V46" s="18" t="n">
         <v>0</v>
@@ -7920,10 +7920,10 @@
         <v>0</v>
       </c>
       <c r="AX46" s="18" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AY46" s="18" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="18" t="n">
         <v>0</v>
@@ -7990,106 +7990,106 @@
         <v>0</v>
       </c>
       <c r="U47" s="20" t="n">
-        <v>0</v>
+        <v>4516</v>
       </c>
       <c r="V47" s="20" t="n">
-        <v>4516</v>
+        <v>3956</v>
       </c>
       <c r="W47" s="20" t="n">
-        <v>3956</v>
+        <v>35053</v>
       </c>
       <c r="X47" s="20" t="n">
-        <v>35053</v>
+        <v>13501</v>
       </c>
       <c r="Y47" s="20" t="n">
-        <v>13501</v>
+        <v>2016</v>
       </c>
       <c r="Z47" s="20" t="n">
-        <v>2016</v>
+        <v>2751</v>
       </c>
       <c r="AA47" s="20" t="n">
-        <v>2751</v>
+        <v>5995</v>
       </c>
       <c r="AB47" s="20" t="n">
-        <v>5995</v>
+        <v>12080</v>
       </c>
       <c r="AC47" s="20" t="n">
-        <v>12080</v>
+        <v>13814</v>
       </c>
       <c r="AD47" s="20" t="n">
-        <v>13814</v>
+        <v>3455</v>
       </c>
       <c r="AE47" s="20" t="n">
-        <v>3455</v>
+        <v>13601</v>
       </c>
       <c r="AF47" s="20" t="n">
-        <v>13601</v>
+        <v>3290</v>
       </c>
       <c r="AG47" s="20" t="n">
-        <v>3290</v>
+        <v>4190</v>
       </c>
       <c r="AH47" s="20" t="n">
-        <v>4190</v>
+        <v>27466</v>
       </c>
       <c r="AI47" s="20" t="n">
-        <v>27466</v>
+        <v>9341</v>
       </c>
       <c r="AJ47" s="20" t="n">
-        <v>9341</v>
+        <v>12617</v>
       </c>
       <c r="AK47" s="20" t="n">
-        <v>12617</v>
+        <v>416</v>
       </c>
       <c r="AL47" s="20" t="n">
-        <v>416</v>
+        <v>4020</v>
       </c>
       <c r="AM47" s="20" t="n">
-        <v>4020</v>
+        <v>3282</v>
       </c>
       <c r="AN47" s="20" t="n">
-        <v>3282</v>
+        <v>8139</v>
       </c>
       <c r="AO47" s="20" t="n">
-        <v>8139</v>
+        <v>18388</v>
       </c>
       <c r="AP47" s="20" t="n">
-        <v>18388</v>
+        <v>4363</v>
       </c>
       <c r="AQ47" s="20" t="n">
-        <v>4363</v>
+        <v>1451</v>
       </c>
       <c r="AR47" s="20" t="n">
-        <v>1451</v>
+        <v>21789</v>
       </c>
       <c r="AS47" s="20" t="n">
-        <v>21789</v>
+        <v>2192</v>
       </c>
       <c r="AT47" s="20" t="n">
-        <v>2192</v>
+        <v>7901</v>
       </c>
       <c r="AU47" s="20" t="n">
-        <v>7901</v>
+        <v>15803</v>
       </c>
       <c r="AV47" s="20" t="n">
-        <v>15803</v>
+        <v>3955</v>
       </c>
       <c r="AW47" s="20" t="n">
-        <v>3955</v>
+        <v>2936</v>
       </c>
       <c r="AX47" s="20" t="n">
-        <v>2936</v>
+        <v>6041</v>
       </c>
       <c r="AY47" s="20" t="n">
-        <v>6041</v>
+        <v>2974</v>
       </c>
       <c r="AZ47" s="20" t="n">
-        <v>2974</v>
+        <v>11863</v>
       </c>
       <c r="BA47" s="20" t="n">
-        <v>11863</v>
+        <v>23605</v>
       </c>
       <c r="BB47" s="20" t="n">
-        <v>23605</v>
+        <v>828</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8582,17 +8582,17 @@
       <c r="T54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="13" t="s">
-        <v>58</v>
+      <c r="U54" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V54" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W54" s="13" t="n">
-        <v>0</v>
+        <v>26258</v>
       </c>
       <c r="X54" s="13" t="n">
-        <v>26258</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="13" t="n">
         <v>0</v>
@@ -8622,28 +8622,28 @@
         <v>0</v>
       </c>
       <c r="AH54" s="13" t="n">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="AI54" s="13" t="n">
-        <v>31200</v>
+        <v>277021</v>
       </c>
       <c r="AJ54" s="13" t="n">
-        <v>277021</v>
+        <v>79745</v>
       </c>
       <c r="AK54" s="13" t="n">
-        <v>79745</v>
+        <v>10991</v>
       </c>
       <c r="AL54" s="13" t="n">
-        <v>10991</v>
+        <v>189494</v>
       </c>
       <c r="AM54" s="13" t="n">
-        <v>189494</v>
+        <v>0</v>
       </c>
       <c r="AN54" s="13" t="n">
-        <v>0</v>
+        <v>87809</v>
       </c>
       <c r="AO54" s="13" t="n">
-        <v>87809</v>
+        <v>0</v>
       </c>
       <c r="AP54" s="13" t="n">
         <v>0</v>
@@ -8670,10 +8670,10 @@
         <v>0</v>
       </c>
       <c r="AX54" s="13" t="n">
-        <v>0</v>
+        <v>20680</v>
       </c>
       <c r="AY54" s="13" t="n">
-        <v>20680</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="13" t="n">
         <v>0</v>
@@ -8741,14 +8741,14 @@
       <c r="T55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="16" t="s">
-        <v>58</v>
+      <c r="U55" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V55" s="16" t="n">
-        <v>0</v>
+        <v>11839</v>
       </c>
       <c r="W55" s="16" t="n">
-        <v>11839</v>
+        <v>0</v>
       </c>
       <c r="X55" s="16" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>0</v>
       </c>
       <c r="AC55" s="16" t="n">
-        <v>0</v>
+        <v>84839</v>
       </c>
       <c r="AD55" s="16" t="n">
-        <v>84839</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="16" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="AI55" s="16" t="n">
-        <v>0</v>
+        <v>66370</v>
       </c>
       <c r="AJ55" s="16" t="n">
-        <v>66370</v>
+        <v>0</v>
       </c>
       <c r="AK55" s="16" t="n">
         <v>0</v>
@@ -8796,13 +8796,13 @@
         <v>0</v>
       </c>
       <c r="AM55" s="16" t="n">
-        <v>0</v>
+        <v>53226</v>
       </c>
       <c r="AN55" s="16" t="n">
-        <v>53226</v>
+        <v>21065</v>
       </c>
       <c r="AO55" s="16" t="n">
-        <v>21065</v>
+        <v>0</v>
       </c>
       <c r="AP55" s="16" t="n">
         <v>0</v>
@@ -8820,13 +8820,13 @@
         <v>0</v>
       </c>
       <c r="AU55" s="16" t="n">
-        <v>0</v>
+        <v>23381</v>
       </c>
       <c r="AV55" s="16" t="n">
-        <v>23381</v>
+        <v>4564</v>
       </c>
       <c r="AW55" s="16" t="n">
-        <v>4564</v>
+        <v>0</v>
       </c>
       <c r="AX55" s="16" t="n">
         <v>0</v>
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="16" t="n">
-        <v>0</v>
+        <v>12410</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8900,8 +8900,8 @@
       <c r="T56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="13" t="s">
-        <v>58</v>
+      <c r="U56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V56" s="13" t="n">
         <v>0</v>
@@ -8922,10 +8922,10 @@
         <v>0</v>
       </c>
       <c r="AB56" s="13" t="n">
-        <v>0</v>
+        <v>102005</v>
       </c>
       <c r="AC56" s="13" t="n">
-        <v>102005</v>
+        <v>0</v>
       </c>
       <c r="AD56" s="13" t="n">
         <v>0</v>
@@ -9059,17 +9059,17 @@
       <c r="T57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="16" t="s">
-        <v>58</v>
+      <c r="U57" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V57" s="16" t="n">
-        <v>0</v>
+        <v>41552</v>
       </c>
       <c r="W57" s="16" t="n">
-        <v>41552</v>
+        <v>33777</v>
       </c>
       <c r="X57" s="16" t="n">
-        <v>33777</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="16" t="n">
         <v>0</v>
@@ -9081,22 +9081,22 @@
         <v>0</v>
       </c>
       <c r="AB57" s="16" t="n">
-        <v>0</v>
+        <v>67780</v>
       </c>
       <c r="AC57" s="16" t="n">
-        <v>67780</v>
+        <v>154460</v>
       </c>
       <c r="AD57" s="16" t="n">
-        <v>154460</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AF57" s="16" t="n">
-        <v>0</v>
+        <v>116399</v>
       </c>
       <c r="AG57" s="16" t="n">
-        <v>116399</v>
+        <v>0</v>
       </c>
       <c r="AH57" s="16" t="n">
         <v>0</v>
@@ -9114,37 +9114,37 @@
         <v>0</v>
       </c>
       <c r="AM57" s="16" t="n">
-        <v>0</v>
+        <v>550890</v>
       </c>
       <c r="AN57" s="16" t="n">
-        <v>550890</v>
+        <v>0</v>
       </c>
       <c r="AO57" s="16" t="n">
-        <v>0</v>
+        <v>56932</v>
       </c>
       <c r="AP57" s="16" t="n">
-        <v>56932</v>
+        <v>47118</v>
       </c>
       <c r="AQ57" s="16" t="n">
-        <v>47118</v>
+        <v>0</v>
       </c>
       <c r="AR57" s="16" t="n">
-        <v>0</v>
+        <v>6993</v>
       </c>
       <c r="AS57" s="16" t="n">
-        <v>6993</v>
+        <v>0</v>
       </c>
       <c r="AT57" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AU57" s="16" t="n">
-        <v>0</v>
+        <v>38584</v>
       </c>
       <c r="AV57" s="16" t="n">
-        <v>38584</v>
+        <v>3870</v>
       </c>
       <c r="AW57" s="16" t="n">
-        <v>3870</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="16" t="n">
         <v>0</v>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="BB57" s="16" t="n">
-        <v>0</v>
+        <v>206642</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9218,107 +9218,107 @@
       <c r="T58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U58" s="13" t="s">
-        <v>58</v>
+      <c r="U58" s="13" t="n">
+        <v>171298</v>
       </c>
       <c r="V58" s="13" t="n">
-        <v>171298</v>
+        <v>105667</v>
       </c>
       <c r="W58" s="13" t="n">
-        <v>105667</v>
+        <v>8379</v>
       </c>
       <c r="X58" s="13" t="n">
-        <v>8379</v>
+        <v>55692</v>
       </c>
       <c r="Y58" s="13" t="n">
-        <v>55692</v>
+        <v>222743</v>
       </c>
       <c r="Z58" s="13" t="n">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AA58" s="13" t="n">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AB58" s="13" t="n">
-        <v>324876</v>
+        <v>739810</v>
       </c>
       <c r="AC58" s="13" t="n">
-        <v>739810</v>
+        <v>577703</v>
       </c>
       <c r="AD58" s="13" t="n">
-        <v>577703</v>
+        <v>301726</v>
       </c>
       <c r="AE58" s="13" t="n">
-        <v>301726</v>
+        <v>296304</v>
       </c>
       <c r="AF58" s="13" t="n">
-        <v>296304</v>
+        <v>293882</v>
       </c>
       <c r="AG58" s="13" t="n">
-        <v>293882</v>
+        <v>435851</v>
       </c>
       <c r="AH58" s="13" t="n">
-        <v>435851</v>
+        <v>273570</v>
       </c>
       <c r="AI58" s="13" t="n">
-        <v>273570</v>
+        <v>836997</v>
       </c>
       <c r="AJ58" s="13" t="n">
-        <v>836997</v>
+        <v>0</v>
       </c>
       <c r="AK58" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AL58" s="13" t="n">
-        <v>0</v>
+        <v>330488</v>
       </c>
       <c r="AM58" s="13" t="n">
-        <v>330488</v>
+        <v>154245</v>
       </c>
       <c r="AN58" s="13" t="n">
-        <v>154245</v>
+        <v>293815</v>
       </c>
       <c r="AO58" s="13" t="n">
-        <v>293815</v>
+        <v>774252</v>
       </c>
       <c r="AP58" s="13" t="n">
-        <v>774252</v>
+        <v>645393</v>
       </c>
       <c r="AQ58" s="13" t="n">
-        <v>645393</v>
+        <v>97722</v>
       </c>
       <c r="AR58" s="13" t="n">
-        <v>97722</v>
+        <v>123901</v>
       </c>
       <c r="AS58" s="13" t="n">
-        <v>123901</v>
+        <v>122812</v>
       </c>
       <c r="AT58" s="13" t="n">
-        <v>122812</v>
+        <v>334051</v>
       </c>
       <c r="AU58" s="13" t="n">
-        <v>334051</v>
+        <v>538414</v>
       </c>
       <c r="AV58" s="13" t="n">
-        <v>538414</v>
+        <v>175961</v>
       </c>
       <c r="AW58" s="13" t="n">
-        <v>175961</v>
+        <v>106213</v>
       </c>
       <c r="AX58" s="13" t="n">
-        <v>106213</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="13" t="n">
-        <v>0</v>
+        <v>81828</v>
       </c>
       <c r="AZ58" s="13" t="n">
-        <v>81828</v>
+        <v>0</v>
       </c>
       <c r="BA58" s="13" t="n">
-        <v>0</v>
+        <v>927448</v>
       </c>
       <c r="BB58" s="13" t="n">
-        <v>927448</v>
+        <v>108819</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9376,106 +9376,106 @@
         <v>0</v>
       </c>
       <c r="U59" s="18" t="n">
-        <v>0</v>
+        <v>171298</v>
       </c>
       <c r="V59" s="18" t="n">
-        <v>171298</v>
+        <v>159058</v>
       </c>
       <c r="W59" s="18" t="n">
-        <v>159058</v>
+        <v>68414</v>
       </c>
       <c r="X59" s="18" t="n">
-        <v>68414</v>
+        <v>55692</v>
       </c>
       <c r="Y59" s="18" t="n">
-        <v>55692</v>
+        <v>222743</v>
       </c>
       <c r="Z59" s="18" t="n">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AA59" s="18" t="n">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AB59" s="18" t="n">
-        <v>324876</v>
+        <v>909595</v>
       </c>
       <c r="AC59" s="18" t="n">
-        <v>909595</v>
+        <v>817002</v>
       </c>
       <c r="AD59" s="18" t="n">
-        <v>817002</v>
+        <v>301726</v>
       </c>
       <c r="AE59" s="18" t="n">
-        <v>301726</v>
+        <v>296304</v>
       </c>
       <c r="AF59" s="18" t="n">
-        <v>296304</v>
+        <v>410281</v>
       </c>
       <c r="AG59" s="18" t="n">
-        <v>410281</v>
+        <v>435851</v>
       </c>
       <c r="AH59" s="18" t="n">
-        <v>435851</v>
+        <v>304770</v>
       </c>
       <c r="AI59" s="18" t="n">
-        <v>304770</v>
+        <v>1180388</v>
       </c>
       <c r="AJ59" s="18" t="n">
-        <v>1180388</v>
+        <v>79745</v>
       </c>
       <c r="AK59" s="18" t="n">
-        <v>79745</v>
+        <v>10991</v>
       </c>
       <c r="AL59" s="18" t="n">
-        <v>10991</v>
+        <v>519982</v>
       </c>
       <c r="AM59" s="18" t="n">
-        <v>519982</v>
+        <v>758361</v>
       </c>
       <c r="AN59" s="18" t="n">
-        <v>758361</v>
+        <v>402689</v>
       </c>
       <c r="AO59" s="18" t="n">
-        <v>402689</v>
+        <v>831184</v>
       </c>
       <c r="AP59" s="18" t="n">
-        <v>831184</v>
+        <v>692511</v>
       </c>
       <c r="AQ59" s="18" t="n">
-        <v>692511</v>
+        <v>97722</v>
       </c>
       <c r="AR59" s="18" t="n">
-        <v>97722</v>
+        <v>130894</v>
       </c>
       <c r="AS59" s="18" t="n">
-        <v>130894</v>
+        <v>122812</v>
       </c>
       <c r="AT59" s="18" t="n">
-        <v>122812</v>
+        <v>334051</v>
       </c>
       <c r="AU59" s="18" t="n">
-        <v>334051</v>
+        <v>600379</v>
       </c>
       <c r="AV59" s="18" t="n">
-        <v>600379</v>
+        <v>184395</v>
       </c>
       <c r="AW59" s="18" t="n">
-        <v>184395</v>
+        <v>106213</v>
       </c>
       <c r="AX59" s="18" t="n">
-        <v>106213</v>
+        <v>20680</v>
       </c>
       <c r="AY59" s="18" t="n">
-        <v>20680</v>
+        <v>81828</v>
       </c>
       <c r="AZ59" s="18" t="n">
-        <v>81828</v>
+        <v>0</v>
       </c>
       <c r="BA59" s="18" t="n">
-        <v>0</v>
+        <v>927448</v>
       </c>
       <c r="BB59" s="18" t="n">
-        <v>927448</v>
+        <v>327871</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9618,8 +9618,8 @@
       <c r="AC61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD61" s="13" t="s">
-        <v>58</v>
+      <c r="AD61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE61" s="13" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="AK61" s="13" t="n">
-        <v>0</v>
+        <v>300977</v>
       </c>
       <c r="AL61" s="13" t="n">
-        <v>300977</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="13" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="AO61" s="13" t="n">
-        <v>0</v>
+        <v>172699</v>
       </c>
       <c r="AP61" s="13" t="n">
-        <v>172699</v>
+        <v>0</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>0</v>
+        <v>214709</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>214709</v>
+        <v>0</v>
       </c>
       <c r="AS61" s="13" t="n">
         <v>0</v>
@@ -9670,28 +9670,28 @@
         <v>0</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>0</v>
+        <v>654439</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>654439</v>
+        <v>0</v>
       </c>
       <c r="AW61" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>0</v>
+        <v>13671</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>13671</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="13" t="n">
         <v>0</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>0</v>
+        <v>641238</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>641238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9774,11 +9774,11 @@
       <c r="AB62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC62" s="16" t="s">
-        <v>58</v>
+      <c r="AC62" s="16" t="n">
+        <v>612056</v>
       </c>
       <c r="AD62" s="16" t="n">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="16" t="n">
         <v>0</v>
@@ -9793,10 +9793,10 @@
         <v>0</v>
       </c>
       <c r="AI62" s="16" t="n">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="AJ62" s="16" t="n">
-        <v>20634</v>
+        <v>0</v>
       </c>
       <c r="AK62" s="16" t="n">
         <v>0</v>
@@ -9808,10 +9808,10 @@
         <v>0</v>
       </c>
       <c r="AN62" s="16" t="n">
-        <v>0</v>
+        <v>461637</v>
       </c>
       <c r="AO62" s="16" t="n">
-        <v>461637</v>
+        <v>0</v>
       </c>
       <c r="AP62" s="16" t="n">
         <v>0</v>
@@ -9829,28 +9829,28 @@
         <v>0</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>0</v>
+        <v>857115</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>857115</v>
+        <v>435521</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>435521</v>
+        <v>214500</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>214500</v>
+        <v>108141</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>108141</v>
+        <v>389640</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>389640</v>
+        <v>68187</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>68187</v>
+        <v>954372</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>954372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9932,10 +9932,10 @@
         <v>0</v>
       </c>
       <c r="AC63" s="20" t="n">
-        <v>0</v>
+        <v>612056</v>
       </c>
       <c r="AD63" s="20" t="n">
-        <v>612056</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="20" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="AI63" s="20" t="n">
-        <v>0</v>
+        <v>20634</v>
       </c>
       <c r="AJ63" s="20" t="n">
-        <v>20634</v>
+        <v>0</v>
       </c>
       <c r="AK63" s="20" t="n">
-        <v>0</v>
+        <v>300977</v>
       </c>
       <c r="AL63" s="20" t="n">
-        <v>300977</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="20" t="n">
         <v>0</v>
       </c>
       <c r="AN63" s="20" t="n">
-        <v>0</v>
+        <v>461637</v>
       </c>
       <c r="AO63" s="20" t="n">
-        <v>461637</v>
+        <v>172699</v>
       </c>
       <c r="AP63" s="20" t="n">
-        <v>172699</v>
+        <v>0</v>
       </c>
       <c r="AQ63" s="20" t="n">
-        <v>0</v>
+        <v>214709</v>
       </c>
       <c r="AR63" s="20" t="n">
-        <v>214709</v>
+        <v>0</v>
       </c>
       <c r="AS63" s="20" t="n">
         <v>0</v>
@@ -9986,28 +9986,28 @@
         <v>0</v>
       </c>
       <c r="AU63" s="20" t="n">
-        <v>0</v>
+        <v>1511554</v>
       </c>
       <c r="AV63" s="20" t="n">
-        <v>1511554</v>
+        <v>435521</v>
       </c>
       <c r="AW63" s="20" t="n">
-        <v>435521</v>
+        <v>214500</v>
       </c>
       <c r="AX63" s="20" t="n">
-        <v>214500</v>
+        <v>121812</v>
       </c>
       <c r="AY63" s="20" t="n">
-        <v>121812</v>
+        <v>389640</v>
       </c>
       <c r="AZ63" s="20" t="n">
-        <v>389640</v>
+        <v>68187</v>
       </c>
       <c r="BA63" s="20" t="n">
-        <v>68187</v>
+        <v>1595610</v>
       </c>
       <c r="BB63" s="20" t="n">
-        <v>1595610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10123,20 +10123,20 @@
       <c r="T65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="13" t="s">
-        <v>58</v>
+      <c r="U65" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W65" s="13" t="n">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="X65" s="13" t="n">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="Y65" s="13" t="n">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="13" t="n">
         <v>0</v>
@@ -10145,34 +10145,34 @@
         <v>0</v>
       </c>
       <c r="AB65" s="13" t="n">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AC65" s="13" t="n">
-        <v>2101</v>
+        <v>1217</v>
       </c>
       <c r="AD65" s="13" t="n">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="13" t="n">
-        <v>0</v>
+        <v>87094</v>
       </c>
       <c r="AF65" s="13" t="n">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AG65" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>222580</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>0</v>
+        <v>137445</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="13" t="n">
         <v>0</v>
@@ -10184,46 +10184,46 @@
         <v>0</v>
       </c>
       <c r="AO65" s="13" t="n">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AP65" s="13" t="n">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AQ65" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AR65" s="13" t="n">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AS65" s="13" t="n">
-        <v>280368</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="13" t="n">
-        <v>0</v>
+        <v>70114</v>
       </c>
       <c r="AU65" s="13" t="n">
-        <v>70114</v>
+        <v>83929</v>
       </c>
       <c r="AV65" s="13" t="n">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="AW65" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AX65" s="13" t="n">
-        <v>0</v>
+        <v>76992</v>
       </c>
       <c r="AY65" s="13" t="n">
-        <v>76992</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="13" t="n">
-        <v>0</v>
+        <v>172695</v>
       </c>
       <c r="BA65" s="13" t="n">
-        <v>172695</v>
+        <v>224467</v>
       </c>
       <c r="BB65" s="13" t="n">
-        <v>224467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10282,20 +10282,20 @@
       <c r="T66" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="18" t="s">
-        <v>58</v>
+      <c r="U66" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="21" t="n">
         <v>0</v>
       </c>
       <c r="W66" s="21" t="n">
-        <v>0</v>
+        <v>157463</v>
       </c>
       <c r="X66" s="21" t="n">
-        <v>157463</v>
+        <v>96685</v>
       </c>
       <c r="Y66" s="21" t="n">
-        <v>96685</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="21" t="n">
         <v>0</v>
@@ -10304,34 +10304,34 @@
         <v>0</v>
       </c>
       <c r="AB66" s="21" t="n">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="AC66" s="21" t="n">
-        <v>2101</v>
+        <v>1217</v>
       </c>
       <c r="AD66" s="21" t="n">
-        <v>1217</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="21" t="n">
-        <v>0</v>
+        <v>87094</v>
       </c>
       <c r="AF66" s="21" t="n">
-        <v>87094</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AH66" s="21" t="n">
-        <v>0</v>
+        <v>222580</v>
       </c>
       <c r="AI66" s="21" t="n">
-        <v>222580</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="21" t="n">
-        <v>0</v>
+        <v>137445</v>
       </c>
       <c r="AK66" s="21" t="n">
-        <v>137445</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="21" t="n">
         <v>0</v>
@@ -10343,46 +10343,46 @@
         <v>0</v>
       </c>
       <c r="AO66" s="21" t="n">
-        <v>0</v>
+        <v>143609</v>
       </c>
       <c r="AP66" s="21" t="n">
-        <v>143609</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AR66" s="21" t="n">
-        <v>0</v>
+        <v>280368</v>
       </c>
       <c r="AS66" s="21" t="n">
-        <v>280368</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="21" t="n">
-        <v>0</v>
+        <v>70114</v>
       </c>
       <c r="AU66" s="21" t="n">
-        <v>70114</v>
+        <v>83929</v>
       </c>
       <c r="AV66" s="21" t="n">
-        <v>83929</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="21" t="n">
         <v>0</v>
       </c>
       <c r="AX66" s="21" t="n">
-        <v>0</v>
+        <v>76992</v>
       </c>
       <c r="AY66" s="21" t="n">
-        <v>76992</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="21" t="n">
-        <v>0</v>
+        <v>172695</v>
       </c>
       <c r="BA66" s="21" t="n">
-        <v>172695</v>
+        <v>224467</v>
       </c>
       <c r="BB66" s="21" t="n">
-        <v>224467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10498,8 +10498,8 @@
       <c r="T68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U68" s="13" t="s">
-        <v>58</v>
+      <c r="U68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V68" s="13" t="n">
         <v>0</v>
@@ -10525,11 +10525,11 @@
       <c r="AC68" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD68" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE68" s="13" t="s">
-        <v>58</v>
+      <c r="AD68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AF68" s="13" t="n">
         <v>0</v>
@@ -10561,8 +10561,8 @@
       <c r="AO68" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP68" s="13" t="n">
-        <v>0</v>
+      <c r="AP68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ68" s="13" t="s">
         <v>58</v>
@@ -10585,11 +10585,11 @@
       <c r="AW68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX68" s="13" t="s">
-        <v>58</v>
+      <c r="AX68" s="13" t="n">
+        <v>-4850</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>-4850</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="13" t="n">
         <v>0</v>
@@ -10597,8 +10597,8 @@
       <c r="BA68" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB68" s="13" t="n">
-        <v>0</v>
+      <c r="BB68" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10657,8 +10657,8 @@
       <c r="T69" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="18" t="s">
-        <v>58</v>
+      <c r="U69" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="21" t="n">
         <v>0</v>
@@ -10745,10 +10745,10 @@
         <v>0</v>
       </c>
       <c r="AX69" s="21" t="n">
-        <v>0</v>
+        <v>-4850</v>
       </c>
       <c r="AY69" s="21" t="n">
-        <v>-4850</v>
+        <v>0</v>
       </c>
       <c r="AZ69" s="21" t="n">
         <v>0</v>
@@ -10873,8 +10873,8 @@
       <c r="T71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="13" t="s">
-        <v>58</v>
+      <c r="U71" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V71" s="13" t="n">
         <v>0</v>
@@ -11031,106 +11031,106 @@
         <v>0</v>
       </c>
       <c r="U72" s="21" t="n">
-        <v>0</v>
+        <v>171298</v>
       </c>
       <c r="V72" s="21" t="n">
-        <v>171298</v>
+        <v>159058</v>
       </c>
       <c r="W72" s="21" t="n">
-        <v>159058</v>
+        <v>225877</v>
       </c>
       <c r="X72" s="21" t="n">
-        <v>225877</v>
+        <v>152377</v>
       </c>
       <c r="Y72" s="21" t="n">
-        <v>152377</v>
+        <v>222743</v>
       </c>
       <c r="Z72" s="21" t="n">
-        <v>222743</v>
+        <v>276733</v>
       </c>
       <c r="AA72" s="21" t="n">
-        <v>276733</v>
+        <v>324876</v>
       </c>
       <c r="AB72" s="21" t="n">
-        <v>324876</v>
+        <v>911696</v>
       </c>
       <c r="AC72" s="21" t="n">
-        <v>911696</v>
+        <v>1430275</v>
       </c>
       <c r="AD72" s="21" t="n">
-        <v>1430275</v>
+        <v>301726</v>
       </c>
       <c r="AE72" s="21" t="n">
-        <v>301726</v>
+        <v>383398</v>
       </c>
       <c r="AF72" s="21" t="n">
-        <v>383398</v>
+        <v>410281</v>
       </c>
       <c r="AG72" s="21" t="n">
-        <v>410281</v>
+        <v>435851</v>
       </c>
       <c r="AH72" s="21" t="n">
-        <v>435851</v>
+        <v>527350</v>
       </c>
       <c r="AI72" s="21" t="n">
-        <v>527350</v>
+        <v>1201022</v>
       </c>
       <c r="AJ72" s="21" t="n">
-        <v>1201022</v>
+        <v>217190</v>
       </c>
       <c r="AK72" s="21" t="n">
-        <v>217190</v>
+        <v>311968</v>
       </c>
       <c r="AL72" s="21" t="n">
-        <v>311968</v>
+        <v>519982</v>
       </c>
       <c r="AM72" s="21" t="n">
-        <v>519982</v>
+        <v>758361</v>
       </c>
       <c r="AN72" s="21" t="n">
-        <v>758361</v>
+        <v>864326</v>
       </c>
       <c r="AO72" s="21" t="n">
-        <v>864326</v>
+        <v>1147492</v>
       </c>
       <c r="AP72" s="21" t="n">
-        <v>1147492</v>
+        <v>692511</v>
       </c>
       <c r="AQ72" s="21" t="n">
-        <v>692511</v>
+        <v>312431</v>
       </c>
       <c r="AR72" s="21" t="n">
-        <v>312431</v>
+        <v>411262</v>
       </c>
       <c r="AS72" s="21" t="n">
-        <v>411262</v>
+        <v>122812</v>
       </c>
       <c r="AT72" s="21" t="n">
-        <v>122812</v>
+        <v>404165</v>
       </c>
       <c r="AU72" s="21" t="n">
-        <v>404165</v>
+        <v>2195862</v>
       </c>
       <c r="AV72" s="21" t="n">
-        <v>2195862</v>
+        <v>619916</v>
       </c>
       <c r="AW72" s="21" t="n">
-        <v>619916</v>
+        <v>320713</v>
       </c>
       <c r="AX72" s="21" t="n">
-        <v>320713</v>
+        <v>214634</v>
       </c>
       <c r="AY72" s="21" t="n">
-        <v>214634</v>
+        <v>471468</v>
       </c>
       <c r="AZ72" s="21" t="n">
-        <v>471468</v>
+        <v>240882</v>
       </c>
       <c r="BA72" s="21" t="n">
-        <v>240882</v>
+        <v>2747525</v>
       </c>
       <c r="BB72" s="21" t="n">
-        <v>2747525</v>
+        <v>327871</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11629,12 +11629,12 @@
       <c r="V79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="13" t="n">
+      <c r="W79" s="13" t="n">
         <v>525160000</v>
       </c>
+      <c r="X79" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="Y79" s="13" t="s">
         <v>58</v>
       </c>
@@ -11662,30 +11662,30 @@
       <c r="AG79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH79" s="13" t="s">
-        <v>58</v>
+      <c r="AH79" s="13" t="n">
+        <v>636734694</v>
       </c>
       <c r="AI79" s="13" t="n">
-        <v>636734694</v>
+        <v>645736597</v>
       </c>
       <c r="AJ79" s="13" t="n">
-        <v>645736597</v>
+        <v>653647541</v>
       </c>
       <c r="AK79" s="13" t="n">
-        <v>653647541</v>
+        <v>732733333</v>
       </c>
       <c r="AL79" s="13" t="n">
-        <v>732733333</v>
-      </c>
-      <c r="AM79" s="13" t="n">
         <v>699239852</v>
       </c>
-      <c r="AN79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO79" s="13" t="n">
+      <c r="AM79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN79" s="13" t="n">
         <v>878090000</v>
       </c>
+      <c r="AO79" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP79" s="13" t="s">
         <v>58</v>
       </c>
@@ -11710,11 +11710,11 @@
       <c r="AW79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY79" s="13" t="n">
+      <c r="AX79" s="13" t="n">
         <v>1292500000</v>
+      </c>
+      <c r="AY79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ79" s="13" t="s">
         <v>58</v>
@@ -11785,12 +11785,12 @@
       <c r="U80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V80" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="W80" s="16" t="n">
+      <c r="V80" s="16" t="n">
         <v>408241379</v>
       </c>
+      <c r="W80" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="X80" s="16" t="s">
         <v>58</v>
       </c>
@@ -11806,12 +11806,12 @@
       <c r="AB80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC80" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD80" s="16" t="n">
+      <c r="AC80" s="16" t="n">
         <v>526950311</v>
       </c>
+      <c r="AD80" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE80" s="16" t="s">
         <v>58</v>
       </c>
@@ -11824,27 +11824,27 @@
       <c r="AH80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI80" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ80" s="16" t="n">
+      <c r="AI80" s="16" t="n">
         <v>698631579</v>
       </c>
+      <c r="AJ80" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AK80" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AL80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM80" s="16" t="s">
-        <v>58</v>
+      <c r="AM80" s="16" t="n">
+        <v>649097561</v>
       </c>
       <c r="AN80" s="16" t="n">
-        <v>649097561</v>
-      </c>
-      <c r="AO80" s="16" t="n">
         <v>540128205</v>
       </c>
+      <c r="AO80" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AP80" s="16" t="s">
         <v>58</v>
       </c>
@@ -11860,15 +11860,15 @@
       <c r="AT80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU80" s="16" t="s">
-        <v>58</v>
+      <c r="AU80" s="16" t="n">
+        <v>334014286</v>
       </c>
       <c r="AV80" s="16" t="n">
-        <v>334014286</v>
-      </c>
-      <c r="AW80" s="16" t="n">
         <v>351076923</v>
       </c>
+      <c r="AW80" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AX80" s="16" t="s">
         <v>58</v>
       </c>
@@ -11881,8 +11881,8 @@
       <c r="BA80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BB80" s="16" t="s">
-        <v>58</v>
+      <c r="BB80" s="16" t="n">
+        <v>620500000</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11962,11 +11962,11 @@
       <c r="AA81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC81" s="13" t="n">
+      <c r="AB81" s="13" t="n">
         <v>170008333</v>
+      </c>
+      <c r="AC81" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD81" s="13" t="s">
         <v>58</v>
@@ -12103,15 +12103,15 @@
       <c r="U82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="V82" s="16" t="s">
-        <v>58</v>
+      <c r="V82" s="16" t="n">
+        <v>163590551</v>
       </c>
       <c r="W82" s="16" t="n">
-        <v>163590551</v>
-      </c>
-      <c r="X82" s="16" t="n">
         <v>201053571</v>
       </c>
+      <c r="X82" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="Y82" s="16" t="s">
         <v>58</v>
       </c>
@@ -12121,24 +12121,24 @@
       <c r="AA82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB82" s="16" t="s">
-        <v>58</v>
+      <c r="AB82" s="16" t="n">
+        <v>275528455</v>
       </c>
       <c r="AC82" s="16" t="n">
-        <v>275528455</v>
-      </c>
-      <c r="AD82" s="16" t="n">
         <v>312672065</v>
       </c>
+      <c r="AD82" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF82" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG82" s="16" t="n">
+      <c r="AF82" s="16" t="n">
         <v>286697044</v>
       </c>
+      <c r="AG82" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AH82" s="16" t="s">
         <v>58</v>
       </c>
@@ -12154,39 +12154,39 @@
       <c r="AL82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM82" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN82" s="16" t="n">
+      <c r="AM82" s="16" t="n">
         <v>360058824</v>
       </c>
-      <c r="AO82" s="16" t="s">
-        <v>58</v>
+      <c r="AN82" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO82" s="16" t="n">
+        <v>299642105</v>
       </c>
       <c r="AP82" s="16" t="n">
-        <v>299642105</v>
-      </c>
-      <c r="AQ82" s="16" t="n">
         <v>294487500</v>
       </c>
-      <c r="AR82" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS82" s="16" t="n">
+      <c r="AQ82" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR82" s="16" t="n">
         <v>249750000</v>
       </c>
+      <c r="AS82" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AT82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU82" s="16" t="s">
-        <v>58</v>
+      <c r="AU82" s="16" t="n">
+        <v>226964706</v>
       </c>
       <c r="AV82" s="16" t="n">
-        <v>226964706</v>
-      </c>
-      <c r="AW82" s="16" t="n">
         <v>227647059</v>
       </c>
+      <c r="AW82" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AX82" s="16" t="s">
         <v>58</v>
       </c>
@@ -12199,8 +12199,8 @@
       <c r="BA82" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BB82" s="16" t="s">
-        <v>58</v>
+      <c r="BB82" s="16" t="n">
+        <v>459204444</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12259,107 +12259,107 @@
       <c r="T83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="13" t="s">
-        <v>58</v>
+      <c r="U83" s="13" t="n">
+        <v>37931355</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>37931355</v>
+        <v>28768582</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>28768582</v>
+        <v>41480198</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>41480198</v>
+        <v>42415842</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>42415842</v>
+        <v>110487599</v>
       </c>
       <c r="Z83" s="13" t="n">
-        <v>110487599</v>
+        <v>100593602</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>100593602</v>
+        <v>54191159</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>54191159</v>
+        <v>68851559</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>68851559</v>
+        <v>78004726</v>
       </c>
       <c r="AD83" s="13" t="n">
-        <v>78004726</v>
+        <v>87330246</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>87330246</v>
+        <v>91649861</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>91649861</v>
+        <v>101900832</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>101900832</v>
+        <v>104021718</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>104021718</v>
+        <v>86655052</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>86655052</v>
-      </c>
-      <c r="AJ83" s="13" t="n">
         <v>96953203</v>
       </c>
+      <c r="AJ83" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL83" s="13" t="s">
-        <v>58</v>
+      <c r="AL83" s="13" t="n">
+        <v>88153641</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>88153641</v>
+        <v>92362275</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>92362275</v>
+        <v>116132411</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>116132411</v>
+        <v>156477769</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>156477769</v>
+        <v>153555318</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>153555318</v>
+        <v>81097095</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>81097095</v>
+        <v>71412680</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>71412680</v>
+        <v>56027372</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>56027372</v>
+        <v>115468718</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>115468718</v>
+        <v>119833964</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>119833964</v>
+        <v>123481404</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>123481404</v>
-      </c>
-      <c r="AX83" s="13" t="n">
         <v>64922372</v>
       </c>
-      <c r="AY83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ83" s="13" t="n">
+      <c r="AX83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY83" s="13" t="n">
         <v>84012320</v>
       </c>
-      <c r="BA83" s="13" t="s">
-        <v>58</v>
+      <c r="AZ83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA83" s="13" t="n">
+        <v>210783636</v>
       </c>
       <c r="BB83" s="13" t="n">
-        <v>210783636</v>
+        <v>303963687</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12523,59 +12523,59 @@
       <c r="AJ85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL85" s="13" t="n">
+      <c r="AK85" s="13" t="n">
         <v>750566085</v>
       </c>
+      <c r="AL85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM85" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AN85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP85" s="13" t="n">
+      <c r="AO85" s="13" t="n">
         <v>885635897</v>
       </c>
-      <c r="AQ85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR85" s="13" t="n">
+      <c r="AP85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ85" s="13" t="n">
         <v>872800813</v>
       </c>
+      <c r="AR85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS85" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AT85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV85" s="13" t="n">
+      <c r="AU85" s="13" t="n">
         <v>844437419</v>
       </c>
+      <c r="AV85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AW85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY85" s="13" t="n">
+      <c r="AX85" s="13" t="n">
         <v>854437500</v>
       </c>
+      <c r="AY85" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AZ85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB85" s="13" t="n">
+      <c r="BA85" s="13" t="n">
         <v>1085005076</v>
+      </c>
+      <c r="BB85" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12658,12 +12658,12 @@
       <c r="AB86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC86" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD86" s="16" t="n">
+      <c r="AC86" s="16" t="n">
         <v>111893236</v>
       </c>
+      <c r="AD86" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE86" s="16" t="s">
         <v>58</v>
       </c>
@@ -12676,12 +12676,12 @@
       <c r="AH86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI86" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ86" s="16" t="n">
+      <c r="AI86" s="16" t="n">
         <v>112141304</v>
       </c>
+      <c r="AJ86" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AK86" s="16" t="s">
         <v>58</v>
       </c>
@@ -12691,12 +12691,12 @@
       <c r="AM86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN86" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO86" s="16" t="n">
+      <c r="AN86" s="16" t="n">
         <v>84394333</v>
       </c>
+      <c r="AO86" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AP86" s="16" t="s">
         <v>58</v>
       </c>
@@ -12712,29 +12712,29 @@
       <c r="AT86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU86" s="16" t="s">
-        <v>58</v>
+      <c r="AU86" s="16" t="n">
+        <v>199329070</v>
       </c>
       <c r="AV86" s="16" t="n">
-        <v>199329070</v>
+        <v>174208400</v>
       </c>
       <c r="AW86" s="16" t="n">
-        <v>174208400</v>
+        <v>165000000</v>
       </c>
       <c r="AX86" s="16" t="n">
-        <v>165000000</v>
+        <v>207166667</v>
       </c>
       <c r="AY86" s="16" t="n">
-        <v>207166667</v>
+        <v>194820000</v>
       </c>
       <c r="AZ86" s="16" t="n">
         <v>194820000</v>
       </c>
       <c r="BA86" s="16" t="n">
-        <v>194820000</v>
-      </c>
-      <c r="BB86" s="16" t="n">
         <v>261471781</v>
+      </c>
+      <c r="BB86" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12850,20 +12850,20 @@
       <c r="T88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U88" s="13" t="s">
-        <v>58</v>
+      <c r="U88" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="W88" s="13" t="n">
-        <v>0</v>
+        <v>4546617</v>
       </c>
       <c r="X88" s="13" t="n">
-        <v>4546617</v>
+        <v>7932803</v>
       </c>
       <c r="Y88" s="13" t="n">
-        <v>7932803</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="13" t="n">
         <v>0</v>
@@ -12872,34 +12872,34 @@
         <v>0</v>
       </c>
       <c r="AB88" s="13" t="n">
-        <v>0</v>
+        <v>4296524</v>
       </c>
       <c r="AC88" s="13" t="n">
-        <v>4296524</v>
+        <v>4300353</v>
       </c>
       <c r="AD88" s="13" t="n">
-        <v>4300353</v>
+        <v>0</v>
       </c>
       <c r="AE88" s="13" t="n">
-        <v>0</v>
+        <v>8400270</v>
       </c>
       <c r="AF88" s="13" t="n">
-        <v>8400270</v>
+        <v>0</v>
       </c>
       <c r="AG88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AH88" s="13" t="n">
-        <v>0</v>
+        <v>9174773</v>
       </c>
       <c r="AI88" s="13" t="n">
-        <v>9174773</v>
+        <v>0</v>
       </c>
       <c r="AJ88" s="13" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="AK88" s="13" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="AL88" s="13" t="n">
         <v>0</v>
@@ -12911,46 +12911,46 @@
         <v>0</v>
       </c>
       <c r="AO88" s="13" t="n">
-        <v>0</v>
+        <v>11000306</v>
       </c>
       <c r="AP88" s="13" t="n">
-        <v>11000306</v>
+        <v>0</v>
       </c>
       <c r="AQ88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AR88" s="13" t="n">
-        <v>0</v>
+        <v>14000200</v>
       </c>
       <c r="AS88" s="13" t="n">
-        <v>14000200</v>
+        <v>0</v>
       </c>
       <c r="AT88" s="13" t="n">
-        <v>0</v>
+        <v>14000399</v>
       </c>
       <c r="AU88" s="13" t="n">
-        <v>14000399</v>
+        <v>13999833</v>
       </c>
       <c r="AV88" s="13" t="n">
-        <v>13999833</v>
+        <v>0</v>
       </c>
       <c r="AW88" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AX88" s="13" t="n">
-        <v>0</v>
+        <v>14001091</v>
       </c>
       <c r="AY88" s="13" t="n">
-        <v>14001091</v>
+        <v>0</v>
       </c>
       <c r="AZ88" s="13" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="BA88" s="13" t="n">
-        <v>15000000</v>
+        <v>15000468</v>
       </c>
       <c r="BB88" s="13" t="n">
-        <v>15000468</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
